--- a/results/predmety_kde_garant_neuci.xlsx
+++ b/results/predmety_kde_garant_neuci.xlsx
@@ -1102,147 +1102,147 @@
     <t>KMA/AVD1, KMA/AVD2</t>
   </si>
   <si>
-    <t>'Sells Ch. C# a WinForms: programování formulářů Windows. Zoner Press, Brno, 2005. ISBN 80-86815-25-0.',
-'JavaFX Documentation Home | JavaFX 2 Tutorials and Documentation. Moved [online]. Copyright 2011, 2014. ',
-'Oracle and/or its affiliates. ',
-'Petzold Ch. Programování Microsoft Windows Forms v jazyce C#. Computer Press, Brno, 2006. ISBN 80-251-1058-3.',
-'PyQt5 Reference Guide- PyQt v5.14.0 Reference Guide. [online]. ',
-'Windows Presentation Foundation Microsoft Docs. [online]. ',
-'Nash T. C# 2010 : rychlý průvodce novinkami a nejlepšími postupy. Computer Press, Brno, 2010. ',
-'Creating a GUI With JFC/Swing (The JavaTM Tutorials). [online]. Copyright 1995, 2019 Oracle and/or its affiliates. ',
-'Agarwal V. V., Huddleston J. Databáze v C# 2008 : průvodce programátora. Computer Press, Brno, 2009. ISBN 978-80-251-2309-6.',
+    <t>'Sells Ch. C# a WinForms: programování formulářů Windows. Zoner Press, Brno, 2005. ISBN 80-86815-25-0.',_x000D_
+'JavaFX Documentation Home | JavaFX 2 Tutorials and Documentation. Moved [online]. Copyright 2011, 2014. ',_x000D_
+'Oracle and/or its affiliates. ',_x000D_
+'Petzold Ch. Programování Microsoft Windows Forms v jazyce C#. Computer Press, Brno, 2006. ISBN 80-251-1058-3.',_x000D_
+'PyQt5 Reference Guide- PyQt v5.14.0 Reference Guide. [online]. ',_x000D_
+'Windows Presentation Foundation Microsoft Docs. [online]. ',_x000D_
+'Nash T. C# 2010 : rychlý průvodce novinkami a nejlepšími postupy. Computer Press, Brno, 2010. ',_x000D_
+'Creating a GUI With JFC/Swing (The JavaTM Tutorials). [online]. Copyright 1995, 2019 Oracle and/or its affiliates. ',_x000D_
+'Agarwal V. V., Huddleston J. Databáze v C# 2008 : průvodce programátora. Computer Press, Brno, 2009. ISBN 978-80-251-2309-6.',_x000D_
 'Documentation | Electron. Electron | Build cross platform desktop apps with JavaScript, HTML, and CSS. [online]. '</t>
   </si>
   <si>
-    <t>'Sodomka, P. Informační systémy v podnikové praxi. Computer Press, Praha, 2011. ISBN 978-80-251-2878-7.',
-'Basl, J., Blažíček, R. Podnikové informační systémy. Podnik v informační společnosti. Grada, Praha, 2012. ISBN 978-80-247-4307-3.',
-'Sousa, K. J., Oz, E. Management information systems. Stamford: Cengage Learning, 2015. ISBN 978-1-285-18613-9. ',
-'Lusczak, A., Singer, R. Microsoft Dynamics NAV. Výukový kurz. Computer Press, Praha, 2011. ISBN 978-80-251-2851-0.',
-'Schwalbe, K. Řízení projektů v IT. Kompletní průvodce. Computer Press, Praha, 2011. ISBN 978-80-251-2882-4.',
+    <t>'Sodomka, P. Informační systémy v podnikové praxi. Computer Press, Praha, 2011. ISBN 978-80-251-2878-7.',_x000D_
+'Basl, J., Blažíček, R. Podnikové informační systémy. Podnik v informační společnosti. Grada, Praha, 2012. ISBN 978-80-247-4307-3.',_x000D_
+'Sousa, K. J., Oz, E. Management information systems. Stamford: Cengage Learning, 2015. ISBN 978-1-285-18613-9. ',_x000D_
+'Lusczak, A., Singer, R. Microsoft Dynamics NAV. Výukový kurz. Computer Press, Praha, 2011. ISBN 978-80-251-2851-0.',_x000D_
+'Schwalbe, K. Řízení projektů v IT. Kompletní průvodce. Computer Press, Praha, 2011. ISBN 978-80-251-2882-4.',_x000D_
 'SystemOnLine.cz- ekonomické a informační systémy v praxi. '</t>
   </si>
   <si>
-    <t>'Oficiální dokumentace RED HAT Enterprise Linux a red hat Cluster Suite. ',
+    <t>'Oficiální dokumentace RED HAT Enterprise Linux a red hat Cluster Suite. ',_x000D_
 'Oficiální dokumentace Sophos UTM. '</t>
   </si>
   <si>
-    <t>'Žák V. Matematické výpočty v systému Maple. ',
-'Zaplatílek K., Doňar B. Matlab - tvorba uživatelských aplikací. BEN-Technická literatura, Praha, 2004. ISBN 80-7300-133-0.',
-'Dušek F. Matlab a Simulink-úvod do používání. Univerzita Pardubice, 2002. ISBN 80-7194-475-0.',
-'Zaplatílek K., Doňar B. Matlab pro začátečníky. BEN-Technická literatura, Praha, 2003. ISBN 80-7300-095-4.',
-'Getting started with Matlab, online knihovny. ',
+    <t>'Žák V. Matematické výpočty v systému Maple. ',_x000D_
+'Zaplatílek K., Doňar B. Matlab - tvorba uživatelských aplikací. BEN-Technická literatura, Praha, 2004. ISBN 80-7300-133-0.',_x000D_
+'Dušek F. Matlab a Simulink-úvod do používání. Univerzita Pardubice, 2002. ISBN 80-7194-475-0.',_x000D_
+'Zaplatílek K., Doňar B. Matlab pro začátečníky. BEN-Technická literatura, Praha, 2003. ISBN 80-7300-095-4.',_x000D_
+'Getting started with Matlab, online knihovny. ',_x000D_
 'Návody a publikace Maplesoft. '</t>
   </si>
   <si>
-    <t>'Vicher, M. Numerická matematika, skripta UJEP, Ústí n. Lab., 2003. ',
-'VONDRÁK, V. a L. POSPÍŠIL. Numerické metody 1. 2011. ',
+    <t>'Vicher, M. Numerická matematika, skripta UJEP, Ústí n. Lab., 2003. ',_x000D_
+'VONDRÁK, V. a L. POSPÍŠIL. Numerické metody 1. 2011. ',_x000D_
 'KUBEN, J. a P. RAČKOVÁ. Numerické metody. Brno: Univerzita obrany, 2016. ISBN 978-80-7231-373-0.'</t>
   </si>
   <si>
-    <t>'Murphy R. English Grammar in Use. Cambridge University Press. ISBN 139780521734769.',
-'Harrison R., Philpot H., Curnik L. New Headway Academic Skills. Oxford University Press. ',
-'Esteras S.R., Fabre E.M. Professional English in Use ICT. Cambridge University Press. ',
-'Esteras S. R. English for Computer Users (student s book). Cambridge University Press, 2008. ',
+    <t>'Murphy R. English Grammar in Use. Cambridge University Press. ISBN 139780521734769.',_x000D_
+'Harrison R., Philpot H., Curnik L. New Headway Academic Skills. Oxford University Press. ',_x000D_
+'Esteras S.R., Fabre E.M. Professional English in Use ICT. Cambridge University Press. ',_x000D_
+'Esteras S. R. English for Computer Users (student s book). Cambridge University Press, 2008. ',_x000D_
 'KI. Soubor výukových materiálů (texty + cvičení) . '</t>
   </si>
   <si>
-    <t>'https://osf.cz/programy/ziva-demokracie/nas-stat-nase-data/',
-'http://data.ctu.cz/',
-'https://opendata.gov.cz/',
+    <t>'https://osf.cz/programy/ziva-demokracie/nas-stat-nase-data/',_x000D_
+'http://data.ctu.cz/',_x000D_
+'https://opendata.gov.cz/',_x000D_
 'Open Data. Pracovní sešit. Institut pro veřejnou správu Praha. '</t>
   </si>
   <si>
-    <t>'Lagová, M. Metody operačního výzkumu I. Univerzita J. E. Purkyně, Ústí nad Labem, 1997. ISBN 80-7044-158-5.',
-'Plevný, M., Žižka, M. Modelování a optimalizace v manažerském rozhodování. Západočeská univerzita, Plzeň, 2010. ISBN 978-80-7043-933-3.',
-'Jablonský, J. Operační výzkum: kvantitativní modely pro ekonomické rozhodování. Professional Publishing, Praha, 2007. ISBN 978-80-86946-44-3.',
-'Shortle, J. F., Thompson, J. M., Gross, D., Harris, C. M. Fundamentals of Queueing Theory. Wiley, 2018. ISBN 9781118943526. ',
-'Rohn, J. Lineární algebra a optimalizace. Karolinum, Praha, 2004. ISBN 80-246-0932-0.',
-'Lagová, M., Jablonský, J. Lineární modely. Praha, 2014. ISBN 978-80-245-2020-9.',
+    <t>'Lagová, M. Metody operačního výzkumu I. Univerzita J. E. Purkyně, Ústí nad Labem, 1997. ISBN 80-7044-158-5.',_x000D_
+'Plevný, M., Žižka, M. Modelování a optimalizace v manažerském rozhodování. Západočeská univerzita, Plzeň, 2010. ISBN 978-80-7043-933-3.',_x000D_
+'Jablonský, J. Operační výzkum: kvantitativní modely pro ekonomické rozhodování. Professional Publishing, Praha, 2007. ISBN 978-80-86946-44-3.',_x000D_
+'Shortle, J. F., Thompson, J. M., Gross, D., Harris, C. M. Fundamentals of Queueing Theory. Wiley, 2018. ISBN 9781118943526. ',_x000D_
+'Rohn, J. Lineární algebra a optimalizace. Karolinum, Praha, 2004. ISBN 80-246-0932-0.',_x000D_
+'Lagová, M., Jablonský, J. Lineární modely. Praha, 2014. ISBN 978-80-245-2020-9.',_x000D_
 'Míka, S. Matematická optimalizace. Západočeská univerzita, Plzeň, 1997. ISBN 80-7082-319-4.'</t>
   </si>
   <si>
-    <t>'Albahari J. C# 4.0 in a Nutshell: The Definitive Reference. O Reilly Media, 2010. ISBN 978-0596800956.',
-'AMD. OpenCL Zone. ',
-'Lísal M. Paralelní počítání. Univerzita J.E.Purkyně, 2006. ISBN 80-7044-784-2.',
-'M. Lísal. Paralelní programování s aplikacemi. Ústí n. Lab., 2007. ',
-'Quinn M. Parallel Programming in C with MPI and OpenMP. McGraw-Hill, 2003. ISBN 978-0072822564.',
+    <t>'Albahari J. C# 4.0 in a Nutshell: The Definitive Reference. O Reilly Media, 2010. ISBN 978-0596800956.',_x000D_
+'AMD. OpenCL Zone. ',_x000D_
+'Lísal M. Paralelní počítání. Univerzita J.E.Purkyně, 2006. ISBN 80-7044-784-2.',_x000D_
+'M. Lísal. Paralelní programování s aplikacemi. Ústí n. Lab., 2007. ',_x000D_
+'Quinn M. Parallel Programming in C with MPI and OpenMP. McGraw-Hill, 2003. ISBN 978-0072822564.',_x000D_
 'Chandra R. Parallel Programming in OpenMP. Morgan Kaufmann, 2000. ISBN 978-1558606715.'</t>
   </si>
   <si>
-    <t>'STROUHAL, Martin, ed. Učit se být učitelem: k vybraným problémům učitelského vzdělávání. Praha: Univerzita Karlova, nakladatelství Karolinum,, 2016. ISBN 978-80-246-3465-4.',
-'LOJDOVÁ, Kateřina et al. Determinanty účinnosti učitelských praxí. Brno: Masarykova univerzita,, 2016. ISBN 978-80-210-8132-1.',
-'Jančaříková, K. a kol. Didaktické zásady v přírodovědném vzdělávání. Pedagogická fakulta UK Praha, 158 s, 2022. ISBN 9788076032897.',
-'SPILKOVÁ, Vladimíra a kol. Klinická škola a její role ve vzdělávání učitelů. [Praha]: Retida spol. s r.o., 2015. ISBN 978-80-260-9405-0.',
-'BRANDENBURG, Robyn, ed. et al. l. Teacher education: innovation, intervention and impact. Singapore: Springer, 2016. ISBN 978-981-10-0784-2.',
-'GULOVÁ, Lenka, ed. Studentské profesní praxe - multikulturní lekce ve školách a v dalších institucích: výukové materiály. Brno: Masarykova univerzita,, 2015. ISBN 978-80-210-8119-2.',
-'KALHOUS, Z.; OBST, O. Školní didaktika. Praha: Portál, 2002. ISBN 80-7178-253-X.',
+    <t>'STROUHAL, Martin, ed. Učit se být učitelem: k vybraným problémům učitelského vzdělávání. Praha: Univerzita Karlova, nakladatelství Karolinum,, 2016. ISBN 978-80-246-3465-4.',_x000D_
+'LOJDOVÁ, Kateřina et al. Determinanty účinnosti učitelských praxí. Brno: Masarykova univerzita,, 2016. ISBN 978-80-210-8132-1.',_x000D_
+'Jančaříková, K. a kol. Didaktické zásady v přírodovědném vzdělávání. Pedagogická fakulta UK Praha, 158 s, 2022. ISBN 9788076032897.',_x000D_
+'SPILKOVÁ, Vladimíra a kol. Klinická škola a její role ve vzdělávání učitelů. [Praha]: Retida spol. s r.o., 2015. ISBN 978-80-260-9405-0.',_x000D_
+'BRANDENBURG, Robyn, ed. et al. l. Teacher education: innovation, intervention and impact. Singapore: Springer, 2016. ISBN 978-981-10-0784-2.',_x000D_
+'GULOVÁ, Lenka, ed. Studentské profesní praxe - multikulturní lekce ve školách a v dalších institucích: výukové materiály. Brno: Masarykova univerzita,, 2015. ISBN 978-80-210-8119-2.',_x000D_
+'KALHOUS, Z.; OBST, O. Školní didaktika. Praha: Portál, 2002. ISBN 80-7178-253-X.',_x000D_
 'DYTRTOVÁ, R., KRHUTOVÁ, M. Učitel. Příprava na profesi. Praha: Grada, 2009. '</t>
   </si>
   <si>
-    <t>'Bruckner, T., Voříšek, J., Buchalcevová, A., Stanovská I., Chlapek, D., Řepa, V. Tvorba informačních systémů: principy, metodiky, architektury. Praha: Grada Publishing, 2012. ISBN 978-80-247-7902-7. ',
-'Vondrák, I. Úvod do softwarového inženýrství [online]. Ostrava: VŠB-TUO, 2002. ',
-'Monson- Haefel, R. 97 klíčových znalostí softwarového architekta: [zkušenosti expertů z praxe]. Brno: Computer Press, 2010. Zkušenosti expertů z praxe. ISBN 978-80-251-3313-2. ',
-'Cha, S., Taylor, R.N., Kang, K., ed. Handbook of Software Engineering. Cham: Springer International Publishing, 2019. ISBN 978-3-030-00261-9. ',
-'Chacon, S. Pro Git. Praha: CZ.NIC, z.s.p.o., 2009. CZ.NIC. ISBN 978-80-904248-1-4. ',
+    <t>'Bruckner, T., Voříšek, J., Buchalcevová, A., Stanovská I., Chlapek, D., Řepa, V. Tvorba informačních systémů: principy, metodiky, architektury. Praha: Grada Publishing, 2012. ISBN 978-80-247-7902-7. ',_x000D_
+'Vondrák, I. Úvod do softwarového inženýrství [online]. Ostrava: VŠB-TUO, 2002. ',_x000D_
+'Monson- Haefel, R. 97 klíčových znalostí softwarového architekta: [zkušenosti expertů z praxe]. Brno: Computer Press, 2010. Zkušenosti expertů z praxe. ISBN 978-80-251-3313-2. ',_x000D_
+'Cha, S., Taylor, R.N., Kang, K., ed. Handbook of Software Engineering. Cham: Springer International Publishing, 2019. ISBN 978-3-030-00261-9. ',_x000D_
+'Chacon, S. Pro Git. Praha: CZ.NIC, z.s.p.o., 2009. CZ.NIC. ISBN 978-80-904248-1-4. ',_x000D_
 'Sommerville, I. Softwarové inženýrství. Brno: Computer Press, 2013. ISBN 978-80-251-3826-7. '</t>
   </si>
   <si>
-    <t>'Demel, J. Grafy a jejich aplikace. 2019. ',
-'Matoušek, J., Nešetřil, J. Kapitoly z diskrétní matematiky. Karolinum, Praha, 2010. ',
-'Knuth, D. E. Umění programování, 1. díl, Základní algoritmy. Computer Press, a.s., Brno, 2008. ',
-'Rigo, M. Advanced Graph Theory and Combinatorics. ISTE Ltd and John Wiley &amp; Sons, Inc., 2016. ',
-'Graham, R. L., Knuth, D. E., Patashnik, O. Concrete Mathematics. Addison - Wesley Publishing Company, 1994. ',
-'Gruska, J. Foundations of Computing. International Thomson Computer Press, 1997. ',
+    <t>'Demel, J. Grafy a jejich aplikace. 2019. ',_x000D_
+'Matoušek, J., Nešetřil, J. Kapitoly z diskrétní matematiky. Karolinum, Praha, 2010. ',_x000D_
+'Knuth, D. E. Umění programování, 1. díl, Základní algoritmy. Computer Press, a.s., Brno, 2008. ',_x000D_
+'Rigo, M. Advanced Graph Theory and Combinatorics. ISTE Ltd and John Wiley &amp; Sons, Inc., 2016. ',_x000D_
+'Graham, R. L., Knuth, D. E., Patashnik, O. Concrete Mathematics. Addison - Wesley Publishing Company, 1994. ',_x000D_
+'Gruska, J. Foundations of Computing. International Thomson Computer Press, 1997. ',_x000D_
 'Meyer, A., Chlipala, A. 6.042J Mathematics for Computer Science. Massachusetts Institute of Technology: MIT OpenCourseWare, 2015. '</t>
   </si>
   <si>
-    <t>'Laurenčík, M. Excel 2016 ? Práce s databázemi a kontingenčními tabulkami. Grada Publishing, Praha, 2017. ISBN 978-80-251-4838-9.',
-'Barilla, J., Simr, P., Sýkorová, K. Microsoft Excel 2016: podrobná uživatelská příručka. Computer Press, Brno, 2016. ISBN 978-80-251-4838-9.',
+    <t>'Laurenčík, M. Excel 2016 ? Práce s databázemi a kontingenčními tabulkami. Grada Publishing, Praha, 2017. ISBN 978-80-251-4838-9.',_x000D_
+'Barilla, J., Simr, P., Sýkorová, K. Microsoft Excel 2016: podrobná uživatelská příručka. Computer Press, Brno, 2016. ISBN 978-80-251-4838-9.',_x000D_
 'Navarrů, M. Excel 2016 ? Podrobný průvodce uživatele. Grada Publishing, Praha. ISBN 978-80-271-0193-1.'</t>
   </si>
   <si>
-    <t>'http://maple.maplesoft.cz/',
-'Zaplatílek K., Doňar B. Matlab - tvorba uživatelských aplikací. BEN-Technická literatura, Praha, 2004. ISBN 80-7300-133-0.',
-'Dušek F. Matlab a Simulink-úvod do používání. Univerzita Pardubice, 2002. ISBN 80-7194-475-0.',
-'Zaplatílek K., Doňar B. Matlab pro začátečníky. BEN-Technická literatura, Praha, 2003. ISBN 80-7300-095-4.',
-'http://www.mathworks.com/help/matlab/getting-started-with-matlab.html',
+    <t>'http://maple.maplesoft.cz/',_x000D_
+'Zaplatílek K., Doňar B. Matlab - tvorba uživatelských aplikací. BEN-Technická literatura, Praha, 2004. ISBN 80-7300-133-0.',_x000D_
+'Dušek F. Matlab a Simulink-úvod do používání. Univerzita Pardubice, 2002. ISBN 80-7194-475-0.',_x000D_
+'Zaplatílek K., Doňar B. Matlab pro začátečníky. BEN-Technická literatura, Praha, 2003. ISBN 80-7300-095-4.',_x000D_
+'http://www.mathworks.com/help/matlab/getting-started-with-matlab.html',_x000D_
 'http://www.maplesoft.cz/zakaznicka-podpora/navody-a-publikace/'</t>
   </si>
   <si>
-    <t>'Felcman J. Numerická matematika. 2013. ',
-'Segethova, J. Základy numerické matematiky. Karolinum, Praha. ',
-'Mathematics. Springer, Berlin. ISBN 0-387-98959-5.',
-'Ueberhuber, W. Numerical Computation 1, 2: Methods, Software, and Analysis. Springer, Berlin. ',
+    <t>'Felcman J. Numerická matematika. 2013. ',_x000D_
+'Segethova, J. Základy numerické matematiky. Karolinum, Praha. ',_x000D_
+'Mathematics. Springer, Berlin. ISBN 0-387-98959-5.',_x000D_
+'Ueberhuber, W. Numerical Computation 1, 2: Methods, Software, and Analysis. Springer, Berlin. ',_x000D_
 'Quarteroni, A., Sacco, R., and Saleri, F. Numerical Mathematics (2ndedn), Volume 37 of Texts in Applied Mathematics. Springer, Berlin. ISBN 0-387-98959-5. '</t>
   </si>
   <si>
-    <t>'LAGOVÁ, M. Metody operačního výzkumu I. FSE UJEP, Ústí nad Labem 1997. ',
-'Jablonský J. Operační výzkum. VŠE, Praha, 1999. ',
-'J. Rohn. Lineární algebra a optimalizace. 2004. ISBN 80-246-0932-0.',
+    <t>'LAGOVÁ, M. Metody operačního výzkumu I. FSE UJEP, Ústí nad Labem 1997. ',_x000D_
+'Jablonský J. Operační výzkum. VŠE, Praha, 1999. ',_x000D_
+'J. Rohn. Lineární algebra a optimalizace. 2004. ISBN 80-246-0932-0.',_x000D_
 'Míka S. Matematická optimalizace. ZČU Plzeň, 1997. '</t>
   </si>
   <si>
-    <t>'Gook M. Hardwarová rozhraní: průvodce programátora. Computer Press, Brno, 2006. Computer Press, Brno, 2006. ISBN 80-251-1019-2.',
-'Pirogov V. Mistrovství v jazyce Assembler. Computer Press, 2005. Computer Press, 2005. ISBN 80-251-0888-0.',
-'Virius M. Od C k C++. Kopp, České Budějovice, 2000. ISBN 80-7232-110-2.',
-'Herout P. Učebnice jazyka C. Kopp, České Budějovice, 2000. ISBN 80-85828-21-9.',
-'Margolis M. Arduino Cookbook. O´Reilly, 2011. O Reilly, 2011. ISBN 978-1-4493-0310-5.',
+    <t>'Gook M. Hardwarová rozhraní: průvodce programátora. Computer Press, Brno, 2006. Computer Press, Brno, 2006. ISBN 80-251-1019-2.',_x000D_
+'Pirogov V. Mistrovství v jazyce Assembler. Computer Press, 2005. Computer Press, 2005. ISBN 80-251-0888-0.',_x000D_
+'Virius M. Od C k C++. Kopp, České Budějovice, 2000. ISBN 80-7232-110-2.',_x000D_
+'Herout P. Učebnice jazyka C. Kopp, České Budějovice, 2000. ISBN 80-85828-21-9.',_x000D_
+'Margolis M. Arduino Cookbook. O´Reilly, 2011. O Reilly, 2011. ISBN 978-1-4493-0310-5.',_x000D_
 'Vacek V. Učebnice programování Atmel s jádrem 8051. BEN- Technická literatura, Praha, 2001. BEN-Technická literatura, Praha, 2001. ISBN 80-7300-043-1.'</t>
   </si>
   <si>
-    <t>'https://kix.fsv.cvut.cz/~demel/grafy/gr.pdf',
-'Matoušek, J., Nešetřil, J. Kapitoly z diskrétní matematiky. Karolinum, Praha, 2010. ',
-'Knuth, D. E. Umění programování, 1. díl, Základní algoritmy. Computer Press, a.s., Brno, 2008. ',
-'Rigo, M. Advanced Graph Theory and Combinatorics. ISTE Ltd and John Wiley &amp; Sons, Inc., 2016. ',
-'Graham, R. L., Knuth, D. E., Patashnik, O. Concrete Mathematics. Addison - Wesley Publishing Company, 1994. ',
-'Gruska, J. Foundations of Computing. International Thomson Computer Press, 1997. ',
+    <t>'https://kix.fsv.cvut.cz/~demel/grafy/gr.pdf',_x000D_
+'Matoušek, J., Nešetřil, J. Kapitoly z diskrétní matematiky. Karolinum, Praha, 2010. ',_x000D_
+'Knuth, D. E. Umění programování, 1. díl, Základní algoritmy. Computer Press, a.s., Brno, 2008. ',_x000D_
+'Rigo, M. Advanced Graph Theory and Combinatorics. ISTE Ltd and John Wiley &amp; Sons, Inc., 2016. ',_x000D_
+'Graham, R. L., Knuth, D. E., Patashnik, O. Concrete Mathematics. Addison - Wesley Publishing Company, 1994. ',_x000D_
+'Gruska, J. Foundations of Computing. International Thomson Computer Press, 1997. ',_x000D_
 'https://ocw.mit.edu/courses/electrical-engineering-and-computer-science/6-042j-mathematics-for-computer-science-spring-2015/'</t>
   </si>
   <si>
-    <t>'Tůma, F. Automatické řízení 1. skriptum ZČU, Plzeň, 2007. ',
-'Tůma, F. Teorie řízení. skriptum ZČU, Plzeň, 2005. ',
-'Švarc, I., Šeda, M., Vítečková, M. Automatické řízení. Brno: Akademické nakladatelství CERM, 2007, ISBN 978-80-214-3491-2. ',
-'Klán, P., Gorez, R. Process control. Prague: FCC Public, 2011, ISBN 978-80-86534-17-6. ',
+    <t>'Tůma, F. Automatické řízení 1. skriptum ZČU, Plzeň, 2007. ',_x000D_
+'Tůma, F. Teorie řízení. skriptum ZČU, Plzeň, 2005. ',_x000D_
+'Švarc, I., Šeda, M., Vítečková, M. Automatické řízení. Brno: Akademické nakladatelství CERM, 2007, ISBN 978-80-214-3491-2. ',_x000D_
+'Klán, P., Gorez, R. Process control. Prague: FCC Public, 2011, ISBN 978-80-86534-17-6. ',_x000D_
 'Wagnerová, R. Základy automatického řízení. Ostrava: VŠB- TUO, 2013, ISBN 978-80-248-3054-4. '</t>
   </si>
   <si>
@@ -1273,7 +1273,7 @@
     <t>Předmět je zaměřen na problematiku zpracování velkého a rychle rostoucího objemu dat prostřednictvím technologie Hadoop respektive některých typů tzv. NoSQL databází. Přednášky jsou zaměřeny na základní principy distribuovaných úložišť a distribuované zpracování dat, cvičení pak na implementaci ukázkových příkladů. Úvodní přednášky se věnují instalaci jednotlivých softwarových komponent a jejich spolupráci s využitím virtualizovaných kontejnerů.</t>
   </si>
   <si>
-    <t>Obsahem předmětu jsou aktuální technologie pro řešení datové a informační bezpečnosti ve firemním prostředí. Studenti
+    <t>Obsahem předmětu jsou aktuální technologie pro řešení datové a informační bezpečnosti ve firemním prostředí. Studenti_x000D_
 se seznámí s moderními nástroji pro její zajištění.</t>
   </si>
   <si>
@@ -1283,15 +1283,16 @@
     <t>Cílem předmětu je seznámit studenty s enterprise linuxovými technologiemi, které jsou používané ve firmách. Předmět studentům rozšiřuje představu o fungování IT ve firemním prostředí. Předmět je vyučovaný ve čtyřech tříhodinových blocích.</t>
   </si>
   <si>
-    <t xml:space="preserve">Kurz matematický software se zaměřuje na využití matematických modulů jazyka Python pro řešení úloh z matematického modelování, zejména úloh z numerické matematiky. Jde zejména o využití modulů math, NumPy, SymPy, PyPlot. Důraz je kladen na práci s jednoduchými poli a efektivní implementaci numerických metod. Kurz je určen pro studenty, kteří úspěšně prošli úvodním kurzem programování a základním kurzem matematiky.
+    <t xml:space="preserve">Kurz matematický software se zaměřuje na využití matematických modulů jazyka Python pro řešení úloh z matematického modelování, zejména úloh z numerické matematiky. Jde zejména o využití modulů math, NumPy, SymPy, PyPlot. Důraz je kladen na práci s jednoduchými poli a efektivní implementaci numerických metod. Kurz je určen pro studenty, kteří úspěšně prošli úvodním kurzem programování a základním kurzem matematiky._x000D_
+_x000D_
 </t>
   </si>
   <si>
-    <t>V předmětu jsou studentům představeny základní metody numerické matematiky a možnosti jejich použití v praxi.
-Studenti si osvojí nezbytné teoretické znalosti (schopnost popisu, rozboru a odvození vybraných algoritmů), které spolu
-s praktickými dovednostmi nabytými v předmětu Matematický software využijí k řešení komplexnějších úloh z praxe.
-Hlavním cílem předmětu je rozšířit kompetence studentů v oblasti programování v Pythonu či R za použití algoritmů
-numerické matematiky a ukázat jejich aplikace. Dalším cílem předmětu je, aby studenti dokázali zvolit vhodnou metodu
+    <t>V předmětu jsou studentům představeny základní metody numerické matematiky a možnosti jejich použití v praxi._x000D_
+Studenti si osvojí nezbytné teoretické znalosti (schopnost popisu, rozboru a odvození vybraných algoritmů), které spolu_x000D_
+s praktickými dovednostmi nabytými v předmětu Matematický software využijí k řešení komplexnějších úloh z praxe._x000D_
+Hlavním cílem předmětu je rozšířit kompetence studentů v oblasti programování v Pythonu či R za použití algoritmů_x000D_
+numerické matematiky a ukázat jejich aplikace. Dalším cílem předmětu je, aby studenti dokázali zvolit vhodnou metodu_x000D_
 pro řešení zadaného problému.</t>
   </si>
   <si>
@@ -1316,8 +1317,8 @@
     <t>Kurs přináší základní teoretické a především praktické informace související s paralelním programováním. Východiskem je popis paralelních systémů a principů paralelního programování. Hlavní důraz je kladen na těsně vázané systémy se symetrickým multiprocesingem využívající vlákna (OpenMPI a Parallel-LINQ), stručně jsou však představeny i systémy asymetrické (GPGPU) a masivně paralelní systémy. Na seminářích jsou presentovány paralelní řešení elementárních matematicky orientovaných algoritmů či běžných aplikačních operací.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cílem průběžné pedagogické praxe je postupné získávání praktických dovedností v oblasti plánování a reflektování výukového procesu pod vedením mentora praxe a oborového didaktika, seznámení s úkoly, cíli a hlavními činnostmi pedagoga a školy na případu konkrétních škol.
-Studenti se seznámí s pedagogickou dokumentací, organizací a přípravou výchovně vzdělávacích činností a získají zkušenosti s jejich realizací. Pozorují a analyzují práci učitele, výsledky vyučování a vlastní pedagogické činnosti. 
+    <t xml:space="preserve">Cílem průběžné pedagogické praxe je postupné získávání praktických dovedností v oblasti plánování a reflektování výukového procesu pod vedením mentora praxe a oborového didaktika, seznámení s úkoly, cíli a hlavními činnostmi pedagoga a školy na případu konkrétních škol._x000D_
+Studenti se seznámí s pedagogickou dokumentací, organizací a přípravou výchovně vzdělávacích činností a získají zkušenosti s jejich realizací. Pozorují a analyzují práci učitele, výsledky vyučování a vlastní pedagogické činnosti. _x000D_
 </t>
   </si>
   <si>
@@ -1330,29 +1331,30 @@
     <t>Tento předmět zahajuje sérii tří na sebe navazujících předmětů, v jejichž průběhu se studenti aktivně zapojí do projektů řešených ve spolupráci s firmami (zejména projektů smluvního výzkumu), případně jiných výzkumných projektů zejména aplikačního charakteru, na jejichž řešení se podílí členové katedry. Počet míst na jeden projekt bude omezený tak, aby rozdělení studentů pokrylo potřeby aktuálně řešených či připravovaných projektů</t>
   </si>
   <si>
-    <t xml:space="preserve">Předmět uzavírá sérii tří semestrálních projektů. V této fázi se výuka soustřeďuje na následující činnosti:
-- dokončení dílčích úkolů, jejich validace a verifikace,
-- finalizace výstupů projektu včetně dokumentace k nim (typicky projektové a aplikační dokumentace),
-- příprava ucelené prezentace shrnující výsledky dosažené za tři semestry,
-- v případě dlouhodobých projektů předání know-how novým členům týmu.
-V rámci seminářů bude hodnoceno dosažení cílového/průběžného stavu včetně kvality výsledné dokumentace a závěrečné prezentace. Výsledky a výstupy projektu s komerčním potenciálem mohou být následně rozpracovány a prezentovány v rámci předmětu Prezentace projektu.
+    <t xml:space="preserve">Předmět uzavírá sérii tří semestrálních projektů. V této fázi se výuka soustřeďuje na následující činnosti:_x000D_
+- dokončení dílčích úkolů, jejich validace a verifikace,_x000D_
+- finalizace výstupů projektu včetně dokumentace k nim (typicky projektové a aplikační dokumentace),_x000D_
+- příprava ucelené prezentace shrnující výsledky dosažené za tři semestry,_x000D_
+- v případě dlouhodobých projektů předání know-how novým členům týmu._x000D_
+_x000D_
+V rámci seminářů bude hodnoceno dosažení cílového/průběžného stavu včetně kvality výsledné dokumentace a závěrečné prezentace. Výsledky a výstupy projektu s komerčním potenciálem mohou být následně rozpracovány a prezentovány v rámci předmětu Prezentace projektu._x000D_
 </t>
   </si>
   <si>
-    <t>Předmět zahrnuje vybrané partie softwarového inženýrství tak, aby pokrývaly všechny základní fáze tvorby softwaru. Některé aspekty softwarového inženýrství spojené s fází implementace, testováním a tvorby dokumentace jsou navíc zahrnuty i v předmětu Objektově orientovaný návrh.
+    <t>Předmět zahrnuje vybrané partie softwarového inženýrství tak, aby pokrývaly všechny základní fáze tvorby softwaru. Některé aspekty softwarového inženýrství spojené s fází implementace, testováním a tvorby dokumentace jsou navíc zahrnuty i v předmětu Objektově orientovaný návrh._x000D_
 Důraz je kladen na praktické využití existujících nástrojů a na praktické znalosti a poznatky zprostředkovávané odborníky z praxe.</t>
   </si>
   <si>
     <t>Předmět je zaměřen na počítačové simulace využitelné v široké oblasti od ekonomických a dopravních problémů po simulace biologických či chemických dějů. Přednášky jsou zaměřeny na prezentaci existujících nástrojů včetně ukázek použití. V rámci cvičení jsou navrhovány jednoduché modely dynamických systémů, které jsou implementovány na příslušných simulačních platformách, a výsledky simulací jsou vizualizovány a analyzovány.</t>
   </si>
   <si>
-    <t>Kurz je koncipován jako úvodní kurz, který má prezentovat vybrané partie z diskrétní matematiky a teorie grafů
+    <t>Kurz je koncipován jako úvodní kurz, který má prezentovat vybrané partie z diskrétní matematiky a teorie grafů_x000D_
 s ohledem na potřeby v dalších oblastech informatiky, jako je algoritmizace, kódování a šifrování, či optimalizace.</t>
   </si>
   <si>
-    <t>V analogové části předmětu se studenti seznámí se základy elektroniky, řešením elektrických obvodů a připraví se na
-pochopení aktivních prvků v elektronice. Navazující část věnovaná logickým obvodům je zaměřena na pochopení
-základních vztahů logických systémů a na aplikaci diskrétní matematiky. Student se v ní seznámí s návrhem
+    <t>V analogové části předmětu se studenti seznámí se základy elektroniky, řešením elektrických obvodů a připraví se na_x000D_
+pochopení aktivních prvků v elektronice. Navazující část věnovaná logickým obvodům je zaměřena na pochopení_x000D_
+základních vztahů logických systémů a na aplikaci diskrétní matematiky. Student se v ní seznámí s návrhem_x000D_
 kombinačních obvodů. Ke každé části přísluší samostatná tříhodinová laboratorní praktika.</t>
   </si>
   <si>
@@ -1363,9 +1365,9 @@
 Tento kurz byl vytvořen v rámci projektu CZ.1.07/2.2.00/28.0296 "Mezioborové vazby a podpora praxe v přírodovědných a technických studijních programech UJEP"</t>
   </si>
   <si>
-    <t>Předmět je zaměřen na získání základních znalostí z oblasti kyberbezpečnosti. Studenti se tak seznámí se základními
-pojmy z oblasti klasické i moderní kryptologie, stejně jako se základními principy zabezpečení dat. Nebude chybět ani
-analýza hrozeb a rizik současných informačních systémů. Tyto základní kompetence budou následně využity v dalších
+    <t>Předmět je zaměřen na získání základních znalostí z oblasti kyberbezpečnosti. Studenti se tak seznámí se základními_x000D_
+pojmy z oblasti klasické i moderní kryptologie, stejně jako se základními principy zabezpečení dat. Nebude chybět ani_x000D_
+analýza hrozeb a rizik současných informačních systémů. Tyto základní kompetence budou následně využity v dalších_x000D_
 předmětech.</t>
   </si>
   <si>
@@ -1389,30 +1391,30 @@
     <t>Kurs je zaměřen na základní principy programování vestavěných systémů resp. obecně univerzálních procesorů na nízké úrovni. Kurs vychází z popisu architektury jednoduchých procesorů z hlediska programátora, obsahuje úvod do assembleru a je završen možnostmi využití jazyků vyšší úrovně. Součástí kursu je i detailní popis zvolené hardwarové platformy, principů jejího programování a tvorba komplexnějších programů pro tuto platformu.</t>
   </si>
   <si>
-    <t>Obsahové zaměření průběžné pedagogické praxe je na pedagogickou práci s žáky na SŠ. Cílem souvislé praxe je
-navazovat a rozvíjet zkušenost získané v předešlých praxích, zvláště pak praxe souvislé na ZŠ a to směrem k
-samostatnému zvládání celého edukačního procesu, od přípravy, přes motivaci, realizaci, fixaci, až po evaluaci výsledků
-výuky. Praxe je nejprve vykonávána formou náslechů cvičného učitele (mentora), následně pak vlastními výstupy.
-Student bude hospitovat a vykonávat vlastní pedagogickou činnost v předmětu odpovídajícímu studijnímu programu
-MAIOR. Student vykoná praxi v délce 50 hodin vlastní pedagogické činnosti pod vedením a podle pokynů mentora
-praxe. Pedagogická praxe má doporučené rozložení činností: Minimálně 12 hodin hospitací a 24 hodin vlastní
-pedagogické činnosti dle příprav s rozborem výuky a následně asistentské činnosti do celkového počtu 50 hod
-pedagogické praxe.
-Výstupy, obsahovou náplň a konkrétní zápočtové požadavky stanovuje oborový didaktik, kterému výstupy student
+    <t>Obsahové zaměření průběžné pedagogické praxe je na pedagogickou práci s žáky na SŠ. Cílem souvislé praxe je_x000D_
+navazovat a rozvíjet zkušenost získané v předešlých praxích, zvláště pak praxe souvislé na ZŠ a to směrem k_x000D_
+samostatnému zvládání celého edukačního procesu, od přípravy, přes motivaci, realizaci, fixaci, až po evaluaci výsledků_x000D_
+výuky. Praxe je nejprve vykonávána formou náslechů cvičného učitele (mentora), následně pak vlastními výstupy._x000D_
+Student bude hospitovat a vykonávat vlastní pedagogickou činnost v předmětu odpovídajícímu studijnímu programu_x000D_
+MAIOR. Student vykoná praxi v délce 50 hodin vlastní pedagogické činnosti pod vedením a podle pokynů mentora_x000D_
+praxe. Pedagogická praxe má doporučené rozložení činností: Minimálně 12 hodin hospitací a 24 hodin vlastní_x000D_
+pedagogické činnosti dle příprav s rozborem výuky a následně asistentské činnosti do celkového počtu 50 hod_x000D_
+pedagogické praxe._x000D_
+Výstupy, obsahovou náplň a konkrétní zápočtové požadavky stanovuje oborový didaktik, kterému výstupy student_x000D_
 odevzdává a oborový didaktik uděluje zápočet.</t>
   </si>
   <si>
-    <t>Obsahové zaměření průběžné pedagogické praxe je na pedagogickou práci s žáky na 2. stupni ZŠ. Cílem souvislé praxe
-je navazovat a rozvíjet zkušenost získané v předešlých praxích směrem k samostatnému zvládnutí celého edukačního
-procesu, od přípravy, přes motivaci, realizaci, fixaci, až po evaluaci výsledků výuky.
-Praxe je nejprve vykonávána formou náslechů cvičného učitele (mentora), reflexí denních činností, následně pak
-vlastními výstupy. Student bude hospitovat a vykonávat vlastní pedagogickou činnost v předmětu odpovídajícímu
-studijnímu programu MAIOR
-Student vykoná praxi v délce 50 hodin vlastní pedagogické činnosti pod vedením a podle pokynů mentora praxe.
-Pedagogická praxe má doporučené rozložení činností: Minimálně 6 hodin hospitací a 16 hodin vlastní pedagogické
-činnosti dle příprav s rozborem výuky a následně asistentské činnosti do celkového počtu 50 hod pedagogické praxe.
-Rámec praxe tedy počty hodin a výstupy (pedagogický deník/ portfolio z praxe + hodnocení mentorem praxe) jsou
-nastaveny z CPPV, obsahovou náplň a konkrétní zápočtové požadavky stanovuje oborový didaktik, kterému výstupy
+    <t>Obsahové zaměření průběžné pedagogické praxe je na pedagogickou práci s žáky na 2. stupni ZŠ. Cílem souvislé praxe_x000D_
+je navazovat a rozvíjet zkušenost získané v předešlých praxích směrem k samostatnému zvládnutí celého edukačního_x000D_
+procesu, od přípravy, přes motivaci, realizaci, fixaci, až po evaluaci výsledků výuky._x000D_
+Praxe je nejprve vykonávána formou náslechů cvičného učitele (mentora), reflexí denních činností, následně pak_x000D_
+vlastními výstupy. Student bude hospitovat a vykonávat vlastní pedagogickou činnost v předmětu odpovídajícímu_x000D_
+studijnímu programu MAIOR_x000D_
+Student vykoná praxi v délce 50 hodin vlastní pedagogické činnosti pod vedením a podle pokynů mentora praxe._x000D_
+Pedagogická praxe má doporučené rozložení činností: Minimálně 6 hodin hospitací a 16 hodin vlastní pedagogické_x000D_
+činnosti dle příprav s rozborem výuky a následně asistentské činnosti do celkového počtu 50 hod pedagogické praxe._x000D_
+Rámec praxe tedy počty hodin a výstupy (pedagogický deník/ portfolio z praxe + hodnocení mentorem praxe) jsou_x000D_
+nastaveny z CPPV, obsahovou náplň a konkrétní zápočtové požadavky stanovuje oborový didaktik, kterému výstupy_x000D_
 student odevzdává a oborový didaktik uděluje zápočet.</t>
   </si>
   <si>
@@ -1440,8 +1442,8 @@
     <t>Kombinovaná</t>
   </si>
   <si>
-    <t xml:space="preserve">Zápočet: laboratorní úloha
-Zkouška: ústní
+    <t xml:space="preserve">Zápočet: laboratorní úloha_x000D_
+Zkouška: ústní_x000D_
 </t>
   </si>
   <si>
@@ -1452,8 +1454,9 @@
     <t>Throughout the course, students will be required to complete programming assignments using MATLAB to reinforce and apply concepts covered in lectures.</t>
   </si>
   <si>
-    <t xml:space="preserve">Zápočet: vypracování programu zpracovávající data v distribuovaném systému
-Zkouška: ústní (diskuse nad seminárním programem a ověření obecných faktických znalostí)
+    <t xml:space="preserve">Zápočet: vypracování programu zpracovávající data v distribuovaném systému_x000D_
+_x000D_
+Zkouška: ústní (diskuse nad seminárním programem a ověření obecných faktických znalostí)_x000D_
 </t>
   </si>
   <si>
@@ -1482,58 +1485,59 @@
     <t>Podmínkou získání zápočtu je úspěšně napsaný písemný test, zpracování seminární práce a její obhajoba. Zkouška bude ústní.</t>
   </si>
   <si>
-    <t xml:space="preserve">Zápočet: seminární práce
-Zkouška: ústní, zaměřená na ověření teoretických znalostí
+    <t xml:space="preserve">Zápočet: seminární práce_x000D_
+Zkouška: ústní, zaměřená na ověření teoretických znalostí_x000D_
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Zápočet: seminární práce (implementace paralelní verze netriviálního algoritmu za použití CPU a GPU)
-Zkouška: ústní (diskuse nad seminární prací a ověření obecných faktických znalostí)
+    <t xml:space="preserve">Zápočet: seminární práce (implementace paralelní verze netriviálního algoritmu za použití CPU a GPU)_x000D_
+_x000D_
+Zkouška: ústní (diskuse nad seminární prací a ověření obecných faktických znalostí)_x000D_
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Zápočet: praktický test (řešení zadané úlohy na počítači v počítačové učebně)
-Zkouška: ústní, zaměřená na ověření teoretických znalostí
+    <t xml:space="preserve">Zápočet: praktický test (řešení zadané úlohy na počítači v počítačové učebně)_x000D_
+Zkouška: ústní, zaměřená na ověření teoretických znalostí_x000D_
 </t>
   </si>
   <si>
-    <t xml:space="preserve">- řádné absolvování praxe na školském zařízení - 3 hod/týd (KS 13hod/sem)
-- odevzdání elektronické verze Deníku průběžné praxe (IS STAG)
-- odevzdání hodnocení studenta mentorem praxe (IS STAG)
+    <t xml:space="preserve">- řádné absolvování praxe na školském zařízení - 3 hod/týd (KS 13hod/sem)_x000D_
+- odevzdání elektronické verze Deníku průběžné praxe (IS STAG)_x000D_
+- odevzdání hodnocení studenta mentorem praxe (IS STAG)_x000D_
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Zápočet: seminární práce
-Zkouška: ústní
+    <t xml:space="preserve">Zápočet: seminární práce_x000D_
+Zkouška: ústní_x000D_
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Zápočet: tvorba a obhájení seminární práce na zadané téma
-Zkouška: ústní, zaměřená na ověření teoretických znalostí
+    <t xml:space="preserve">Zápočet: tvorba a obhájení seminární práce na zadané téma_x000D_
+Zkouška: ústní, zaměřená na ověření teoretických znalostí_x000D_
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Účast na projektových schůzkách, průběžné plnění zadaných úkolů
-Zápočet uděluje řešitel projektu.
+    <t xml:space="preserve">Účast na projektových schůzkách, průběžné plnění zadaných úkolů_x000D_
+Zápočet uděluje řešitel projektu._x000D_
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Účast na projektových schůzkách s prezentací dílčích výstupů a plánů dalšího postupu, průběžné plnění zadaných úkolů
-Zápočet uděluje řešitel projektu.
+    <t xml:space="preserve">Účast na projektových schůzkách s prezentací dílčích výstupů a plánů dalšího postupu, průběžné plnění zadaných úkolů_x000D_
+Zápočet uděluje řešitel projektu._x000D_
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Účast na projektových schůzkách s prezentací dílčích výstupů a plánů dalšího postupu, zhodnocení finálních výstupů projektu dle jejich závěrečné prezentace a dokumentace
-Zápočet uděluje řešitel projektu.
+    <t xml:space="preserve">Účast na projektových schůzkách s prezentací dílčích výstupů a plánů dalšího postupu, zhodnocení finálních výstupů projektu dle jejich závěrečné prezentace a dokumentace_x000D_
+Zápočet uděluje řešitel projektu._x000D_
 </t>
   </si>
   <si>
-    <t>Zápočet: praktická úloha v nástroji Git
+    <t>Zápočet: praktická úloha v nástroji Git_x000D_
 Zkouška: klasifikovaná seminární práce ze zvolené oblasti softwarového inženýrství a diskuse nad ní</t>
   </si>
   <si>
-    <t xml:space="preserve">Zápočet: seminární práce (implementace modelu a vizualizace výsledku simulace)
-Zkouška: ústní, zaměřená na praktické i teoretické aspekty simulací
+    <t xml:space="preserve">Zápočet: seminární práce (implementace modelu a vizualizace výsledku simulace)_x000D_
+Zkouška: ústní, zaměřená na praktické i teoretické aspekty simulací_x000D_
 </t>
   </si>
   <si>
@@ -1543,7 +1547,7 @@
 </t>
   </si>
   <si>
-    <t>Zápočet: aktivní účast na laboratořích
+    <t>Zápočet: aktivní účast na laboratořích_x000D_
 Zkouška: ústní</t>
   </si>
   <si>
@@ -1559,9 +1563,9 @@
     <t>Praktický test (řešení zadaných úloh na počítači v počítačové učebně)</t>
   </si>
   <si>
-    <t xml:space="preserve">Požadavky pro udělení zápočtu
-- aktivní účast na seminářích (povoleny jsou nejvýše 3 absence)
-- vypracování seminárních prací 
+    <t xml:space="preserve">Požadavky pro udělení zápočtu_x000D_
+- aktivní účast na seminářích (povoleny jsou nejvýše 3 absence)_x000D_
+- vypracování seminárních prací _x000D_
 </t>
   </si>
   <si>
@@ -1589,8 +1593,8 @@
 - 2 dodatečné body lze získat za každých dokončených 5 minut věnování pozornosti prezentace ostatních studentů.</t>
   </si>
   <si>
-    <t>- řádné absolvování praxe na školském zařízení
-- odevzdání elektronické verze portfolia z praxe do systému stag
+    <t>- řádné absolvování praxe na školském zařízení_x000D_
+- odevzdání elektronické verze portfolia z praxe do systému stag_x000D_
 - odevzdání hodnocení mentorem praxe do systému stag</t>
   </si>
   <si>
@@ -1605,18 +1609,19 @@
     <t>Písemný test</t>
   </si>
   <si>
-    <t xml:space="preserve">Obsahem předmětu jsou aktuální technologie pro řešení datové a informační bezpečnosti ve firemním prostředí. Studenti se seznámí s moderními nástroji pro její zajištění.
-1. Úvod do datové bezpečnosti
-2. Klasifikace a analýza dat z pohledu jejich správy, citlivosti a bezpečnosti
-3. Ochrana osobních údajů (např. GDPR), anonymizace dat
-4. DLP systémy
-5. Systémy vysoké dostupnosti datových úložišť
-6. Zálohovací technologie pro koncové prvky
-7. Zálohovací technologie pro infrastrukturní systémy
-8. Archivační technologie
-9. Systémy logování a struktura logů pro framework AAA
-10. - 12. Správa systémů pro ukládání logovacích údajů frameworku AAA
-13. - 14. Vyhledávání souvislostí v uložených datech
+    <t xml:space="preserve">Obsahem předmětu jsou aktuální technologie pro řešení datové a informační bezpečnosti ve firemním prostředí. Studenti se seznámí s moderními nástroji pro její zajištění._x000D_
+_x000D_
+1. Úvod do datové bezpečnosti_x000D_
+2. Klasifikace a analýza dat z pohledu jejich správy, citlivosti a bezpečnosti_x000D_
+3. Ochrana osobních údajů (např. GDPR), anonymizace dat_x000D_
+4. DLP systémy_x000D_
+5. Systémy vysoké dostupnosti datových úložišť_x000D_
+6. Zálohovací technologie pro koncové prvky_x000D_
+7. Zálohovací technologie pro infrastrukturní systémy_x000D_
+8. Archivační technologie_x000D_
+9. Systémy logování a struktura logů pro framework AAA_x000D_
+10. - 12. Správa systémů pro ukládání logovacích údajů frameworku AAA_x000D_
+13. - 14. Vyhledávání souvislostí v uložených datech_x000D_
 </t>
   </si>
   <si>
@@ -1634,58 +1639,58 @@
 12.	Tvorba síťových aplikací</t>
   </si>
   <si>
-    <t xml:space="preserve">1.	Overview of MATLAB and its applications
-2.	Basics of the MATLAB environment: workspace, command window, editor
-3.	Basic commands and syntax: variables, operators, expressions, input/output
-4.	Arithmetic operations with scalars
-5.	Conditional statements (if statements)
-6.	The switch-case statement
-7.	Creating a two dimensional array (Matrix)
-8.	Loops: for, while
-9.	Arrays: creation, indexing, slicing, operations
-10.	Creating functions: input/output arguments, local variables, recursion
-11.	Plotting: 2D and 3D plots, line and scatter plots
-12.	Overview of toolboxes available in MATLAB for optimization techniques, linear algebra, matrix operations, eigenvalues and eigenvectors, and linear systems
+    <t xml:space="preserve">1.	Overview of MATLAB and its applications_x000D_
+2.	Basics of the MATLAB environment: workspace, command window, editor_x000D_
+3.	Basic commands and syntax: variables, operators, expressions, input/output_x000D_
+4.	Arithmetic operations with scalars_x000D_
+5.	Conditional statements (if statements)_x000D_
+6.	The switch-case statement_x000D_
+7.	Creating a two dimensional array (Matrix)_x000D_
+8.	Loops: for, while_x000D_
+9.	Arrays: creation, indexing, slicing, operations_x000D_
+10.	Creating functions: input/output arguments, local variables, recursion_x000D_
+11.	Plotting: 2D and 3D plots, line and scatter plots_x000D_
+12.	Overview of toolboxes available in MATLAB for optimization techniques, linear algebra, matrix operations, eigenvalues and eigenvectors, and linear systems_x000D_
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Principy virtualizace a přehled nástrojů
-2. Tvorba unifikovaných prostředí (izolace aplikací): Docker, CoreOS, rkt
-3. Architektura clusteru: přehled Hadoop
-4. Ukládání dat (storage) HDFS, HiveQL
-5. MapReduce framework (principy)
-6. Spark a jeho architektura
-7. Moduly Spark: MLlib (strojové učení), GraphX, Spark Streaming (streamování dat)
-8. - 9. NoSQL databáze a BigData (MongoDB, Neo4j, Caché)
+    <t xml:space="preserve">1. Principy virtualizace a přehled nástrojů_x000D_
+2. Tvorba unifikovaných prostředí (izolace aplikací): Docker, CoreOS, rkt_x000D_
+3. Architektura clusteru: přehled Hadoop_x000D_
+4. Ukládání dat (storage) HDFS, HiveQL_x000D_
+5. MapReduce framework (principy)_x000D_
+6. Spark a jeho architektura_x000D_
+7. Moduly Spark: MLlib (strojové učení), GraphX, Spark Streaming (streamování dat)_x000D_
+8. - 9. NoSQL databáze a BigData (MongoDB, Neo4j, Caché)_x000D_
 </t>
   </si>
   <si>
-    <t>1. Úvod do datové bezpečnosti
-2. Klasifikace a analýza dat z pohledu jejich správy, citlivosti a bezpečnosti
-3. Ochrana osobních údajů (např. GDPR), anonymizace dat
-4. DLP systémy
-5. Systémy vysoké dostupnosti datových úložišť
-6. Zálohovací technologie pro koncové prvky
-7. Zálohovací technologie pro infrastrukturní systémy
-8. Archivační technologie
-9. Systémy logování a struktura logů pro framework AAA
-10. ? 12. Správa systémů pro ukládání logovacích údajů frameworku AAA
+    <t>1. Úvod do datové bezpečnosti_x000D_
+2. Klasifikace a analýza dat z pohledu jejich správy, citlivosti a bezpečnosti_x000D_
+3. Ochrana osobních údajů (např. GDPR), anonymizace dat_x000D_
+4. DLP systémy_x000D_
+5. Systémy vysoké dostupnosti datových úložišť_x000D_
+6. Zálohovací technologie pro koncové prvky_x000D_
+7. Zálohovací technologie pro infrastrukturní systémy_x000D_
+8. Archivační technologie_x000D_
+9. Systémy logování a struktura logů pro framework AAA_x000D_
+10. ? 12. Správa systémů pro ukládání logovacích údajů frameworku AAA_x000D_
 13. ? 14. Vyhledávání souvislostí v uložených datech</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Podnikové informační systémy (IS): základní pojmy, vývoj
-2. ERP (Enterprise Resource Planning): jádro informačního systému
-3. - 4. Další funkcionalita podnikových informačních systémů: SCM (Supply Chain Management; řízení dodavatelského řetězce), CRM (Customer Relationship Management; řízení vztahu se zákazníkem), ECM (Enterprise Content Management; řízení podnikového obsahu, správa dokumentů a řízení pracovních toků), BI (Business Intelligence)
-5. Datový a procesní pohled na podnikové informační systémy: databáze, typy dat, podnikové procesy, dělení, modelování, vliv organizace podniku, aplikované metody řízení (MRP, CRP)
-6. Nabídka, efekty a trendy podnikových informačních systémů: současný stav a trendy, podpora cílů a metod řízení, efektivnost, potenciál
-7. Projekty implementace: etapy, organizační zajištění
-8. - 13. Informační systémy v podnikové praxi: univerzální účetní systémy, robustní firemní ERP a jejich integrace s BI, principy řešení (on-premise, SaaS), pokrytí potřeb zákazníka (pohled konzultanta) a rozšiřitelnost standardních řešení (pohled vývojáře), IS ve školství, IS pro stavební firmy
+    <t xml:space="preserve">1. Podnikové informační systémy (IS): základní pojmy, vývoj_x000D_
+2. ERP (Enterprise Resource Planning): jádro informačního systému_x000D_
+3. - 4. Další funkcionalita podnikových informačních systémů: SCM (Supply Chain Management; řízení dodavatelského řetězce), CRM (Customer Relationship Management; řízení vztahu se zákazníkem), ECM (Enterprise Content Management; řízení podnikového obsahu, správa dokumentů a řízení pracovních toků), BI (Business Intelligence)_x000D_
+5. Datový a procesní pohled na podnikové informační systémy: databáze, typy dat, podnikové procesy, dělení, modelování, vliv organizace podniku, aplikované metody řízení (MRP, CRP)_x000D_
+6. Nabídka, efekty a trendy podnikových informačních systémů: současný stav a trendy, podpora cílů a metod řízení, efektivnost, potenciál_x000D_
+7. Projekty implementace: etapy, organizační zajištění_x000D_
+8. - 13. Informační systémy v podnikové praxi: univerzální účetní systémy, robustní firemní ERP a jejich integrace s BI, principy řešení (on-premise, SaaS), pokrytí potřeb zákazníka (pohled konzultanta) a rozšiřitelnost standardních řešení (pohled vývojáře), IS ve školství, IS pro stavební firmy_x000D_
 </t>
   </si>
   <si>
-    <t>1. Byznys a ICT, použití linuxových technologií v praxi Byznys a ICT GNU/Linux Komerční Linux Red Hat Enterprise Linuxu, vyzkoušení
-2. Řešení vysoké dostupnosti na Linuxu Vysoká dostupnost ? teorie, principy Použití a nastavení Red Hat Cluster Suite Sophos UTM jako moderní bezpečnostní řešení postavené na Linuxu Funkce a vlastnosti UTM řešení 
-3. Bezpečnost v síti, tvorba bezpečnostní politiky ve firemním prostředí IPS/IDS systémy, funkce, nastavení Zabezpečení poštovního serveru, antispam techniky 
+    <t>1. Byznys a ICT, použití linuxových technologií v praxi Byznys a ICT GNU/Linux Komerční Linux Red Hat Enterprise Linuxu, vyzkoušení_x000D_
+2. Řešení vysoké dostupnosti na Linuxu Vysoká dostupnost ? teorie, principy Použití a nastavení Red Hat Cluster Suite Sophos UTM jako moderní bezpečnostní řešení postavené na Linuxu Funkce a vlastnosti UTM řešení _x000D_
+3. Bezpečnost v síti, tvorba bezpečnostní politiky ve firemním prostředí IPS/IDS systémy, funkce, nastavení Zabezpečení poštovního serveru, antispam techniky _x000D_
 4. Virtualizace a provoz IT na virtuální infrastruktuře Základy virtualizace x86 Virtualizační techniky Ukázka moderního virtualizačního nástroje: Red Hat Enterprise Virtualization, VMware vSphere</t>
   </si>
   <si>
@@ -1727,63 +1732,66 @@
 12. Zápočtový test </t>
   </si>
   <si>
-    <t xml:space="preserve">První etapa: motivační semináře (dvouhodinové)
-1. Úvod do problematiky otevřených dat (politika v této oblasti i technické náležitosti)
-2. Otevřená data v praxi z pohledu veřejné správy
-Druhá etapa: workshopy, nástroje pro open data (dvouhodinové)
-1. - 2. Data parsing, data scraping, formáty otevřených dat
-3. - 4. Kartografické minimum, GIS a prostorová data, otevřená geodata a jejich vizualizace
-5. Datová žurnalistika, případové studie
-Třetí etapa: veřejný 24hodinový hackathon (pod dohledem lektorů, návrh a prezentace vlastního řešení nad open daty)
+    <t xml:space="preserve">První etapa: motivační semináře (dvouhodinové)_x000D_
+1. Úvod do problematiky otevřených dat (politika v této oblasti i technické náležitosti)_x000D_
+2. Otevřená data v praxi z pohledu veřejné správy_x000D_
+_x000D_
+Druhá etapa: workshopy, nástroje pro open data (dvouhodinové)_x000D_
+1. - 2. Data parsing, data scraping, formáty otevřených dat_x000D_
+3. - 4. Kartografické minimum, GIS a prostorová data, otevřená geodata a jejich vizualizace_x000D_
+5. Datová žurnalistika, případové studie_x000D_
+_x000D_
+Třetí etapa: veřejný 24hodinový hackathon (pod dohledem lektorů, návrh a prezentace vlastního řešení nad open daty)_x000D_
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Úlohy lineárního programování (LP) a jejich vlastnosti
-2. - 4. Řešení úloh LP, grafické řešení úloh LP, simplexová metoda, převod na M-úlohu, dualita v LP
-5. - 7. Dopravní problém a jeho řešení metodou MODI, přiřazovací problém, okružní problém a jejich řešení
-8. - 9. Řízení projektů metodou CPM, časově nákladová analýza projektů, řízení projektů metodou PERT
-10. - 11. Modely hromadné obsluhy: Kendallova klasifikace, modely M/M/1 a M/M/m a jejich aplikace
-12. - 13. Modely hromadné obsluhy: modely M/M/1/k a M/M/m/k a jejich aplikace
+    <t xml:space="preserve">1. Úlohy lineárního programování (LP) a jejich vlastnosti_x000D_
+2. - 4. Řešení úloh LP, grafické řešení úloh LP, simplexová metoda, převod na M-úlohu, dualita v LP_x000D_
+5. - 7. Dopravní problém a jeho řešení metodou MODI, přiřazovací problém, okružní problém a jejich řešení_x000D_
+8. - 9. Řízení projektů metodou CPM, časově nákladová analýza projektů, řízení projektů metodou PERT_x000D_
+10. - 11. Modely hromadné obsluhy: Kendallova klasifikace, modely M/M/1 a M/M/m a jejich aplikace_x000D_
+12. - 13. Modely hromadné obsluhy: modely M/M/1/k a M/M/m/k a jejich aplikace_x000D_
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Formulace úloh optimalizace, volné a vázané extrémy, spojitá a diskrétní optimalizace, konvexní optimalizace, vícekriteriální optimalizace, příklady typických úloh
-2. Možnosti výpočtu derivací a gradientů: symbolická derivace, numerická derivace, principy automatické diferenciace
-3. Hledání minima v 1D: hledání minima ve směru, metoda zlatého řezu, Fibonacciho metoda
-4. - 5. Metody prvního řádu pro hledání minima: gradientní metoda, metoda konjugovaných gradientů, Nesterova metoda, metody Adagrad, RMSProp, Adam
-6. Metody druhého řádu: Newtonova metoda, kvazi-Newtonovské metody
-7. Metoda nejmenších čtverců: lineární, nelineární, Levenbergova-Marquardtova metoda
-8. Metody minimalizace bez výpočtu derivace: Hookova-Jeevesova metoda, Powellova metoda, Nelderova-Meadova metoda
-9. - 10. Principy stochastických a populačních metod: simulované žíhání, metody particle swarm, firefly metoda a cockoo search
-11. - 12. Úlohy s omezeními: Lagrangeova metoda, KKT podmínky, Lagrangeova dualita, penaltové metody
-13. - 14. Kvadratické programování: formulace, příklady užití (SVM) a možnosti řešení
+    <t xml:space="preserve">1. Formulace úloh optimalizace, volné a vázané extrémy, spojitá a diskrétní optimalizace, konvexní optimalizace, vícekriteriální optimalizace, příklady typických úloh_x000D_
+2. Možnosti výpočtu derivací a gradientů: symbolická derivace, numerická derivace, principy automatické diferenciace_x000D_
+3. Hledání minima v 1D: hledání minima ve směru, metoda zlatého řezu, Fibonacciho metoda_x000D_
+4. - 5. Metody prvního řádu pro hledání minima: gradientní metoda, metoda konjugovaných gradientů, Nesterova metoda, metody Adagrad, RMSProp, Adam_x000D_
+6. Metody druhého řádu: Newtonova metoda, kvazi-Newtonovské metody_x000D_
+7. Metoda nejmenších čtverců: lineární, nelineární, Levenbergova-Marquardtova metoda_x000D_
+8. Metody minimalizace bez výpočtu derivace: Hookova-Jeevesova metoda, Powellova metoda, Nelderova-Meadova metoda_x000D_
+9. - 10. Principy stochastických a populačních metod: simulované žíhání, metody particle swarm, firefly metoda a cockoo search_x000D_
+11. - 12. Úlohy s omezeními: Lagrangeova metoda, KKT podmínky, Lagrangeova dualita, penaltové metody_x000D_
+13. - 14. Kvadratické programování: formulace, příklady užití (SVM) a možnosti řešení_x000D_
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1. - 2. Paralelní hardware (Flynnova taxonomie, volně a těsně vázané systémy, NUMA, SIMD podpora na plaformě AMD/Intel x86_64, AMD, výpočetní clustery, masivní paralelismus prostřednictvím GPGU)
-3. Omezení paralelismu (Amdahlův a Gustafsonův zákon, organizace paměti, vliv mezipaměti), paralelismus z pohledu softwaru (asynchronní a souběžné programování, výpočetní vlákna, datově a úlohově orientovaný paralelismus, sdílení paměti versus předávání zpráv, synchronizace využitelná pro HPC úlohy)
-4. Modul multiprocessing, paralelní map, explicitní využívání komunikačních front
-5. - 6. MPI v Pythonu (point-to-point communication, kolektivní komunikace)
-7. - 8. Paralelismus nad sdílenou pamětí, OpenMP a jeho využití v Pythonu (Numba, Cython, integrace kódu v jazyce C)
-9. - 11. Využití platformy CUDA v Pythonu (Numba Cuda, Python CUDA)
-12. - 14. Moderní přístupy k HPC paralelismu (např. paralelismus v jazyce Julia, Intel oneAPI, obsah se bude přizpůsobovat aktuálním trendům)
-Exkurze + cvičení
-1. - 3. Motivační exkurze, podpora paralelismu v OS Linux, instalace a zprovoznění, profiling kódu, benchmarking
-4. - 14. Řešení praktických úloh a implementace základních paralelních algoritmů s využitím nástrojů zavedených v rámci přednášek
-Předmět je vyučován v anglickém jazyce.
+    <t xml:space="preserve">1. - 2. Paralelní hardware (Flynnova taxonomie, volně a těsně vázané systémy, NUMA, SIMD podpora na plaformě AMD/Intel x86_64, AMD, výpočetní clustery, masivní paralelismus prostřednictvím GPGU)_x000D_
+3. Omezení paralelismu (Amdahlův a Gustafsonův zákon, organizace paměti, vliv mezipaměti), paralelismus z pohledu softwaru (asynchronní a souběžné programování, výpočetní vlákna, datově a úlohově orientovaný paralelismus, sdílení paměti versus předávání zpráv, synchronizace využitelná pro HPC úlohy)_x000D_
+4. Modul multiprocessing, paralelní map, explicitní využívání komunikačních front_x000D_
+5. - 6. MPI v Pythonu (point-to-point communication, kolektivní komunikace)_x000D_
+7. - 8. Paralelismus nad sdílenou pamětí, OpenMP a jeho využití v Pythonu (Numba, Cython, integrace kódu v jazyce C)_x000D_
+9. - 11. Využití platformy CUDA v Pythonu (Numba Cuda, Python CUDA)_x000D_
+12. - 14. Moderní přístupy k HPC paralelismu (např. paralelismus v jazyce Julia, Intel oneAPI, obsah se bude přizpůsobovat aktuálním trendům)_x000D_
+Exkurze + cvičení_x000D_
+1. - 3. Motivační exkurze, podpora paralelismu v OS Linux, instalace a zprovoznění, profiling kódu, benchmarking_x000D_
+4. - 14. Řešení praktických úloh a implementace základních paralelních algoritmů s využitím nástrojů zavedených v rámci přednášek_x000D_
+_x000D_
+Předmět je vyučován v anglickém jazyce._x000D_
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Stabilita, zdroje zaokrouhlovacích chyb a jejich vliv
-2. - 3. Přímé metody pro řešení lineárních rovnic: GEM, LU rozklad, Choleského faktorizace, QR faktorizace a jejich aplikace
-4. - 5. Iterační metody pro řešení lineárních rovnic: Jacobiova, Gaussova-Seidelova metoda, SOR, gradientní metoda a metoda sdružených gradientů
-6. - 7. Vlastní čísla a jejich výpočet: odhady vlastních čísel, částečný problém vlastních čísel (mocninná metoda), úplný problém vlastních čísel (QR iterace a konstrukce QR rozkladu)
-8. SVD rozklad, jeho výpočet a aplikace
-9. Iterační metody řešení nelineárních rovnic a jejich soustav: Newtonova metoda a její varianty, metoda prosté iterace, metody pevného bodu a jejich konvergence
-10. Hledání kořenů polynomů: odhady kořenů polynomů, Newtonova-Hornerova metoda, Mullerova metoda, Bernoulliova metoda
-11. Numerická kvadratura: zopakování základních metod pro jednorozměrné integrály (Newtonovy-Cotesovy vzorce), Gaussova kvadratura, výpočet nevlastních integrálů, adaptivní přístupy, redukce pro vícerozměrné integrály a metoda Monte Carlo
-12. Řešení ODR a jejich soustav: jednokrokové a vícekrokové metody, metody prediktor-korektor, metody Rungeho-Kutty, stiff problémy a stabilita metod
-13. Aproximace a interpolace funkcí: zopakování základních metod (interpolace polynomem aj.), kubický spline, Čebyševovská aproximace
+    <t xml:space="preserve">1. Stabilita, zdroje zaokrouhlovacích chyb a jejich vliv_x000D_
+2. - 3. Přímé metody pro řešení lineárních rovnic: GEM, LU rozklad, Choleského faktorizace, QR faktorizace a jejich aplikace_x000D_
+4. - 5. Iterační metody pro řešení lineárních rovnic: Jacobiova, Gaussova-Seidelova metoda, SOR, gradientní metoda a metoda sdružených gradientů_x000D_
+6. - 7. Vlastní čísla a jejich výpočet: odhady vlastních čísel, částečný problém vlastních čísel (mocninná metoda), úplný problém vlastních čísel (QR iterace a konstrukce QR rozkladu)_x000D_
+8. SVD rozklad, jeho výpočet a aplikace_x000D_
+9. Iterační metody řešení nelineárních rovnic a jejich soustav: Newtonova metoda a její varianty, metoda prosté iterace, metody pevného bodu a jejich konvergence_x000D_
+10. Hledání kořenů polynomů: odhady kořenů polynomů, Newtonova-Hornerova metoda, Mullerova metoda, Bernoulliova metoda_x000D_
+11. Numerická kvadratura: zopakování základních metod pro jednorozměrné integrály (Newtonovy-Cotesovy vzorce), Gaussova kvadratura, výpočet nevlastních integrálů, adaptivní přístupy, redukce pro vícerozměrné integrály a metoda Monte Carlo_x000D_
+12. Řešení ODR a jejich soustav: jednokrokové a vícekrokové metody, metody prediktor-korektor, metody Rungeho-Kutty, stiff problémy a stabilita metod_x000D_
+13. Aproximace a interpolace funkcí: zopakování základních metod (interpolace polynomem aj.), kubický spline, Čebyševovská aproximace_x000D_
 </t>
   </si>
   <si>
@@ -1802,31 +1810,31 @@
 13.	Automatická paralelizace (např. Parallel Computing Toolbox Matlabu)</t>
   </si>
   <si>
-    <t xml:space="preserve">Obsahové zaměření průběžné pedagogické praxe je na pedagogickou práci s žáky na 2. stupni ZŠ a SŠ včetně seznámení se školním vzdělávacím programem a školskými dokumenty.
-Praxe je nejprve vykonávána formou náslechů cvičného učitele (mentora), reflexe denních činností, osvojováním si praktických dovedností z oblasti pedagogiky a didaktiky, následně pak vlastními výstupy. Student bude hospitovat a vykonávat vlastní pedagogickou činnost v předmětu odpovídajícímu studijnímu programu (MAIOR I MINOR).
-Student vykoná praxi na škole v rámci studentské skupiny. Vždy jeden student realizuje vlastní pedagogické činnosti pod vedením a podle pokynů mentora praxe, ostatní studenti hospitují a provádí hospitačně-reflektivní záznam. Hodiny jsou rozborované.
-Rámec praxe, tedy počty hodin a výstupy (pedagogický deník/ portfolio z praxe + hodnocení mentorem praxe), je nastaven z CPPV, obsahovou náplň a konkrétní zápočtové požadavky stanovuje oborový didaktik, jemuž výstupy student odevzdává.
-Student si vybírá školu pro realizaci průběžné praxe sám, příp. po poradě s oborovým didaktikem, pokud možno z nabídky fakultních a spolupracujících škol.
-Student v průběhu průběžné praxe plní následující úkoly:
--	v průběhu praxe se seznámí s organizací výchovně vzdělávací práce v ZŠ či SŠ, pedagogickou dokumentací a metodickým materiálem 
--	zúčastní se dle pokynů mentora akcí školy a bude plnit další povinnosti
--	během prvních týdnů průběžné praxe studenti pouze hospitují a tyto náslechy si zaznamenávají
--	v následujících týdnech studenti vykonávají asistentské činnosti dle pokynů mentora, hospitují a realizují vlastní výstupy
--	každý student realizuje na základě vlastní přípravy několik výstupů (s ohledem na velikost studentské skupiny). Každou přípravu je nutné několik dní předem konzultovat s mentorem a upravit ji podle připomínek. Je vhodné střídat různé typy aktivit. Ostatní studenti v tuto dobu svého kolegu hospitují a pozorování si zaznamenávají
--	po náslechu a každé samostatné činnosti studenta proběhne rozbor mentora se studentem/ty
+    <t xml:space="preserve">Obsahové zaměření průběžné pedagogické praxe je na pedagogickou práci s žáky na 2. stupni ZŠ a SŠ včetně seznámení se školním vzdělávacím programem a školskými dokumenty._x000D_
+Praxe je nejprve vykonávána formou náslechů cvičného učitele (mentora), reflexe denních činností, osvojováním si praktických dovedností z oblasti pedagogiky a didaktiky, následně pak vlastními výstupy. Student bude hospitovat a vykonávat vlastní pedagogickou činnost v předmětu odpovídajícímu studijnímu programu (MAIOR I MINOR)._x000D_
+Student vykoná praxi na škole v rámci studentské skupiny. Vždy jeden student realizuje vlastní pedagogické činnosti pod vedením a podle pokynů mentora praxe, ostatní studenti hospitují a provádí hospitačně-reflektivní záznam. Hodiny jsou rozborované._x000D_
+Rámec praxe, tedy počty hodin a výstupy (pedagogický deník/ portfolio z praxe + hodnocení mentorem praxe), je nastaven z CPPV, obsahovou náplň a konkrétní zápočtové požadavky stanovuje oborový didaktik, jemuž výstupy student odevzdává._x000D_
+Student si vybírá školu pro realizaci průběžné praxe sám, příp. po poradě s oborovým didaktikem, pokud možno z nabídky fakultních a spolupracujících škol._x000D_
+Student v průběhu průběžné praxe plní následující úkoly:_x000D_
+-	v průběhu praxe se seznámí s organizací výchovně vzdělávací práce v ZŠ či SŠ, pedagogickou dokumentací a metodickým materiálem _x000D_
+-	zúčastní se dle pokynů mentora akcí školy a bude plnit další povinnosti_x000D_
+-	během prvních týdnů průběžné praxe studenti pouze hospitují a tyto náslechy si zaznamenávají_x000D_
+-	v následujících týdnech studenti vykonávají asistentské činnosti dle pokynů mentora, hospitují a realizují vlastní výstupy_x000D_
+-	každý student realizuje na základě vlastní přípravy několik výstupů (s ohledem na velikost studentské skupiny). Každou přípravu je nutné několik dní předem konzultovat s mentorem a upravit ji podle připomínek. Je vhodné střídat různé typy aktivit. Ostatní studenti v tuto dobu svého kolegu hospitují a pozorování si zaznamenávají_x000D_
+-	po náslechu a každé samostatné činnosti studenta proběhne rozbor mentora se studentem/ty_x000D_
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Prohloubení základů syntaxe a základních konstrukcí jazyků Python a R
-2. Základy práce s daty a datovými soubory a jejich vizualizace
-3. Pokročilé techniky práce s daty a datovými soubory (import, čištění dat aj.)
-4. Pokročilé techniky vizualizace dat
-5. - 6. Explorační analýza dat, vybrané pokročilé statistické metody (korelační, regresní analýza, faktorová, shluková analýza aj.), inferenční statistika
-7. - 8. Základní aplikace metod strojového učení (vybrané klasifikátory či algoritmy pro regresi a shlukování)
-9. Základy textové analýzy, analýza sentimentu
-10. Analýza sítí
-11. - 12. Reporty, dashboardy a interaktivní vizualizace dat
-13. Shrnutí, diskuse nad zadáními seminárních prací
+    <t xml:space="preserve">1. Prohloubení základů syntaxe a základních konstrukcí jazyků Python a R_x000D_
+2. Základy práce s daty a datovými soubory a jejich vizualizace_x000D_
+3. Pokročilé techniky práce s daty a datovými soubory (import, čištění dat aj.)_x000D_
+4. Pokročilé techniky vizualizace dat_x000D_
+5. - 6. Explorační analýza dat, vybrané pokročilé statistické metody (korelační, regresní analýza, faktorová, shluková analýza aj.), inferenční statistika_x000D_
+7. - 8. Základní aplikace metod strojového učení (vybrané klasifikátory či algoritmy pro regresi a shlukování)_x000D_
+9. Základy textové analýzy, analýza sentimentu_x000D_
+10. Analýza sítí_x000D_
+11. - 12. Reporty, dashboardy a interaktivní vizualizace dat_x000D_
+13. Shrnutí, diskuse nad zadáními seminárních prací_x000D_
 </t>
   </si>
   <si>
@@ -1845,48 +1853,50 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">V této fázi se předpokládá postupné provádění těchto činností:
-- představení řešených/připravovaných projektů,
-- začlenění studentů do jednotlivých projektových týmů (na základě jejich odborných znalostí/dovedností/kompetencí a preferencí), stanovení rolí v projektových týmech (na základě týmových kompetencí),
-- seznámení se s nástroji týmové spolupráce a jejich konfigurace na straně nových členů týmů,
-- návrh realizace nového projektu nebo předávání know-how (u běžících projektů),
-- (samo)studium faktických znalostí a získávání technologických dovedností spojených s realizací projektu,
-- stanovení prvních dílčích úkolů pro nové členy týmu,
-- počáteční řešení dílčích úkolů.
-Cílem dílčích úkolů je jednak motivovat studenty k hlubšímu studiu a pochopení dané problematiky, jednak je více zapojit do přípravy aplikačních výstupů.
+    <t xml:space="preserve">V této fázi se předpokládá postupné provádění těchto činností:_x000D_
+- představení řešených/připravovaných projektů,_x000D_
+- začlenění studentů do jednotlivých projektových týmů (na základě jejich odborných znalostí/dovedností/kompetencí a preferencí), stanovení rolí v projektových týmech (na základě týmových kompetencí),_x000D_
+- seznámení se s nástroji týmové spolupráce a jejich konfigurace na straně nových členů týmů,_x000D_
+- návrh realizace nového projektu nebo předávání know-how (u běžících projektů),_x000D_
+- (samo)studium faktických znalostí a získávání technologických dovedností spojených s realizací projektu,_x000D_
+- stanovení prvních dílčích úkolů pro nové členy týmu,_x000D_
+- počáteční řešení dílčích úkolů._x000D_
+_x000D_
+Cílem dílčích úkolů je jednak motivovat studenty k hlubšímu studiu a pochopení dané problematiky, jednak je více zapojit do přípravy aplikačních výstupů._x000D_
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Předmět tvoří prostřední člen v řadě tří celosemestrálních projektově orientovaných předmětů (Semestrální projekt I až III). 
-V této fázi se výuka soustřeďuje na následující činnosti:
--	samostatné řešení dílčích projektových úkolů,
--	průběžné testování a kontrola řešení,
--	průběžné vytváření a správa dokumentace,
--	využívání komunikačních a VCS systémů pro sdílení informací uvnitř týmu,
--	organizace týmových meetingů s prezentací dílčích výstupů a plánů dalšího postupu.
-Studenti budou ve všech těchto činnostech podporováni odborníky z praxe a/nebo akademickými pracovníky. Cílem dílčích úkolů je jednak motivovat studenty k hlubšímu studiu a pochopení dané problematiky, jednak je více začlenit do přípravy zejména aplikačních výstupů. Prezentací dílčích výstupů svým kolegům z týmu studenti procvičí komunikační schopnosti a dovednosti, jako je předávání informací v ucelené formě. V rámci seminářů bude rozebírán stav a vývoj projektu (kontrola a revize stanoveného věcného plánu a časového harmonogramu).
+    <t xml:space="preserve">Předmět tvoří prostřední člen v řadě tří celosemestrálních projektově orientovaných předmětů (Semestrální projekt I až III). _x000D_
+V této fázi se výuka soustřeďuje na následující činnosti:_x000D_
+-	samostatné řešení dílčích projektových úkolů,_x000D_
+-	průběžné testování a kontrola řešení,_x000D_
+-	průběžné vytváření a správa dokumentace,_x000D_
+-	využívání komunikačních a VCS systémů pro sdílení informací uvnitř týmu,_x000D_
+-	organizace týmových meetingů s prezentací dílčích výstupů a plánů dalšího postupu._x000D_
+_x000D_
+Studenti budou ve všech těchto činnostech podporováni odborníky z praxe a/nebo akademickými pracovníky. Cílem dílčích úkolů je jednak motivovat studenty k hlubšímu studiu a pochopení dané problematiky, jednak je více začlenit do přípravy zejména aplikačních výstupů. Prezentací dílčích výstupů svým kolegům z týmu studenti procvičí komunikační schopnosti a dovednosti, jako je předávání informací v ucelené formě. V rámci seminářů bude rozebírán stav a vývoj projektu (kontrola a revize stanoveného věcného plánu a časového harmonogramu)._x000D_
 </t>
   </si>
   <si>
-    <t>1. Úvod do systémového inženýrství, softwarové procesy
-2. Analýza požadavků
-3.- 4. Návrh SW architektury (systémové a aplikační modelování)
-5.- 9. Nástroje pro kontrolu verzí (historie a typy systémů pro kontrolu verzí a způsoby jejich použití, historie Gitu, Git internals, použití Git pro jednotlivce, tým nebo silně decentralizovanou skupinu, Git jako úložiště ve vlastním programu)
-10. Testování (funkční, zátěžové, bezpečnostní), validace a verifikace
-11.- 12. Evoluce softwaru a problematika API (jaké vlastnosti má mít správné API, modularizace &amp; knihovna vs. framework, praktické rady pro návrh API, API vs. SPI, evoluce API a význam automatických testů)
+    <t>1. Úvod do systémového inženýrství, softwarové procesy_x000D_
+2. Analýza požadavků_x000D_
+3.- 4. Návrh SW architektury (systémové a aplikační modelování)_x000D_
+5.- 9. Nástroje pro kontrolu verzí (historie a typy systémů pro kontrolu verzí a způsoby jejich použití, historie Gitu, Git internals, použití Git pro jednotlivce, tým nebo silně decentralizovanou skupinu, Git jako úložiště ve vlastním programu)_x000D_
+10. Testování (funkční, zátěžové, bezpečnostní), validace a verifikace_x000D_
+11.- 12. Evoluce softwaru a problematika API (jaké vlastnosti má mít správné API, modularizace &amp; knihovna vs. framework, praktické rady pro návrh API, API vs. SPI, evoluce API a význam automatických testů)_x000D_
 13.- 14. Nasazení do provozu a podpora (dostupnost, spolehlivost, monitoring)</t>
   </si>
   <si>
-    <t xml:space="preserve">1.	Úvod do počítačových simulací (typy simulací, cíle simulací, oblasti použití, moderní trendy) s důrazem na stochastické simulace a spojité a částicové modelování dynamických systémů
-2.	Diskrétní událostmi řízené simulace v SimPy (principy, základní typy objektů, implementace pomocí korutin), praktický návrh simulace, její implementace a vizualizace
-3.	Komerční systémy pro diskrétní simulace a vizualizace (Simio, SIMUL8 aj.) včetně real-time 3D simulačních systémů
-4.	Dynamické systémy (jejich popis, vazby, rovnováha a přechodový stav, lineární odezva systému aj.), základní metody pro modelování vývoje dynamických systémů (soustavy obyčejných diferenciálních rovnic)
-5.	SimuPy, nástroj pro spojité modelování dynamických systémů založený na jazyku Python (definice objektu, vazby objektů, metody řešení, vizualizace výsledků)
-6.	Praktické řešení dynamických systémů pomocí SimuPy: fyzikální nebo biologické modely
-7.	Dynamické modelování částicových systémů, popisy systémů (škály), metody a moderní trendy, paralelizace, simulační balíky a analýza trajektorií pomocí jazyka Python (např. LAMMPS, MDAnalysis aj.)
-8.	Deterministické a stochastické modelování jednoduchých a komplexních částicových systémů (počítačové modely, metody, vizualizace)
-9.	Praktické řešení úloh zaměřených na modelování deterministických a stochastických částicových systémů
-Předmět je vyučován v anglickém jazyce.
+    <t xml:space="preserve">1.	Úvod do počítačových simulací (typy simulací, cíle simulací, oblasti použití, moderní trendy) s důrazem na stochastické simulace a spojité a částicové modelování dynamických systémů_x000D_
+2.	Diskrétní událostmi řízené simulace v SimPy (principy, základní typy objektů, implementace pomocí korutin), praktický návrh simulace, její implementace a vizualizace_x000D_
+3.	Komerční systémy pro diskrétní simulace a vizualizace (Simio, SIMUL8 aj.) včetně real-time 3D simulačních systémů_x000D_
+4.	Dynamické systémy (jejich popis, vazby, rovnováha a přechodový stav, lineární odezva systému aj.), základní metody pro modelování vývoje dynamických systémů (soustavy obyčejných diferenciálních rovnic)_x000D_
+5.	SimuPy, nástroj pro spojité modelování dynamických systémů založený na jazyku Python (definice objektu, vazby objektů, metody řešení, vizualizace výsledků)_x000D_
+6.	Praktické řešení dynamických systémů pomocí SimuPy: fyzikální nebo biologické modely_x000D_
+7.	Dynamické modelování částicových systémů, popisy systémů (škály), metody a moderní trendy, paralelizace, simulační balíky a analýza trajektorií pomocí jazyka Python (např. LAMMPS, MDAnalysis aj.)_x000D_
+8.	Deterministické a stochastické modelování jednoduchých a komplexních částicových systémů (počítačové modely, metody, vizualizace)_x000D_
+9.	Praktické řešení úloh zaměřených na modelování deterministických a stochastických částicových systémů_x000D_
+Předmět je vyučován v anglickém jazyce._x000D_
 </t>
   </si>
   <si>
@@ -1919,70 +1929,70 @@
 redukce: NP-těžký problém, NP-úplný problém; výpočetně obtížné problémy teorie grafů</t>
   </si>
   <si>
-    <t xml:space="preserve">
-1. Základy fyziky polovodičů, elektrická vodivost vodičů, nevodičů, polovodičů, intrinzitní, extrinzitní
-vodivost, PN přechod)
-2. Základní pojmy obvodové elektroniky (I, U, R, C, Q, AC/DC, zdroje napětí a proudu, VA charakteristiky)
-3. Řešení elektrických obvodů stejnosměrného proudu (Ohmův zákon, Théveninova věta, Nortonova věta,
-řešení obvodů dle Kirchhoffových zákonů, smyčkových proudů, uzlových napětí, lineární superpozice)
-4. Řešení obvodů střídavého proudu (induktance, kapacitance, fázové posunutí proudu a napětí na C a L,
-fázorový diagram, rezonance)
-5. Grafické řešení nelineárních elektronických obvodů
-6. Náhradní lineární obvody (jednobran, dvojbran, admitanční a impedanční rovnice)
-7. Pasivní součásti elektrických obvodů (RLC)
-Digitální část
-8. Digitální signál, bit, byte, číselné soustavy, kódy, BCD, ASCII
-9. Logické funkce, Booleova algebra, logické výrazy
-10. Kombinační logické sítě
-11. Minimalizace normálních forem výrazů
-12. Syntéza kombinačních obvodů
+    <t>_x000D_
+1. Základy fyziky polovodičů, elektrická vodivost vodičů, nevodičů, polovodičů, intrinzitní, extrinzitní_x000D_
+vodivost, PN přechod)_x000D_
+2. Základní pojmy obvodové elektroniky (I, U, R, C, Q, AC/DC, zdroje napětí a proudu, VA charakteristiky)_x000D_
+3. Řešení elektrických obvodů stejnosměrného proudu (Ohmův zákon, Théveninova věta, Nortonova věta,_x000D_
+řešení obvodů dle Kirchhoffových zákonů, smyčkových proudů, uzlových napětí, lineární superpozice)_x000D_
+4. Řešení obvodů střídavého proudu (induktance, kapacitance, fázové posunutí proudu a napětí na C a L,_x000D_
+fázorový diagram, rezonance)_x000D_
+5. Grafické řešení nelineárních elektronických obvodů_x000D_
+6. Náhradní lineární obvody (jednobran, dvojbran, admitanční a impedanční rovnice)_x000D_
+7. Pasivní součásti elektrických obvodů (RLC)_x000D_
+Digitální část_x000D_
+8. Digitální signál, bit, byte, číselné soustavy, kódy, BCD, ASCII_x000D_
+9. Logické funkce, Booleova algebra, logické výrazy_x000D_
+10. Kombinační logické sítě_x000D_
+11. Minimalizace normálních forem výrazů_x000D_
+12. Syntéza kombinačních obvodů_x000D_
 13. Fyzikální realizace a analýza kombinačních logických členů</t>
   </si>
   <si>
-    <t>1. Základní informace ke studiu předmětu, podmínky, pravidla. Úvod do problematiky předmětu.
-2. Hardware kompetence: jednotlivé součásti počítače a práce s nimi, práce s periferiemi počítače, bezpečné používání počítače
-3. Software kompetence (operační systém): představení aktuálně používané verze operačního systému MS WINDOWS, orientace v systému, práce se složkami správa systému na úrovni uživatele, základní programy, komprimace dat
-4. Software kompetence (MS WORD): základní formátování písma a odstavce, aplikace odrážek, číslování v dokumentu, tvorba vlastních stylů
-5. Software kompetence (MS WORD): tvorba základních seznamů (obsah, seznam obrázků, vlastní seznam), vkládání obrázků, tabulek a jiných objektů, záhlaví, zápatí, použití oddílů
-6. Software kompetence (MS WORD): tvorba uceleného dokumentu typu seminární, bakalářské práce nebo dopisu
-7. Software kompetence (MS EXCEL): základní nastavení a úprava dokumentu, formátování dat v buňce, tvorba a formátování jednoduchých tabulek, použití základních funkcí
-8. Software kompetence (MS EXCEL): tvorba a formátování grafů, efektivní práce s daty, podmíněné formátování
-9. Software kompetence (MS EXCEL): ucelené zpracování dat
-10. Software kompetence (MS POWERPOINT): zásady tvorby odborné prezentace, způsoby prezentace, nastavení vzhledu snímků, formátování textu a použití objektů.
-11. Software kompetence (MS POWERPOINT): tvorba odborné prezentace a nejčastější chyby.
-12. Ostatní IT kompetence: základní přehled, bezpečné používání veřejné počítačové sítě, netiketa, novinky v oblasti IT (hardware, software, aplikace)
+    <t>1. Základní informace ke studiu předmětu, podmínky, pravidla. Úvod do problematiky předmětu._x000D_
+2. Hardware kompetence: jednotlivé součásti počítače a práce s nimi, práce s periferiemi počítače, bezpečné používání počítače_x000D_
+3. Software kompetence (operační systém): představení aktuálně používané verze operačního systému MS WINDOWS, orientace v systému, práce se složkami správa systému na úrovni uživatele, základní programy, komprimace dat_x000D_
+4. Software kompetence (MS WORD): základní formátování písma a odstavce, aplikace odrážek, číslování v dokumentu, tvorba vlastních stylů_x000D_
+5. Software kompetence (MS WORD): tvorba základních seznamů (obsah, seznam obrázků, vlastní seznam), vkládání obrázků, tabulek a jiných objektů, záhlaví, zápatí, použití oddílů_x000D_
+6. Software kompetence (MS WORD): tvorba uceleného dokumentu typu seminární, bakalářské práce nebo dopisu_x000D_
+7. Software kompetence (MS EXCEL): základní nastavení a úprava dokumentu, formátování dat v buňce, tvorba a formátování jednoduchých tabulek, použití základních funkcí_x000D_
+8. Software kompetence (MS EXCEL): tvorba a formátování grafů, efektivní práce s daty, podmíněné formátování_x000D_
+9. Software kompetence (MS EXCEL): ucelené zpracování dat_x000D_
+10. Software kompetence (MS POWERPOINT): zásady tvorby odborné prezentace, způsoby prezentace, nastavení vzhledu snímků, formátování textu a použití objektů._x000D_
+11. Software kompetence (MS POWERPOINT): tvorba odborné prezentace a nejčastější chyby._x000D_
+12. Ostatní IT kompetence: základní přehled, bezpečné používání veřejné počítačové sítě, netiketa, novinky v oblasti IT (hardware, software, aplikace)_x000D_
 13. Zápočtový test</t>
   </si>
   <si>
-    <t>1. Základní pojmy kryptologie, Modulární aritmetika
-2. Generátory (pseudo)náhodných čísel, testy prvočíselnosti
-3. Klasická kryptologie (substituční a transpoziční šifry)
-4. Symetrická kryptografie ? blokové šifry (DES, AES)
-5. Symetrická kryptografie ? proudové šifry (A5, Salsa20, Chacha20)
-6. Kryptografie veřejného klíče (RSA, DSA, DH)
-7. Hashovací funkce (MD5, SHA, digitální podpis ? princip)
-8. Digitální měny, HW a SW peněženky, blockchain (principy)
-9. Důvěrnost, integrita, dostupnost (princip, klasifikace, prostředky, algoritmy)
-10. Řízení bezpečnosti dat (služby, metody, ověření bezpečnosti)
-11. Analýza hrozeb a rizik (aktiva, zranitelnost, ohrožení, opatření), soudobé hrozby informačních technologií
-(typy, techniky, možnosti)
-12. AAA framework (principy, dělení, účel, protokoly, využití)
-13. Protokoly a metody bezpečnosti a ochrany dat v prostředí Internetu
+    <t>1. Základní pojmy kryptologie, Modulární aritmetika_x000D_
+2. Generátory (pseudo)náhodných čísel, testy prvočíselnosti_x000D_
+3. Klasická kryptologie (substituční a transpoziční šifry)_x000D_
+4. Symetrická kryptografie ? blokové šifry (DES, AES)_x000D_
+5. Symetrická kryptografie ? proudové šifry (A5, Salsa20, Chacha20)_x000D_
+6. Kryptografie veřejného klíče (RSA, DSA, DH)_x000D_
+7. Hashovací funkce (MD5, SHA, digitální podpis ? princip)_x000D_
+8. Digitální měny, HW a SW peněženky, blockchain (principy)_x000D_
+9. Důvěrnost, integrita, dostupnost (princip, klasifikace, prostředky, algoritmy)_x000D_
+10. Řízení bezpečnosti dat (služby, metody, ověření bezpečnosti)_x000D_
+11. Analýza hrozeb a rizik (aktiva, zranitelnost, ohrožení, opatření), soudobé hrozby informačních technologií_x000D_
+(typy, techniky, možnosti)_x000D_
+12. AAA framework (principy, dělení, účel, protokoly, využití)_x000D_
+13. Protokoly a metody bezpečnosti a ochrany dat v prostředí Internetu_x000D_
 14. Ochrana dat na úrovni kabelových sítí (principy, dělení, využití)</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Excel: podmíněné formátování, logické funkce a filtrování dat
-2. Excel: vytváření souhrnů a skupin, vyhledávací a databázové funkce
-3. Excel: kontingenční tabulky a grafy
-4. Excel: základní statistické výpočty
-5. Excel: vytváření a úprava maker
-6. R: instalace, prostředí, ovládání, syntaxe, balíčky, základní datové typy a datové struktury, proměnné, základní operace, příkazy a funkce
-7. R: načítání a ukládání dat, psaní vlastních funkcí a skriptů, cykly a podmíněné příkazy
-8. R: manipulace s daty a datovými soubory (různé úpravy a transformace, slučování, řazení, filtrování, kontingenční tabulky apod.)
-9. R: základní statistické funkce (popisná statistika, funkce nad různými statistickými rozděleními - generování náhodných čísel apod.)
-10. R: grafické výstupy (základní a pokročilé typy grafů)
-11. R+LaTeX: tvorba reprodukovatelných reportů (lehký úvod do LaTeXu a využití balíčku knitr)
-12. - 13. R: praktické motivační ukázky využití pokročilých statistických metod (např. z oblasti statistického testování hypotéz, regresní analýzy, faktorové analýzy, shlukové analýzy, diskriminační analýzy nebo analýzy časových řad)
+    <t xml:space="preserve">1. Excel: podmíněné formátování, logické funkce a filtrování dat_x000D_
+2. Excel: vytváření souhrnů a skupin, vyhledávací a databázové funkce_x000D_
+3. Excel: kontingenční tabulky a grafy_x000D_
+4. Excel: základní statistické výpočty_x000D_
+5. Excel: vytváření a úprava maker_x000D_
+6. R: instalace, prostředí, ovládání, syntaxe, balíčky, základní datové typy a datové struktury, proměnné, základní operace, příkazy a funkce_x000D_
+7. R: načítání a ukládání dat, psaní vlastních funkcí a skriptů, cykly a podmíněné příkazy_x000D_
+8. R: manipulace s daty a datovými soubory (různé úpravy a transformace, slučování, řazení, filtrování, kontingenční tabulky apod.)_x000D_
+9. R: základní statistické funkce (popisná statistika, funkce nad různými statistickými rozděleními - generování náhodných čísel apod.)_x000D_
+10. R: grafické výstupy (základní a pokročilé typy grafů)_x000D_
+11. R+LaTeX: tvorba reprodukovatelných reportů (lehký úvod do LaTeXu a využití balíčku knitr)_x000D_
+12. - 13. R: praktické motivační ukázky využití pokročilých statistických metod (např. z oblasti statistického testování hypotéz, regresní analýzy, faktorové analýzy, shlukové analýzy, diskriminační analýzy nebo analýzy časových řad)_x000D_
 </t>
   </si>
   <si>
@@ -2015,16 +2025,16 @@
 12.	Gradientní metody.</t>
   </si>
   <si>
-    <t xml:space="preserve">1.	Klasifikace optimalizačních úloh.
-2.	Úlohy derivační a nederivační. 
-3.	Úlohy jednorozměrné optimalizace.
-4.	Úlohy vícerozměrné optimalizace.
-5.	Úlohy lineární optimalizace.
-6.	Simplexová metoda.
-7.	Dopravní problém.
-8.	Metoda nejmenších čtverců.
-9.	Úlohy nelineární optimalizace s omezeními.
-10.	Úlohy nelineární optimalizace bez omezení.
+    <t xml:space="preserve">1.	Klasifikace optimalizačních úloh._x000D_
+2.	Úlohy derivační a nederivační. _x000D_
+3.	Úlohy jednorozměrné optimalizace._x000D_
+4.	Úlohy vícerozměrné optimalizace._x000D_
+5.	Úlohy lineární optimalizace._x000D_
+6.	Simplexová metoda._x000D_
+7.	Dopravní problém._x000D_
+8.	Metoda nejmenších čtverců._x000D_
+9.	Úlohy nelineární optimalizace s omezeními._x000D_
+10.	Úlohy nelineární optimalizace bez omezení._x000D_
 </t>
   </si>
   <si>
@@ -2042,42 +2052,46 @@
 12.	Aktuátory (typy, ovládání)</t>
   </si>
   <si>
-    <t>1. Spojité lineární řízení- Laplaceova transformace, statické a dynamické vlastnosti regulačních členů, přechodové funkce a charakteristiky
-2. Kritéria stability- Hurwitzovo kritérium, Routh-Schurovo kritérium, Nyquistovo kritérium
-3. Diskrétní řízení- diskrétní regulační obvod, Z-transformace, diskretizace spojitých systémů
-4. Číslicový regulátor- algoritmus číslicových regulátorů
-5. Matematický popis diskrétních členů
-6. Stabilita diskrétních obvodů
-7. FUZZY řízení ? pravidla a báze pravidel
-8. FUZZY regulátory
+    <t>1. Spojité lineární řízení- Laplaceova transformace, statické a dynamické vlastnosti regulačních členů, přechodové funkce a charakteristiky_x000D_
+2. Kritéria stability- Hurwitzovo kritérium, Routh-Schurovo kritérium, Nyquistovo kritérium_x000D_
+3. Diskrétní řízení- diskrétní regulační obvod, Z-transformace, diskretizace spojitých systémů_x000D_
+4. Číslicový regulátor- algoritmus číslicových regulátorů_x000D_
+5. Matematický popis diskrétních členů_x000D_
+6. Stabilita diskrétních obvodů_x000D_
+7. FUZZY řízení ? pravidla a báze pravidel_x000D_
+8. FUZZY regulátory_x000D_
 9. Systémy a jeho popis ve stavovém prostoru</t>
   </si>
   <si>
     <t>Kurz je určen pro studenty, kteří mají zápočet z předmětu AI nebo BI. Kurz není určen pro začátečníky</t>
   </si>
   <si>
-    <t xml:space="preserve">Předpokladem je konání praxí primárně na fakultních a spolupracujících zařízeních PřF UJEP. Organizačně, metodicky i kontrolně zajišťuje tuto praxi CPPV PřF UJEP.
-Cíle předmětu předpokládají úzkou spolupráci zkušeného učitele a studenta učitelství.
--	Student se orientuje v základní terminologii z oblasti výchovy a vzdělávání, charakterizuje kvality a specifika dítěte školního věku a studenta SŠ, pracuje s kurikulárními dokumenty pro vzdělávání, teoreticky a zčásti prakticky zvládá plánování činností v ZŠ a SŠ po stránce obsahové (věcné) i metodické, má přehled o vedení třídní dokumentace. Orientuje se v základních koncepcích výchovy a alternativních edukačních programech. Charakterizuje základní požadavky na výkon učitelské profese, popíše pracovní činnosti a povinnosti učitele ZŠ a SŠ, význam sebereflexe pro profesní a osobní růst.
+    <t xml:space="preserve">Předpokladem je konání praxí primárně na fakultních a spolupracujících zařízeních PřF UJEP. Organizačně, metodicky i kontrolně zajišťuje tuto praxi CPPV PřF UJEP._x000D_
+_x000D_
+Cíle předmětu předpokládají úzkou spolupráci zkušeného učitele a studenta učitelství._x000D_
+-	Student se orientuje v základní terminologii z oblasti výchovy a vzdělávání, charakterizuje kvality a specifika dítěte školního věku a studenta SŠ, pracuje s kurikulárními dokumenty pro vzdělávání, teoreticky a zčásti prakticky zvládá plánování činností v ZŠ a SŠ po stránce obsahové (věcné) i metodické, má přehled o vedení třídní dokumentace. Orientuje se v základních koncepcích výchovy a alternativních edukačních programech. Charakterizuje základní požadavky na výkon učitelské profese, popíše pracovní činnosti a povinnosti učitele ZŠ a SŠ, význam sebereflexe pro profesní a osobní růst._x000D_
 </t>
   </si>
   <si>
     <t>Výuka v angličtině je určena pro erasmové a zahraniční studenty. Výuka v případě malého počtu studentů probíhá formou individuálních konzultací.</t>
   </si>
   <si>
-    <t>Základní znalosti z oblasti numerické matematiky
+    <t>Základní znalosti z oblasti numerické matematiky_x000D_
 Výuka v angličtině je určena pro erasmové a zahraniční studenty. Výuka v případě malého počtu studentů probíhá formou individuálních konzultací.</t>
   </si>
   <si>
     <t xml:space="preserve">Studenti se seznámí s odbornými texty v oboru  informatiky, výpočetní techniky, naučí se správně  používat odborné výrazy. Mluvený projev: Odborná komunikace na základě textu, diskuse. Psaný projev: Inzerát, resumé, popis, odborný popis. </t>
   </si>
   <si>
-    <t>Znalosti
-Student umí popsat součásti a základní princip práce osobního počítače.
-Student umí definovat základní pravidla bezpečné práce s PC.
-Dovednosti
-Student umí vytvořit komplexní dokument v textovém editoru.
-Student umí realizovat výpočty a grafy v tabulkovém procesoru.
+    <t>Znalosti_x000D_
+_x000D_
+Student umí popsat součásti a základní princip práce osobního počítače._x000D_
+Student umí definovat základní pravidla bezpečné práce s PC._x000D_
+_x000D_
+Dovednosti_x000D_
+_x000D_
+Student umí vytvořit komplexní dokument v textovém editoru._x000D_
+Student umí realizovat výpočty a grafy v tabulkovém procesoru._x000D_
 Student umí vytvořit a přednést odbornou prezentaci.</t>
   </si>
   <si>

--- a/results/predmety_kde_garant_neuci.xlsx
+++ b/results/predmety_kde_garant_neuci.xlsx
@@ -1102,147 +1102,147 @@
     <t>KMA/AVD1, KMA/AVD2</t>
   </si>
   <si>
-    <t>'Sells Ch. C# a WinForms: programování formulářů Windows. Zoner Press, Brno, 2005. ISBN 80-86815-25-0.',_x000D_
-'JavaFX Documentation Home | JavaFX 2 Tutorials and Documentation. Moved [online]. Copyright 2011, 2014. ',_x000D_
-'Oracle and/or its affiliates. ',_x000D_
-'Petzold Ch. Programování Microsoft Windows Forms v jazyce C#. Computer Press, Brno, 2006. ISBN 80-251-1058-3.',_x000D_
-'PyQt5 Reference Guide- PyQt v5.14.0 Reference Guide. [online]. ',_x000D_
-'Windows Presentation Foundation Microsoft Docs. [online]. ',_x000D_
-'Nash T. C# 2010 : rychlý průvodce novinkami a nejlepšími postupy. Computer Press, Brno, 2010. ',_x000D_
-'Creating a GUI With JFC/Swing (The JavaTM Tutorials). [online]. Copyright 1995, 2019 Oracle and/or its affiliates. ',_x000D_
-'Agarwal V. V., Huddleston J. Databáze v C# 2008 : průvodce programátora. Computer Press, Brno, 2009. ISBN 978-80-251-2309-6.',_x000D_
+    <t>'Sells Ch. C# a WinForms: programování formulářů Windows. Zoner Press, Brno, 2005. ISBN 80-86815-25-0.',
+'JavaFX Documentation Home | JavaFX 2 Tutorials and Documentation. Moved [online]. Copyright 2011, 2014. ',
+'Oracle and/or its affiliates. ',
+'Petzold Ch. Programování Microsoft Windows Forms v jazyce C#. Computer Press, Brno, 2006. ISBN 80-251-1058-3.',
+'PyQt5 Reference Guide- PyQt v5.14.0 Reference Guide. [online]. ',
+'Windows Presentation Foundation Microsoft Docs. [online]. ',
+'Nash T. C# 2010 : rychlý průvodce novinkami a nejlepšími postupy. Computer Press, Brno, 2010. ',
+'Creating a GUI With JFC/Swing (The JavaTM Tutorials). [online]. Copyright 1995, 2019 Oracle and/or its affiliates. ',
+'Agarwal V. V., Huddleston J. Databáze v C# 2008 : průvodce programátora. Computer Press, Brno, 2009. ISBN 978-80-251-2309-6.',
 'Documentation | Electron. Electron | Build cross platform desktop apps with JavaScript, HTML, and CSS. [online]. '</t>
   </si>
   <si>
-    <t>'Sodomka, P. Informační systémy v podnikové praxi. Computer Press, Praha, 2011. ISBN 978-80-251-2878-7.',_x000D_
-'Basl, J., Blažíček, R. Podnikové informační systémy. Podnik v informační společnosti. Grada, Praha, 2012. ISBN 978-80-247-4307-3.',_x000D_
-'Sousa, K. J., Oz, E. Management information systems. Stamford: Cengage Learning, 2015. ISBN 978-1-285-18613-9. ',_x000D_
-'Lusczak, A., Singer, R. Microsoft Dynamics NAV. Výukový kurz. Computer Press, Praha, 2011. ISBN 978-80-251-2851-0.',_x000D_
-'Schwalbe, K. Řízení projektů v IT. Kompletní průvodce. Computer Press, Praha, 2011. ISBN 978-80-251-2882-4.',_x000D_
+    <t>'Sodomka, P. Informační systémy v podnikové praxi. Computer Press, Praha, 2011. ISBN 978-80-251-2878-7.',
+'Basl, J., Blažíček, R. Podnikové informační systémy. Podnik v informační společnosti. Grada, Praha, 2012. ISBN 978-80-247-4307-3.',
+'Sousa, K. J., Oz, E. Management information systems. Stamford: Cengage Learning, 2015. ISBN 978-1-285-18613-9. ',
+'Lusczak, A., Singer, R. Microsoft Dynamics NAV. Výukový kurz. Computer Press, Praha, 2011. ISBN 978-80-251-2851-0.',
+'Schwalbe, K. Řízení projektů v IT. Kompletní průvodce. Computer Press, Praha, 2011. ISBN 978-80-251-2882-4.',
 'SystemOnLine.cz- ekonomické a informační systémy v praxi. '</t>
   </si>
   <si>
-    <t>'Oficiální dokumentace RED HAT Enterprise Linux a red hat Cluster Suite. ',_x000D_
+    <t>'Oficiální dokumentace RED HAT Enterprise Linux a red hat Cluster Suite. ',
 'Oficiální dokumentace Sophos UTM. '</t>
   </si>
   <si>
-    <t>'Žák V. Matematické výpočty v systému Maple. ',_x000D_
-'Zaplatílek K., Doňar B. Matlab - tvorba uživatelských aplikací. BEN-Technická literatura, Praha, 2004. ISBN 80-7300-133-0.',_x000D_
-'Dušek F. Matlab a Simulink-úvod do používání. Univerzita Pardubice, 2002. ISBN 80-7194-475-0.',_x000D_
-'Zaplatílek K., Doňar B. Matlab pro začátečníky. BEN-Technická literatura, Praha, 2003. ISBN 80-7300-095-4.',_x000D_
-'Getting started with Matlab, online knihovny. ',_x000D_
+    <t>'Žák V. Matematické výpočty v systému Maple. ',
+'Zaplatílek K., Doňar B. Matlab - tvorba uživatelských aplikací. BEN-Technická literatura, Praha, 2004. ISBN 80-7300-133-0.',
+'Dušek F. Matlab a Simulink-úvod do používání. Univerzita Pardubice, 2002. ISBN 80-7194-475-0.',
+'Zaplatílek K., Doňar B. Matlab pro začátečníky. BEN-Technická literatura, Praha, 2003. ISBN 80-7300-095-4.',
+'Getting started with Matlab, online knihovny. ',
 'Návody a publikace Maplesoft. '</t>
   </si>
   <si>
-    <t>'Vicher, M. Numerická matematika, skripta UJEP, Ústí n. Lab., 2003. ',_x000D_
-'VONDRÁK, V. a L. POSPÍŠIL. Numerické metody 1. 2011. ',_x000D_
+    <t>'Vicher, M. Numerická matematika, skripta UJEP, Ústí n. Lab., 2003. ',
+'VONDRÁK, V. a L. POSPÍŠIL. Numerické metody 1. 2011. ',
 'KUBEN, J. a P. RAČKOVÁ. Numerické metody. Brno: Univerzita obrany, 2016. ISBN 978-80-7231-373-0.'</t>
   </si>
   <si>
-    <t>'Murphy R. English Grammar in Use. Cambridge University Press. ISBN 139780521734769.',_x000D_
-'Harrison R., Philpot H., Curnik L. New Headway Academic Skills. Oxford University Press. ',_x000D_
-'Esteras S.R., Fabre E.M. Professional English in Use ICT. Cambridge University Press. ',_x000D_
-'Esteras S. R. English for Computer Users (student s book). Cambridge University Press, 2008. ',_x000D_
+    <t>'Murphy R. English Grammar in Use. Cambridge University Press. ISBN 139780521734769.',
+'Harrison R., Philpot H., Curnik L. New Headway Academic Skills. Oxford University Press. ',
+'Esteras S.R., Fabre E.M. Professional English in Use ICT. Cambridge University Press. ',
+'Esteras S. R. English for Computer Users (student s book). Cambridge University Press, 2008. ',
 'KI. Soubor výukových materiálů (texty + cvičení) . '</t>
   </si>
   <si>
-    <t>'https://osf.cz/programy/ziva-demokracie/nas-stat-nase-data/',_x000D_
-'http://data.ctu.cz/',_x000D_
-'https://opendata.gov.cz/',_x000D_
+    <t>'https://osf.cz/programy/ziva-demokracie/nas-stat-nase-data/',
+'http://data.ctu.cz/',
+'https://opendata.gov.cz/',
 'Open Data. Pracovní sešit. Institut pro veřejnou správu Praha. '</t>
   </si>
   <si>
-    <t>'Lagová, M. Metody operačního výzkumu I. Univerzita J. E. Purkyně, Ústí nad Labem, 1997. ISBN 80-7044-158-5.',_x000D_
-'Plevný, M., Žižka, M. Modelování a optimalizace v manažerském rozhodování. Západočeská univerzita, Plzeň, 2010. ISBN 978-80-7043-933-3.',_x000D_
-'Jablonský, J. Operační výzkum: kvantitativní modely pro ekonomické rozhodování. Professional Publishing, Praha, 2007. ISBN 978-80-86946-44-3.',_x000D_
-'Shortle, J. F., Thompson, J. M., Gross, D., Harris, C. M. Fundamentals of Queueing Theory. Wiley, 2018. ISBN 9781118943526. ',_x000D_
-'Rohn, J. Lineární algebra a optimalizace. Karolinum, Praha, 2004. ISBN 80-246-0932-0.',_x000D_
-'Lagová, M., Jablonský, J. Lineární modely. Praha, 2014. ISBN 978-80-245-2020-9.',_x000D_
+    <t>'Lagová, M. Metody operačního výzkumu I. Univerzita J. E. Purkyně, Ústí nad Labem, 1997. ISBN 80-7044-158-5.',
+'Plevný, M., Žižka, M. Modelování a optimalizace v manažerském rozhodování. Západočeská univerzita, Plzeň, 2010. ISBN 978-80-7043-933-3.',
+'Jablonský, J. Operační výzkum: kvantitativní modely pro ekonomické rozhodování. Professional Publishing, Praha, 2007. ISBN 978-80-86946-44-3.',
+'Shortle, J. F., Thompson, J. M., Gross, D., Harris, C. M. Fundamentals of Queueing Theory. Wiley, 2018. ISBN 9781118943526. ',
+'Rohn, J. Lineární algebra a optimalizace. Karolinum, Praha, 2004. ISBN 80-246-0932-0.',
+'Lagová, M., Jablonský, J. Lineární modely. Praha, 2014. ISBN 978-80-245-2020-9.',
 'Míka, S. Matematická optimalizace. Západočeská univerzita, Plzeň, 1997. ISBN 80-7082-319-4.'</t>
   </si>
   <si>
-    <t>'Albahari J. C# 4.0 in a Nutshell: The Definitive Reference. O Reilly Media, 2010. ISBN 978-0596800956.',_x000D_
-'AMD. OpenCL Zone. ',_x000D_
-'Lísal M. Paralelní počítání. Univerzita J.E.Purkyně, 2006. ISBN 80-7044-784-2.',_x000D_
-'M. Lísal. Paralelní programování s aplikacemi. Ústí n. Lab., 2007. ',_x000D_
-'Quinn M. Parallel Programming in C with MPI and OpenMP. McGraw-Hill, 2003. ISBN 978-0072822564.',_x000D_
+    <t>'Albahari J. C# 4.0 in a Nutshell: The Definitive Reference. O Reilly Media, 2010. ISBN 978-0596800956.',
+'AMD. OpenCL Zone. ',
+'Lísal M. Paralelní počítání. Univerzita J.E.Purkyně, 2006. ISBN 80-7044-784-2.',
+'M. Lísal. Paralelní programování s aplikacemi. Ústí n. Lab., 2007. ',
+'Quinn M. Parallel Programming in C with MPI and OpenMP. McGraw-Hill, 2003. ISBN 978-0072822564.',
 'Chandra R. Parallel Programming in OpenMP. Morgan Kaufmann, 2000. ISBN 978-1558606715.'</t>
   </si>
   <si>
-    <t>'STROUHAL, Martin, ed. Učit se být učitelem: k vybraným problémům učitelského vzdělávání. Praha: Univerzita Karlova, nakladatelství Karolinum,, 2016. ISBN 978-80-246-3465-4.',_x000D_
-'LOJDOVÁ, Kateřina et al. Determinanty účinnosti učitelských praxí. Brno: Masarykova univerzita,, 2016. ISBN 978-80-210-8132-1.',_x000D_
-'Jančaříková, K. a kol. Didaktické zásady v přírodovědném vzdělávání. Pedagogická fakulta UK Praha, 158 s, 2022. ISBN 9788076032897.',_x000D_
-'SPILKOVÁ, Vladimíra a kol. Klinická škola a její role ve vzdělávání učitelů. [Praha]: Retida spol. s r.o., 2015. ISBN 978-80-260-9405-0.',_x000D_
-'BRANDENBURG, Robyn, ed. et al. l. Teacher education: innovation, intervention and impact. Singapore: Springer, 2016. ISBN 978-981-10-0784-2.',_x000D_
-'GULOVÁ, Lenka, ed. Studentské profesní praxe - multikulturní lekce ve školách a v dalších institucích: výukové materiály. Brno: Masarykova univerzita,, 2015. ISBN 978-80-210-8119-2.',_x000D_
-'KALHOUS, Z.; OBST, O. Školní didaktika. Praha: Portál, 2002. ISBN 80-7178-253-X.',_x000D_
+    <t>'STROUHAL, Martin, ed. Učit se být učitelem: k vybraným problémům učitelského vzdělávání. Praha: Univerzita Karlova, nakladatelství Karolinum,, 2016. ISBN 978-80-246-3465-4.',
+'LOJDOVÁ, Kateřina et al. Determinanty účinnosti učitelských praxí. Brno: Masarykova univerzita,, 2016. ISBN 978-80-210-8132-1.',
+'Jančaříková, K. a kol. Didaktické zásady v přírodovědném vzdělávání. Pedagogická fakulta UK Praha, 158 s, 2022. ISBN 9788076032897.',
+'SPILKOVÁ, Vladimíra a kol. Klinická škola a její role ve vzdělávání učitelů. [Praha]: Retida spol. s r.o., 2015. ISBN 978-80-260-9405-0.',
+'BRANDENBURG, Robyn, ed. et al. l. Teacher education: innovation, intervention and impact. Singapore: Springer, 2016. ISBN 978-981-10-0784-2.',
+'GULOVÁ, Lenka, ed. Studentské profesní praxe - multikulturní lekce ve školách a v dalších institucích: výukové materiály. Brno: Masarykova univerzita,, 2015. ISBN 978-80-210-8119-2.',
+'KALHOUS, Z.; OBST, O. Školní didaktika. Praha: Portál, 2002. ISBN 80-7178-253-X.',
 'DYTRTOVÁ, R., KRHUTOVÁ, M. Učitel. Příprava na profesi. Praha: Grada, 2009. '</t>
   </si>
   <si>
-    <t>'Bruckner, T., Voříšek, J., Buchalcevová, A., Stanovská I., Chlapek, D., Řepa, V. Tvorba informačních systémů: principy, metodiky, architektury. Praha: Grada Publishing, 2012. ISBN 978-80-247-7902-7. ',_x000D_
-'Vondrák, I. Úvod do softwarového inženýrství [online]. Ostrava: VŠB-TUO, 2002. ',_x000D_
-'Monson- Haefel, R. 97 klíčových znalostí softwarového architekta: [zkušenosti expertů z praxe]. Brno: Computer Press, 2010. Zkušenosti expertů z praxe. ISBN 978-80-251-3313-2. ',_x000D_
-'Cha, S., Taylor, R.N., Kang, K., ed. Handbook of Software Engineering. Cham: Springer International Publishing, 2019. ISBN 978-3-030-00261-9. ',_x000D_
-'Chacon, S. Pro Git. Praha: CZ.NIC, z.s.p.o., 2009. CZ.NIC. ISBN 978-80-904248-1-4. ',_x000D_
+    <t>'Bruckner, T., Voříšek, J., Buchalcevová, A., Stanovská I., Chlapek, D., Řepa, V. Tvorba informačních systémů: principy, metodiky, architektury. Praha: Grada Publishing, 2012. ISBN 978-80-247-7902-7. ',
+'Vondrák, I. Úvod do softwarového inženýrství [online]. Ostrava: VŠB-TUO, 2002. ',
+'Monson- Haefel, R. 97 klíčových znalostí softwarového architekta: [zkušenosti expertů z praxe]. Brno: Computer Press, 2010. Zkušenosti expertů z praxe. ISBN 978-80-251-3313-2. ',
+'Cha, S., Taylor, R.N., Kang, K., ed. Handbook of Software Engineering. Cham: Springer International Publishing, 2019. ISBN 978-3-030-00261-9. ',
+'Chacon, S. Pro Git. Praha: CZ.NIC, z.s.p.o., 2009. CZ.NIC. ISBN 978-80-904248-1-4. ',
 'Sommerville, I. Softwarové inženýrství. Brno: Computer Press, 2013. ISBN 978-80-251-3826-7. '</t>
   </si>
   <si>
-    <t>'Demel, J. Grafy a jejich aplikace. 2019. ',_x000D_
-'Matoušek, J., Nešetřil, J. Kapitoly z diskrétní matematiky. Karolinum, Praha, 2010. ',_x000D_
-'Knuth, D. E. Umění programování, 1. díl, Základní algoritmy. Computer Press, a.s., Brno, 2008. ',_x000D_
-'Rigo, M. Advanced Graph Theory and Combinatorics. ISTE Ltd and John Wiley &amp; Sons, Inc., 2016. ',_x000D_
-'Graham, R. L., Knuth, D. E., Patashnik, O. Concrete Mathematics. Addison - Wesley Publishing Company, 1994. ',_x000D_
-'Gruska, J. Foundations of Computing. International Thomson Computer Press, 1997. ',_x000D_
+    <t>'Demel, J. Grafy a jejich aplikace. 2019. ',
+'Matoušek, J., Nešetřil, J. Kapitoly z diskrétní matematiky. Karolinum, Praha, 2010. ',
+'Knuth, D. E. Umění programování, 1. díl, Základní algoritmy. Computer Press, a.s., Brno, 2008. ',
+'Rigo, M. Advanced Graph Theory and Combinatorics. ISTE Ltd and John Wiley &amp; Sons, Inc., 2016. ',
+'Graham, R. L., Knuth, D. E., Patashnik, O. Concrete Mathematics. Addison - Wesley Publishing Company, 1994. ',
+'Gruska, J. Foundations of Computing. International Thomson Computer Press, 1997. ',
 'Meyer, A., Chlipala, A. 6.042J Mathematics for Computer Science. Massachusetts Institute of Technology: MIT OpenCourseWare, 2015. '</t>
   </si>
   <si>
-    <t>'Laurenčík, M. Excel 2016 ? Práce s databázemi a kontingenčními tabulkami. Grada Publishing, Praha, 2017. ISBN 978-80-251-4838-9.',_x000D_
-'Barilla, J., Simr, P., Sýkorová, K. Microsoft Excel 2016: podrobná uživatelská příručka. Computer Press, Brno, 2016. ISBN 978-80-251-4838-9.',_x000D_
+    <t>'Laurenčík, M. Excel 2016 ? Práce s databázemi a kontingenčními tabulkami. Grada Publishing, Praha, 2017. ISBN 978-80-251-4838-9.',
+'Barilla, J., Simr, P., Sýkorová, K. Microsoft Excel 2016: podrobná uživatelská příručka. Computer Press, Brno, 2016. ISBN 978-80-251-4838-9.',
 'Navarrů, M. Excel 2016 ? Podrobný průvodce uživatele. Grada Publishing, Praha. ISBN 978-80-271-0193-1.'</t>
   </si>
   <si>
-    <t>'http://maple.maplesoft.cz/',_x000D_
-'Zaplatílek K., Doňar B. Matlab - tvorba uživatelských aplikací. BEN-Technická literatura, Praha, 2004. ISBN 80-7300-133-0.',_x000D_
-'Dušek F. Matlab a Simulink-úvod do používání. Univerzita Pardubice, 2002. ISBN 80-7194-475-0.',_x000D_
-'Zaplatílek K., Doňar B. Matlab pro začátečníky. BEN-Technická literatura, Praha, 2003. ISBN 80-7300-095-4.',_x000D_
-'http://www.mathworks.com/help/matlab/getting-started-with-matlab.html',_x000D_
+    <t>'http://maple.maplesoft.cz/',
+'Zaplatílek K., Doňar B. Matlab - tvorba uživatelských aplikací. BEN-Technická literatura, Praha, 2004. ISBN 80-7300-133-0.',
+'Dušek F. Matlab a Simulink-úvod do používání. Univerzita Pardubice, 2002. ISBN 80-7194-475-0.',
+'Zaplatílek K., Doňar B. Matlab pro začátečníky. BEN-Technická literatura, Praha, 2003. ISBN 80-7300-095-4.',
+'http://www.mathworks.com/help/matlab/getting-started-with-matlab.html',
 'http://www.maplesoft.cz/zakaznicka-podpora/navody-a-publikace/'</t>
   </si>
   <si>
-    <t>'Felcman J. Numerická matematika. 2013. ',_x000D_
-'Segethova, J. Základy numerické matematiky. Karolinum, Praha. ',_x000D_
-'Mathematics. Springer, Berlin. ISBN 0-387-98959-5.',_x000D_
-'Ueberhuber, W. Numerical Computation 1, 2: Methods, Software, and Analysis. Springer, Berlin. ',_x000D_
+    <t>'Felcman J. Numerická matematika. 2013. ',
+'Segethova, J. Základy numerické matematiky. Karolinum, Praha. ',
+'Mathematics. Springer, Berlin. ISBN 0-387-98959-5.',
+'Ueberhuber, W. Numerical Computation 1, 2: Methods, Software, and Analysis. Springer, Berlin. ',
 'Quarteroni, A., Sacco, R., and Saleri, F. Numerical Mathematics (2ndedn), Volume 37 of Texts in Applied Mathematics. Springer, Berlin. ISBN 0-387-98959-5. '</t>
   </si>
   <si>
-    <t>'LAGOVÁ, M. Metody operačního výzkumu I. FSE UJEP, Ústí nad Labem 1997. ',_x000D_
-'Jablonský J. Operační výzkum. VŠE, Praha, 1999. ',_x000D_
-'J. Rohn. Lineární algebra a optimalizace. 2004. ISBN 80-246-0932-0.',_x000D_
+    <t>'LAGOVÁ, M. Metody operačního výzkumu I. FSE UJEP, Ústí nad Labem 1997. ',
+'Jablonský J. Operační výzkum. VŠE, Praha, 1999. ',
+'J. Rohn. Lineární algebra a optimalizace. 2004. ISBN 80-246-0932-0.',
 'Míka S. Matematická optimalizace. ZČU Plzeň, 1997. '</t>
   </si>
   <si>
-    <t>'Gook M. Hardwarová rozhraní: průvodce programátora. Computer Press, Brno, 2006. Computer Press, Brno, 2006. ISBN 80-251-1019-2.',_x000D_
-'Pirogov V. Mistrovství v jazyce Assembler. Computer Press, 2005. Computer Press, 2005. ISBN 80-251-0888-0.',_x000D_
-'Virius M. Od C k C++. Kopp, České Budějovice, 2000. ISBN 80-7232-110-2.',_x000D_
-'Herout P. Učebnice jazyka C. Kopp, České Budějovice, 2000. ISBN 80-85828-21-9.',_x000D_
-'Margolis M. Arduino Cookbook. O´Reilly, 2011. O Reilly, 2011. ISBN 978-1-4493-0310-5.',_x000D_
+    <t>'Gook M. Hardwarová rozhraní: průvodce programátora. Computer Press, Brno, 2006. Computer Press, Brno, 2006. ISBN 80-251-1019-2.',
+'Pirogov V. Mistrovství v jazyce Assembler. Computer Press, 2005. Computer Press, 2005. ISBN 80-251-0888-0.',
+'Virius M. Od C k C++. Kopp, České Budějovice, 2000. ISBN 80-7232-110-2.',
+'Herout P. Učebnice jazyka C. Kopp, České Budějovice, 2000. ISBN 80-85828-21-9.',
+'Margolis M. Arduino Cookbook. O´Reilly, 2011. O Reilly, 2011. ISBN 978-1-4493-0310-5.',
 'Vacek V. Učebnice programování Atmel s jádrem 8051. BEN- Technická literatura, Praha, 2001. BEN-Technická literatura, Praha, 2001. ISBN 80-7300-043-1.'</t>
   </si>
   <si>
-    <t>'https://kix.fsv.cvut.cz/~demel/grafy/gr.pdf',_x000D_
-'Matoušek, J., Nešetřil, J. Kapitoly z diskrétní matematiky. Karolinum, Praha, 2010. ',_x000D_
-'Knuth, D. E. Umění programování, 1. díl, Základní algoritmy. Computer Press, a.s., Brno, 2008. ',_x000D_
-'Rigo, M. Advanced Graph Theory and Combinatorics. ISTE Ltd and John Wiley &amp; Sons, Inc., 2016. ',_x000D_
-'Graham, R. L., Knuth, D. E., Patashnik, O. Concrete Mathematics. Addison - Wesley Publishing Company, 1994. ',_x000D_
-'Gruska, J. Foundations of Computing. International Thomson Computer Press, 1997. ',_x000D_
+    <t>'https://kix.fsv.cvut.cz/~demel/grafy/gr.pdf',
+'Matoušek, J., Nešetřil, J. Kapitoly z diskrétní matematiky. Karolinum, Praha, 2010. ',
+'Knuth, D. E. Umění programování, 1. díl, Základní algoritmy. Computer Press, a.s., Brno, 2008. ',
+'Rigo, M. Advanced Graph Theory and Combinatorics. ISTE Ltd and John Wiley &amp; Sons, Inc., 2016. ',
+'Graham, R. L., Knuth, D. E., Patashnik, O. Concrete Mathematics. Addison - Wesley Publishing Company, 1994. ',
+'Gruska, J. Foundations of Computing. International Thomson Computer Press, 1997. ',
 'https://ocw.mit.edu/courses/electrical-engineering-and-computer-science/6-042j-mathematics-for-computer-science-spring-2015/'</t>
   </si>
   <si>
-    <t>'Tůma, F. Automatické řízení 1. skriptum ZČU, Plzeň, 2007. ',_x000D_
-'Tůma, F. Teorie řízení. skriptum ZČU, Plzeň, 2005. ',_x000D_
-'Švarc, I., Šeda, M., Vítečková, M. Automatické řízení. Brno: Akademické nakladatelství CERM, 2007, ISBN 978-80-214-3491-2. ',_x000D_
-'Klán, P., Gorez, R. Process control. Prague: FCC Public, 2011, ISBN 978-80-86534-17-6. ',_x000D_
+    <t>'Tůma, F. Automatické řízení 1. skriptum ZČU, Plzeň, 2007. ',
+'Tůma, F. Teorie řízení. skriptum ZČU, Plzeň, 2005. ',
+'Švarc, I., Šeda, M., Vítečková, M. Automatické řízení. Brno: Akademické nakladatelství CERM, 2007, ISBN 978-80-214-3491-2. ',
+'Klán, P., Gorez, R. Process control. Prague: FCC Public, 2011, ISBN 978-80-86534-17-6. ',
 'Wagnerová, R. Základy automatického řízení. Ostrava: VŠB- TUO, 2013, ISBN 978-80-248-3054-4. '</t>
   </si>
   <si>
@@ -1273,7 +1273,7 @@
     <t>Předmět je zaměřen na problematiku zpracování velkého a rychle rostoucího objemu dat prostřednictvím technologie Hadoop respektive některých typů tzv. NoSQL databází. Přednášky jsou zaměřeny na základní principy distribuovaných úložišť a distribuované zpracování dat, cvičení pak na implementaci ukázkových příkladů. Úvodní přednášky se věnují instalaci jednotlivých softwarových komponent a jejich spolupráci s využitím virtualizovaných kontejnerů.</t>
   </si>
   <si>
-    <t>Obsahem předmětu jsou aktuální technologie pro řešení datové a informační bezpečnosti ve firemním prostředí. Studenti_x000D_
+    <t>Obsahem předmětu jsou aktuální technologie pro řešení datové a informační bezpečnosti ve firemním prostředí. Studenti
 se seznámí s moderními nástroji pro její zajištění.</t>
   </si>
   <si>
@@ -1283,16 +1283,15 @@
     <t>Cílem předmětu je seznámit studenty s enterprise linuxovými technologiemi, které jsou používané ve firmách. Předmět studentům rozšiřuje představu o fungování IT ve firemním prostředí. Předmět je vyučovaný ve čtyřech tříhodinových blocích.</t>
   </si>
   <si>
-    <t xml:space="preserve">Kurz matematický software se zaměřuje na využití matematických modulů jazyka Python pro řešení úloh z matematického modelování, zejména úloh z numerické matematiky. Jde zejména o využití modulů math, NumPy, SymPy, PyPlot. Důraz je kladen na práci s jednoduchými poli a efektivní implementaci numerických metod. Kurz je určen pro studenty, kteří úspěšně prošli úvodním kurzem programování a základním kurzem matematiky._x000D_
-_x000D_
+    <t xml:space="preserve">Kurz matematický software se zaměřuje na využití matematických modulů jazyka Python pro řešení úloh z matematického modelování, zejména úloh z numerické matematiky. Jde zejména o využití modulů math, NumPy, SymPy, PyPlot. Důraz je kladen na práci s jednoduchými poli a efektivní implementaci numerických metod. Kurz je určen pro studenty, kteří úspěšně prošli úvodním kurzem programování a základním kurzem matematiky.
 </t>
   </si>
   <si>
-    <t>V předmětu jsou studentům představeny základní metody numerické matematiky a možnosti jejich použití v praxi._x000D_
-Studenti si osvojí nezbytné teoretické znalosti (schopnost popisu, rozboru a odvození vybraných algoritmů), které spolu_x000D_
-s praktickými dovednostmi nabytými v předmětu Matematický software využijí k řešení komplexnějších úloh z praxe._x000D_
-Hlavním cílem předmětu je rozšířit kompetence studentů v oblasti programování v Pythonu či R za použití algoritmů_x000D_
-numerické matematiky a ukázat jejich aplikace. Dalším cílem předmětu je, aby studenti dokázali zvolit vhodnou metodu_x000D_
+    <t>V předmětu jsou studentům představeny základní metody numerické matematiky a možnosti jejich použití v praxi.
+Studenti si osvojí nezbytné teoretické znalosti (schopnost popisu, rozboru a odvození vybraných algoritmů), které spolu
+s praktickými dovednostmi nabytými v předmětu Matematický software využijí k řešení komplexnějších úloh z praxe.
+Hlavním cílem předmětu je rozšířit kompetence studentů v oblasti programování v Pythonu či R za použití algoritmů
+numerické matematiky a ukázat jejich aplikace. Dalším cílem předmětu je, aby studenti dokázali zvolit vhodnou metodu
 pro řešení zadaného problému.</t>
   </si>
   <si>
@@ -1317,8 +1316,8 @@
     <t>Kurs přináší základní teoretické a především praktické informace související s paralelním programováním. Východiskem je popis paralelních systémů a principů paralelního programování. Hlavní důraz je kladen na těsně vázané systémy se symetrickým multiprocesingem využívající vlákna (OpenMPI a Parallel-LINQ), stručně jsou však představeny i systémy asymetrické (GPGPU) a masivně paralelní systémy. Na seminářích jsou presentovány paralelní řešení elementárních matematicky orientovaných algoritmů či běžných aplikačních operací.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cílem průběžné pedagogické praxe je postupné získávání praktických dovedností v oblasti plánování a reflektování výukového procesu pod vedením mentora praxe a oborového didaktika, seznámení s úkoly, cíli a hlavními činnostmi pedagoga a školy na případu konkrétních škol._x000D_
-Studenti se seznámí s pedagogickou dokumentací, organizací a přípravou výchovně vzdělávacích činností a získají zkušenosti s jejich realizací. Pozorují a analyzují práci učitele, výsledky vyučování a vlastní pedagogické činnosti. _x000D_
+    <t xml:space="preserve">Cílem průběžné pedagogické praxe je postupné získávání praktických dovedností v oblasti plánování a reflektování výukového procesu pod vedením mentora praxe a oborového didaktika, seznámení s úkoly, cíli a hlavními činnostmi pedagoga a školy na případu konkrétních škol.
+Studenti se seznámí s pedagogickou dokumentací, organizací a přípravou výchovně vzdělávacích činností a získají zkušenosti s jejich realizací. Pozorují a analyzují práci učitele, výsledky vyučování a vlastní pedagogické činnosti. 
 </t>
   </si>
   <si>
@@ -1331,30 +1330,29 @@
     <t>Tento předmět zahajuje sérii tří na sebe navazujících předmětů, v jejichž průběhu se studenti aktivně zapojí do projektů řešených ve spolupráci s firmami (zejména projektů smluvního výzkumu), případně jiných výzkumných projektů zejména aplikačního charakteru, na jejichž řešení se podílí členové katedry. Počet míst na jeden projekt bude omezený tak, aby rozdělení studentů pokrylo potřeby aktuálně řešených či připravovaných projektů</t>
   </si>
   <si>
-    <t xml:space="preserve">Předmět uzavírá sérii tří semestrálních projektů. V této fázi se výuka soustřeďuje na následující činnosti:_x000D_
-- dokončení dílčích úkolů, jejich validace a verifikace,_x000D_
-- finalizace výstupů projektu včetně dokumentace k nim (typicky projektové a aplikační dokumentace),_x000D_
-- příprava ucelené prezentace shrnující výsledky dosažené za tři semestry,_x000D_
-- v případě dlouhodobých projektů předání know-how novým členům týmu._x000D_
-_x000D_
-V rámci seminářů bude hodnoceno dosažení cílového/průběžného stavu včetně kvality výsledné dokumentace a závěrečné prezentace. Výsledky a výstupy projektu s komerčním potenciálem mohou být následně rozpracovány a prezentovány v rámci předmětu Prezentace projektu._x000D_
+    <t xml:space="preserve">Předmět uzavírá sérii tří semestrálních projektů. V této fázi se výuka soustřeďuje na následující činnosti:
+- dokončení dílčích úkolů, jejich validace a verifikace,
+- finalizace výstupů projektu včetně dokumentace k nim (typicky projektové a aplikační dokumentace),
+- příprava ucelené prezentace shrnující výsledky dosažené za tři semestry,
+- v případě dlouhodobých projektů předání know-how novým členům týmu.
+V rámci seminářů bude hodnoceno dosažení cílového/průběžného stavu včetně kvality výsledné dokumentace a závěrečné prezentace. Výsledky a výstupy projektu s komerčním potenciálem mohou být následně rozpracovány a prezentovány v rámci předmětu Prezentace projektu.
 </t>
   </si>
   <si>
-    <t>Předmět zahrnuje vybrané partie softwarového inženýrství tak, aby pokrývaly všechny základní fáze tvorby softwaru. Některé aspekty softwarového inženýrství spojené s fází implementace, testováním a tvorby dokumentace jsou navíc zahrnuty i v předmětu Objektově orientovaný návrh._x000D_
+    <t>Předmět zahrnuje vybrané partie softwarového inženýrství tak, aby pokrývaly všechny základní fáze tvorby softwaru. Některé aspekty softwarového inženýrství spojené s fází implementace, testováním a tvorby dokumentace jsou navíc zahrnuty i v předmětu Objektově orientovaný návrh.
 Důraz je kladen na praktické využití existujících nástrojů a na praktické znalosti a poznatky zprostředkovávané odborníky z praxe.</t>
   </si>
   <si>
     <t>Předmět je zaměřen na počítačové simulace využitelné v široké oblasti od ekonomických a dopravních problémů po simulace biologických či chemických dějů. Přednášky jsou zaměřeny na prezentaci existujících nástrojů včetně ukázek použití. V rámci cvičení jsou navrhovány jednoduché modely dynamických systémů, které jsou implementovány na příslušných simulačních platformách, a výsledky simulací jsou vizualizovány a analyzovány.</t>
   </si>
   <si>
-    <t>Kurz je koncipován jako úvodní kurz, který má prezentovat vybrané partie z diskrétní matematiky a teorie grafů_x000D_
+    <t>Kurz je koncipován jako úvodní kurz, který má prezentovat vybrané partie z diskrétní matematiky a teorie grafů
 s ohledem na potřeby v dalších oblastech informatiky, jako je algoritmizace, kódování a šifrování, či optimalizace.</t>
   </si>
   <si>
-    <t>V analogové části předmětu se studenti seznámí se základy elektroniky, řešením elektrických obvodů a připraví se na_x000D_
-pochopení aktivních prvků v elektronice. Navazující část věnovaná logickým obvodům je zaměřena na pochopení_x000D_
-základních vztahů logických systémů a na aplikaci diskrétní matematiky. Student se v ní seznámí s návrhem_x000D_
+    <t>V analogové části předmětu se studenti seznámí se základy elektroniky, řešením elektrických obvodů a připraví se na
+pochopení aktivních prvků v elektronice. Navazující část věnovaná logickým obvodům je zaměřena na pochopení
+základních vztahů logických systémů a na aplikaci diskrétní matematiky. Student se v ní seznámí s návrhem
 kombinačních obvodů. Ke každé části přísluší samostatná tříhodinová laboratorní praktika.</t>
   </si>
   <si>
@@ -1365,9 +1363,9 @@
 Tento kurz byl vytvořen v rámci projektu CZ.1.07/2.2.00/28.0296 "Mezioborové vazby a podpora praxe v přírodovědných a technických studijních programech UJEP"</t>
   </si>
   <si>
-    <t>Předmět je zaměřen na získání základních znalostí z oblasti kyberbezpečnosti. Studenti se tak seznámí se základními_x000D_
-pojmy z oblasti klasické i moderní kryptologie, stejně jako se základními principy zabezpečení dat. Nebude chybět ani_x000D_
-analýza hrozeb a rizik současných informačních systémů. Tyto základní kompetence budou následně využity v dalších_x000D_
+    <t>Předmět je zaměřen na získání základních znalostí z oblasti kyberbezpečnosti. Studenti se tak seznámí se základními
+pojmy z oblasti klasické i moderní kryptologie, stejně jako se základními principy zabezpečení dat. Nebude chybět ani
+analýza hrozeb a rizik současných informačních systémů. Tyto základní kompetence budou následně využity v dalších
 předmětech.</t>
   </si>
   <si>
@@ -1391,30 +1389,30 @@
     <t>Kurs je zaměřen na základní principy programování vestavěných systémů resp. obecně univerzálních procesorů na nízké úrovni. Kurs vychází z popisu architektury jednoduchých procesorů z hlediska programátora, obsahuje úvod do assembleru a je završen možnostmi využití jazyků vyšší úrovně. Součástí kursu je i detailní popis zvolené hardwarové platformy, principů jejího programování a tvorba komplexnějších programů pro tuto platformu.</t>
   </si>
   <si>
-    <t>Obsahové zaměření průběžné pedagogické praxe je na pedagogickou práci s žáky na SŠ. Cílem souvislé praxe je_x000D_
-navazovat a rozvíjet zkušenost získané v předešlých praxích, zvláště pak praxe souvislé na ZŠ a to směrem k_x000D_
-samostatnému zvládání celého edukačního procesu, od přípravy, přes motivaci, realizaci, fixaci, až po evaluaci výsledků_x000D_
-výuky. Praxe je nejprve vykonávána formou náslechů cvičného učitele (mentora), následně pak vlastními výstupy._x000D_
-Student bude hospitovat a vykonávat vlastní pedagogickou činnost v předmětu odpovídajícímu studijnímu programu_x000D_
-MAIOR. Student vykoná praxi v délce 50 hodin vlastní pedagogické činnosti pod vedením a podle pokynů mentora_x000D_
-praxe. Pedagogická praxe má doporučené rozložení činností: Minimálně 12 hodin hospitací a 24 hodin vlastní_x000D_
-pedagogické činnosti dle příprav s rozborem výuky a následně asistentské činnosti do celkového počtu 50 hod_x000D_
-pedagogické praxe._x000D_
-Výstupy, obsahovou náplň a konkrétní zápočtové požadavky stanovuje oborový didaktik, kterému výstupy student_x000D_
+    <t>Obsahové zaměření průběžné pedagogické praxe je na pedagogickou práci s žáky na SŠ. Cílem souvislé praxe je
+navazovat a rozvíjet zkušenost získané v předešlých praxích, zvláště pak praxe souvislé na ZŠ a to směrem k
+samostatnému zvládání celého edukačního procesu, od přípravy, přes motivaci, realizaci, fixaci, až po evaluaci výsledků
+výuky. Praxe je nejprve vykonávána formou náslechů cvičného učitele (mentora), následně pak vlastními výstupy.
+Student bude hospitovat a vykonávat vlastní pedagogickou činnost v předmětu odpovídajícímu studijnímu programu
+MAIOR. Student vykoná praxi v délce 50 hodin vlastní pedagogické činnosti pod vedením a podle pokynů mentora
+praxe. Pedagogická praxe má doporučené rozložení činností: Minimálně 12 hodin hospitací a 24 hodin vlastní
+pedagogické činnosti dle příprav s rozborem výuky a následně asistentské činnosti do celkového počtu 50 hod
+pedagogické praxe.
+Výstupy, obsahovou náplň a konkrétní zápočtové požadavky stanovuje oborový didaktik, kterému výstupy student
 odevzdává a oborový didaktik uděluje zápočet.</t>
   </si>
   <si>
-    <t>Obsahové zaměření průběžné pedagogické praxe je na pedagogickou práci s žáky na 2. stupni ZŠ. Cílem souvislé praxe_x000D_
-je navazovat a rozvíjet zkušenost získané v předešlých praxích směrem k samostatnému zvládnutí celého edukačního_x000D_
-procesu, od přípravy, přes motivaci, realizaci, fixaci, až po evaluaci výsledků výuky._x000D_
-Praxe je nejprve vykonávána formou náslechů cvičného učitele (mentora), reflexí denních činností, následně pak_x000D_
-vlastními výstupy. Student bude hospitovat a vykonávat vlastní pedagogickou činnost v předmětu odpovídajícímu_x000D_
-studijnímu programu MAIOR_x000D_
-Student vykoná praxi v délce 50 hodin vlastní pedagogické činnosti pod vedením a podle pokynů mentora praxe._x000D_
-Pedagogická praxe má doporučené rozložení činností: Minimálně 6 hodin hospitací a 16 hodin vlastní pedagogické_x000D_
-činnosti dle příprav s rozborem výuky a následně asistentské činnosti do celkového počtu 50 hod pedagogické praxe._x000D_
-Rámec praxe tedy počty hodin a výstupy (pedagogický deník/ portfolio z praxe + hodnocení mentorem praxe) jsou_x000D_
-nastaveny z CPPV, obsahovou náplň a konkrétní zápočtové požadavky stanovuje oborový didaktik, kterému výstupy_x000D_
+    <t>Obsahové zaměření průběžné pedagogické praxe je na pedagogickou práci s žáky na 2. stupni ZŠ. Cílem souvislé praxe
+je navazovat a rozvíjet zkušenost získané v předešlých praxích směrem k samostatnému zvládnutí celého edukačního
+procesu, od přípravy, přes motivaci, realizaci, fixaci, až po evaluaci výsledků výuky.
+Praxe je nejprve vykonávána formou náslechů cvičného učitele (mentora), reflexí denních činností, následně pak
+vlastními výstupy. Student bude hospitovat a vykonávat vlastní pedagogickou činnost v předmětu odpovídajícímu
+studijnímu programu MAIOR
+Student vykoná praxi v délce 50 hodin vlastní pedagogické činnosti pod vedením a podle pokynů mentora praxe.
+Pedagogická praxe má doporučené rozložení činností: Minimálně 6 hodin hospitací a 16 hodin vlastní pedagogické
+činnosti dle příprav s rozborem výuky a následně asistentské činnosti do celkového počtu 50 hod pedagogické praxe.
+Rámec praxe tedy počty hodin a výstupy (pedagogický deník/ portfolio z praxe + hodnocení mentorem praxe) jsou
+nastaveny z CPPV, obsahovou náplň a konkrétní zápočtové požadavky stanovuje oborový didaktik, kterému výstupy
 student odevzdává a oborový didaktik uděluje zápočet.</t>
   </si>
   <si>
@@ -1442,8 +1440,8 @@
     <t>Kombinovaná</t>
   </si>
   <si>
-    <t xml:space="preserve">Zápočet: laboratorní úloha_x000D_
-Zkouška: ústní_x000D_
+    <t xml:space="preserve">Zápočet: laboratorní úloha
+Zkouška: ústní
 </t>
   </si>
   <si>
@@ -1454,9 +1452,8 @@
     <t>Throughout the course, students will be required to complete programming assignments using MATLAB to reinforce and apply concepts covered in lectures.</t>
   </si>
   <si>
-    <t xml:space="preserve">Zápočet: vypracování programu zpracovávající data v distribuovaném systému_x000D_
-_x000D_
-Zkouška: ústní (diskuse nad seminárním programem a ověření obecných faktických znalostí)_x000D_
+    <t xml:space="preserve">Zápočet: vypracování programu zpracovávající data v distribuovaném systému
+Zkouška: ústní (diskuse nad seminárním programem a ověření obecných faktických znalostí)
 </t>
   </si>
   <si>
@@ -1485,59 +1482,58 @@
     <t>Podmínkou získání zápočtu je úspěšně napsaný písemný test, zpracování seminární práce a její obhajoba. Zkouška bude ústní.</t>
   </si>
   <si>
-    <t xml:space="preserve">Zápočet: seminární práce_x000D_
-Zkouška: ústní, zaměřená na ověření teoretických znalostí_x000D_
+    <t xml:space="preserve">Zápočet: seminární práce
+Zkouška: ústní, zaměřená na ověření teoretických znalostí
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Zápočet: seminární práce (implementace paralelní verze netriviálního algoritmu za použití CPU a GPU)_x000D_
-_x000D_
-Zkouška: ústní (diskuse nad seminární prací a ověření obecných faktických znalostí)_x000D_
+    <t xml:space="preserve">Zápočet: seminární práce (implementace paralelní verze netriviálního algoritmu za použití CPU a GPU)
+Zkouška: ústní (diskuse nad seminární prací a ověření obecných faktických znalostí)
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Zápočet: praktický test (řešení zadané úlohy na počítači v počítačové učebně)_x000D_
-Zkouška: ústní, zaměřená na ověření teoretických znalostí_x000D_
+    <t xml:space="preserve">Zápočet: praktický test (řešení zadané úlohy na počítači v počítačové učebně)
+Zkouška: ústní, zaměřená na ověření teoretických znalostí
 </t>
   </si>
   <si>
-    <t xml:space="preserve">- řádné absolvování praxe na školském zařízení - 3 hod/týd (KS 13hod/sem)_x000D_
-- odevzdání elektronické verze Deníku průběžné praxe (IS STAG)_x000D_
-- odevzdání hodnocení studenta mentorem praxe (IS STAG)_x000D_
+    <t xml:space="preserve">- řádné absolvování praxe na školském zařízení - 3 hod/týd (KS 13hod/sem)
+- odevzdání elektronické verze Deníku průběžné praxe (IS STAG)
+- odevzdání hodnocení studenta mentorem praxe (IS STAG)
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Zápočet: seminární práce_x000D_
-Zkouška: ústní_x000D_
+    <t xml:space="preserve">Zápočet: seminární práce
+Zkouška: ústní
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Zápočet: tvorba a obhájení seminární práce na zadané téma_x000D_
-Zkouška: ústní, zaměřená na ověření teoretických znalostí_x000D_
+    <t xml:space="preserve">Zápočet: tvorba a obhájení seminární práce na zadané téma
+Zkouška: ústní, zaměřená na ověření teoretických znalostí
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Účast na projektových schůzkách, průběžné plnění zadaných úkolů_x000D_
-Zápočet uděluje řešitel projektu._x000D_
+    <t xml:space="preserve">Účast na projektových schůzkách, průběžné plnění zadaných úkolů
+Zápočet uděluje řešitel projektu.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Účast na projektových schůzkách s prezentací dílčích výstupů a plánů dalšího postupu, průběžné plnění zadaných úkolů_x000D_
-Zápočet uděluje řešitel projektu._x000D_
+    <t xml:space="preserve">Účast na projektových schůzkách s prezentací dílčích výstupů a plánů dalšího postupu, průběžné plnění zadaných úkolů
+Zápočet uděluje řešitel projektu.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Účast na projektových schůzkách s prezentací dílčích výstupů a plánů dalšího postupu, zhodnocení finálních výstupů projektu dle jejich závěrečné prezentace a dokumentace_x000D_
-Zápočet uděluje řešitel projektu._x000D_
+    <t xml:space="preserve">Účast na projektových schůzkách s prezentací dílčích výstupů a plánů dalšího postupu, zhodnocení finálních výstupů projektu dle jejich závěrečné prezentace a dokumentace
+Zápočet uděluje řešitel projektu.
 </t>
   </si>
   <si>
-    <t>Zápočet: praktická úloha v nástroji Git_x000D_
+    <t>Zápočet: praktická úloha v nástroji Git
 Zkouška: klasifikovaná seminární práce ze zvolené oblasti softwarového inženýrství a diskuse nad ní</t>
   </si>
   <si>
-    <t xml:space="preserve">Zápočet: seminární práce (implementace modelu a vizualizace výsledku simulace)_x000D_
-Zkouška: ústní, zaměřená na praktické i teoretické aspekty simulací_x000D_
+    <t xml:space="preserve">Zápočet: seminární práce (implementace modelu a vizualizace výsledku simulace)
+Zkouška: ústní, zaměřená na praktické i teoretické aspekty simulací
 </t>
   </si>
   <si>
@@ -1547,7 +1543,7 @@
 </t>
   </si>
   <si>
-    <t>Zápočet: aktivní účast na laboratořích_x000D_
+    <t>Zápočet: aktivní účast na laboratořích
 Zkouška: ústní</t>
   </si>
   <si>
@@ -1563,9 +1559,9 @@
     <t>Praktický test (řešení zadaných úloh na počítači v počítačové učebně)</t>
   </si>
   <si>
-    <t xml:space="preserve">Požadavky pro udělení zápočtu_x000D_
-- aktivní účast na seminářích (povoleny jsou nejvýše 3 absence)_x000D_
-- vypracování seminárních prací _x000D_
+    <t xml:space="preserve">Požadavky pro udělení zápočtu
+- aktivní účast na seminářích (povoleny jsou nejvýše 3 absence)
+- vypracování seminárních prací 
 </t>
   </si>
   <si>
@@ -1593,8 +1589,8 @@
 - 2 dodatečné body lze získat za každých dokončených 5 minut věnování pozornosti prezentace ostatních studentů.</t>
   </si>
   <si>
-    <t>- řádné absolvování praxe na školském zařízení_x000D_
-- odevzdání elektronické verze portfolia z praxe do systému stag_x000D_
+    <t>- řádné absolvování praxe na školském zařízení
+- odevzdání elektronické verze portfolia z praxe do systému stag
 - odevzdání hodnocení mentorem praxe do systému stag</t>
   </si>
   <si>
@@ -1609,19 +1605,18 @@
     <t>Písemný test</t>
   </si>
   <si>
-    <t xml:space="preserve">Obsahem předmětu jsou aktuální technologie pro řešení datové a informační bezpečnosti ve firemním prostředí. Studenti se seznámí s moderními nástroji pro její zajištění._x000D_
-_x000D_
-1. Úvod do datové bezpečnosti_x000D_
-2. Klasifikace a analýza dat z pohledu jejich správy, citlivosti a bezpečnosti_x000D_
-3. Ochrana osobních údajů (např. GDPR), anonymizace dat_x000D_
-4. DLP systémy_x000D_
-5. Systémy vysoké dostupnosti datových úložišť_x000D_
-6. Zálohovací technologie pro koncové prvky_x000D_
-7. Zálohovací technologie pro infrastrukturní systémy_x000D_
-8. Archivační technologie_x000D_
-9. Systémy logování a struktura logů pro framework AAA_x000D_
-10. - 12. Správa systémů pro ukládání logovacích údajů frameworku AAA_x000D_
-13. - 14. Vyhledávání souvislostí v uložených datech_x000D_
+    <t xml:space="preserve">Obsahem předmětu jsou aktuální technologie pro řešení datové a informační bezpečnosti ve firemním prostředí. Studenti se seznámí s moderními nástroji pro její zajištění.
+1. Úvod do datové bezpečnosti
+2. Klasifikace a analýza dat z pohledu jejich správy, citlivosti a bezpečnosti
+3. Ochrana osobních údajů (např. GDPR), anonymizace dat
+4. DLP systémy
+5. Systémy vysoké dostupnosti datových úložišť
+6. Zálohovací technologie pro koncové prvky
+7. Zálohovací technologie pro infrastrukturní systémy
+8. Archivační technologie
+9. Systémy logování a struktura logů pro framework AAA
+10. - 12. Správa systémů pro ukládání logovacích údajů frameworku AAA
+13. - 14. Vyhledávání souvislostí v uložených datech
 </t>
   </si>
   <si>
@@ -1639,58 +1634,58 @@
 12.	Tvorba síťových aplikací</t>
   </si>
   <si>
-    <t xml:space="preserve">1.	Overview of MATLAB and its applications_x000D_
-2.	Basics of the MATLAB environment: workspace, command window, editor_x000D_
-3.	Basic commands and syntax: variables, operators, expressions, input/output_x000D_
-4.	Arithmetic operations with scalars_x000D_
-5.	Conditional statements (if statements)_x000D_
-6.	The switch-case statement_x000D_
-7.	Creating a two dimensional array (Matrix)_x000D_
-8.	Loops: for, while_x000D_
-9.	Arrays: creation, indexing, slicing, operations_x000D_
-10.	Creating functions: input/output arguments, local variables, recursion_x000D_
-11.	Plotting: 2D and 3D plots, line and scatter plots_x000D_
-12.	Overview of toolboxes available in MATLAB for optimization techniques, linear algebra, matrix operations, eigenvalues and eigenvectors, and linear systems_x000D_
+    <t xml:space="preserve">1.	Overview of MATLAB and its applications
+2.	Basics of the MATLAB environment: workspace, command window, editor
+3.	Basic commands and syntax: variables, operators, expressions, input/output
+4.	Arithmetic operations with scalars
+5.	Conditional statements (if statements)
+6.	The switch-case statement
+7.	Creating a two dimensional array (Matrix)
+8.	Loops: for, while
+9.	Arrays: creation, indexing, slicing, operations
+10.	Creating functions: input/output arguments, local variables, recursion
+11.	Plotting: 2D and 3D plots, line and scatter plots
+12.	Overview of toolboxes available in MATLAB for optimization techniques, linear algebra, matrix operations, eigenvalues and eigenvectors, and linear systems
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Principy virtualizace a přehled nástrojů_x000D_
-2. Tvorba unifikovaných prostředí (izolace aplikací): Docker, CoreOS, rkt_x000D_
-3. Architektura clusteru: přehled Hadoop_x000D_
-4. Ukládání dat (storage) HDFS, HiveQL_x000D_
-5. MapReduce framework (principy)_x000D_
-6. Spark a jeho architektura_x000D_
-7. Moduly Spark: MLlib (strojové učení), GraphX, Spark Streaming (streamování dat)_x000D_
-8. - 9. NoSQL databáze a BigData (MongoDB, Neo4j, Caché)_x000D_
+    <t xml:space="preserve">1. Principy virtualizace a přehled nástrojů
+2. Tvorba unifikovaných prostředí (izolace aplikací): Docker, CoreOS, rkt
+3. Architektura clusteru: přehled Hadoop
+4. Ukládání dat (storage) HDFS, HiveQL
+5. MapReduce framework (principy)
+6. Spark a jeho architektura
+7. Moduly Spark: MLlib (strojové učení), GraphX, Spark Streaming (streamování dat)
+8. - 9. NoSQL databáze a BigData (MongoDB, Neo4j, Caché)
 </t>
   </si>
   <si>
-    <t>1. Úvod do datové bezpečnosti_x000D_
-2. Klasifikace a analýza dat z pohledu jejich správy, citlivosti a bezpečnosti_x000D_
-3. Ochrana osobních údajů (např. GDPR), anonymizace dat_x000D_
-4. DLP systémy_x000D_
-5. Systémy vysoké dostupnosti datových úložišť_x000D_
-6. Zálohovací technologie pro koncové prvky_x000D_
-7. Zálohovací technologie pro infrastrukturní systémy_x000D_
-8. Archivační technologie_x000D_
-9. Systémy logování a struktura logů pro framework AAA_x000D_
-10. ? 12. Správa systémů pro ukládání logovacích údajů frameworku AAA_x000D_
+    <t>1. Úvod do datové bezpečnosti
+2. Klasifikace a analýza dat z pohledu jejich správy, citlivosti a bezpečnosti
+3. Ochrana osobních údajů (např. GDPR), anonymizace dat
+4. DLP systémy
+5. Systémy vysoké dostupnosti datových úložišť
+6. Zálohovací technologie pro koncové prvky
+7. Zálohovací technologie pro infrastrukturní systémy
+8. Archivační technologie
+9. Systémy logování a struktura logů pro framework AAA
+10. ? 12. Správa systémů pro ukládání logovacích údajů frameworku AAA
 13. ? 14. Vyhledávání souvislostí v uložených datech</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Podnikové informační systémy (IS): základní pojmy, vývoj_x000D_
-2. ERP (Enterprise Resource Planning): jádro informačního systému_x000D_
-3. - 4. Další funkcionalita podnikových informačních systémů: SCM (Supply Chain Management; řízení dodavatelského řetězce), CRM (Customer Relationship Management; řízení vztahu se zákazníkem), ECM (Enterprise Content Management; řízení podnikového obsahu, správa dokumentů a řízení pracovních toků), BI (Business Intelligence)_x000D_
-5. Datový a procesní pohled na podnikové informační systémy: databáze, typy dat, podnikové procesy, dělení, modelování, vliv organizace podniku, aplikované metody řízení (MRP, CRP)_x000D_
-6. Nabídka, efekty a trendy podnikových informačních systémů: současný stav a trendy, podpora cílů a metod řízení, efektivnost, potenciál_x000D_
-7. Projekty implementace: etapy, organizační zajištění_x000D_
-8. - 13. Informační systémy v podnikové praxi: univerzální účetní systémy, robustní firemní ERP a jejich integrace s BI, principy řešení (on-premise, SaaS), pokrytí potřeb zákazníka (pohled konzultanta) a rozšiřitelnost standardních řešení (pohled vývojáře), IS ve školství, IS pro stavební firmy_x000D_
+    <t xml:space="preserve">1. Podnikové informační systémy (IS): základní pojmy, vývoj
+2. ERP (Enterprise Resource Planning): jádro informačního systému
+3. - 4. Další funkcionalita podnikových informačních systémů: SCM (Supply Chain Management; řízení dodavatelského řetězce), CRM (Customer Relationship Management; řízení vztahu se zákazníkem), ECM (Enterprise Content Management; řízení podnikového obsahu, správa dokumentů a řízení pracovních toků), BI (Business Intelligence)
+5. Datový a procesní pohled na podnikové informační systémy: databáze, typy dat, podnikové procesy, dělení, modelování, vliv organizace podniku, aplikované metody řízení (MRP, CRP)
+6. Nabídka, efekty a trendy podnikových informačních systémů: současný stav a trendy, podpora cílů a metod řízení, efektivnost, potenciál
+7. Projekty implementace: etapy, organizační zajištění
+8. - 13. Informační systémy v podnikové praxi: univerzální účetní systémy, robustní firemní ERP a jejich integrace s BI, principy řešení (on-premise, SaaS), pokrytí potřeb zákazníka (pohled konzultanta) a rozšiřitelnost standardních řešení (pohled vývojáře), IS ve školství, IS pro stavební firmy
 </t>
   </si>
   <si>
-    <t>1. Byznys a ICT, použití linuxových technologií v praxi Byznys a ICT GNU/Linux Komerční Linux Red Hat Enterprise Linuxu, vyzkoušení_x000D_
-2. Řešení vysoké dostupnosti na Linuxu Vysoká dostupnost ? teorie, principy Použití a nastavení Red Hat Cluster Suite Sophos UTM jako moderní bezpečnostní řešení postavené na Linuxu Funkce a vlastnosti UTM řešení _x000D_
-3. Bezpečnost v síti, tvorba bezpečnostní politiky ve firemním prostředí IPS/IDS systémy, funkce, nastavení Zabezpečení poštovního serveru, antispam techniky _x000D_
+    <t>1. Byznys a ICT, použití linuxových technologií v praxi Byznys a ICT GNU/Linux Komerční Linux Red Hat Enterprise Linuxu, vyzkoušení
+2. Řešení vysoké dostupnosti na Linuxu Vysoká dostupnost ? teorie, principy Použití a nastavení Red Hat Cluster Suite Sophos UTM jako moderní bezpečnostní řešení postavené na Linuxu Funkce a vlastnosti UTM řešení 
+3. Bezpečnost v síti, tvorba bezpečnostní politiky ve firemním prostředí IPS/IDS systémy, funkce, nastavení Zabezpečení poštovního serveru, antispam techniky 
 4. Virtualizace a provoz IT na virtuální infrastruktuře Základy virtualizace x86 Virtualizační techniky Ukázka moderního virtualizačního nástroje: Red Hat Enterprise Virtualization, VMware vSphere</t>
   </si>
   <si>
@@ -1732,66 +1727,63 @@
 12. Zápočtový test </t>
   </si>
   <si>
-    <t xml:space="preserve">První etapa: motivační semináře (dvouhodinové)_x000D_
-1. Úvod do problematiky otevřených dat (politika v této oblasti i technické náležitosti)_x000D_
-2. Otevřená data v praxi z pohledu veřejné správy_x000D_
-_x000D_
-Druhá etapa: workshopy, nástroje pro open data (dvouhodinové)_x000D_
-1. - 2. Data parsing, data scraping, formáty otevřených dat_x000D_
-3. - 4. Kartografické minimum, GIS a prostorová data, otevřená geodata a jejich vizualizace_x000D_
-5. Datová žurnalistika, případové studie_x000D_
-_x000D_
-Třetí etapa: veřejný 24hodinový hackathon (pod dohledem lektorů, návrh a prezentace vlastního řešení nad open daty)_x000D_
+    <t xml:space="preserve">První etapa: motivační semináře (dvouhodinové)
+1. Úvod do problematiky otevřených dat (politika v této oblasti i technické náležitosti)
+2. Otevřená data v praxi z pohledu veřejné správy
+Druhá etapa: workshopy, nástroje pro open data (dvouhodinové)
+1. - 2. Data parsing, data scraping, formáty otevřených dat
+3. - 4. Kartografické minimum, GIS a prostorová data, otevřená geodata a jejich vizualizace
+5. Datová žurnalistika, případové studie
+Třetí etapa: veřejný 24hodinový hackathon (pod dohledem lektorů, návrh a prezentace vlastního řešení nad open daty)
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Úlohy lineárního programování (LP) a jejich vlastnosti_x000D_
-2. - 4. Řešení úloh LP, grafické řešení úloh LP, simplexová metoda, převod na M-úlohu, dualita v LP_x000D_
-5. - 7. Dopravní problém a jeho řešení metodou MODI, přiřazovací problém, okružní problém a jejich řešení_x000D_
-8. - 9. Řízení projektů metodou CPM, časově nákladová analýza projektů, řízení projektů metodou PERT_x000D_
-10. - 11. Modely hromadné obsluhy: Kendallova klasifikace, modely M/M/1 a M/M/m a jejich aplikace_x000D_
-12. - 13. Modely hromadné obsluhy: modely M/M/1/k a M/M/m/k a jejich aplikace_x000D_
+    <t xml:space="preserve">1. Úlohy lineárního programování (LP) a jejich vlastnosti
+2. - 4. Řešení úloh LP, grafické řešení úloh LP, simplexová metoda, převod na M-úlohu, dualita v LP
+5. - 7. Dopravní problém a jeho řešení metodou MODI, přiřazovací problém, okružní problém a jejich řešení
+8. - 9. Řízení projektů metodou CPM, časově nákladová analýza projektů, řízení projektů metodou PERT
+10. - 11. Modely hromadné obsluhy: Kendallova klasifikace, modely M/M/1 a M/M/m a jejich aplikace
+12. - 13. Modely hromadné obsluhy: modely M/M/1/k a M/M/m/k a jejich aplikace
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Formulace úloh optimalizace, volné a vázané extrémy, spojitá a diskrétní optimalizace, konvexní optimalizace, vícekriteriální optimalizace, příklady typických úloh_x000D_
-2. Možnosti výpočtu derivací a gradientů: symbolická derivace, numerická derivace, principy automatické diferenciace_x000D_
-3. Hledání minima v 1D: hledání minima ve směru, metoda zlatého řezu, Fibonacciho metoda_x000D_
-4. - 5. Metody prvního řádu pro hledání minima: gradientní metoda, metoda konjugovaných gradientů, Nesterova metoda, metody Adagrad, RMSProp, Adam_x000D_
-6. Metody druhého řádu: Newtonova metoda, kvazi-Newtonovské metody_x000D_
-7. Metoda nejmenších čtverců: lineární, nelineární, Levenbergova-Marquardtova metoda_x000D_
-8. Metody minimalizace bez výpočtu derivace: Hookova-Jeevesova metoda, Powellova metoda, Nelderova-Meadova metoda_x000D_
-9. - 10. Principy stochastických a populačních metod: simulované žíhání, metody particle swarm, firefly metoda a cockoo search_x000D_
-11. - 12. Úlohy s omezeními: Lagrangeova metoda, KKT podmínky, Lagrangeova dualita, penaltové metody_x000D_
-13. - 14. Kvadratické programování: formulace, příklady užití (SVM) a možnosti řešení_x000D_
+    <t xml:space="preserve">1. Formulace úloh optimalizace, volné a vázané extrémy, spojitá a diskrétní optimalizace, konvexní optimalizace, vícekriteriální optimalizace, příklady typických úloh
+2. Možnosti výpočtu derivací a gradientů: symbolická derivace, numerická derivace, principy automatické diferenciace
+3. Hledání minima v 1D: hledání minima ve směru, metoda zlatého řezu, Fibonacciho metoda
+4. - 5. Metody prvního řádu pro hledání minima: gradientní metoda, metoda konjugovaných gradientů, Nesterova metoda, metody Adagrad, RMSProp, Adam
+6. Metody druhého řádu: Newtonova metoda, kvazi-Newtonovské metody
+7. Metoda nejmenších čtverců: lineární, nelineární, Levenbergova-Marquardtova metoda
+8. Metody minimalizace bez výpočtu derivace: Hookova-Jeevesova metoda, Powellova metoda, Nelderova-Meadova metoda
+9. - 10. Principy stochastických a populačních metod: simulované žíhání, metody particle swarm, firefly metoda a cockoo search
+11. - 12. Úlohy s omezeními: Lagrangeova metoda, KKT podmínky, Lagrangeova dualita, penaltové metody
+13. - 14. Kvadratické programování: formulace, příklady užití (SVM) a možnosti řešení
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1. - 2. Paralelní hardware (Flynnova taxonomie, volně a těsně vázané systémy, NUMA, SIMD podpora na plaformě AMD/Intel x86_64, AMD, výpočetní clustery, masivní paralelismus prostřednictvím GPGU)_x000D_
-3. Omezení paralelismu (Amdahlův a Gustafsonův zákon, organizace paměti, vliv mezipaměti), paralelismus z pohledu softwaru (asynchronní a souběžné programování, výpočetní vlákna, datově a úlohově orientovaný paralelismus, sdílení paměti versus předávání zpráv, synchronizace využitelná pro HPC úlohy)_x000D_
-4. Modul multiprocessing, paralelní map, explicitní využívání komunikačních front_x000D_
-5. - 6. MPI v Pythonu (point-to-point communication, kolektivní komunikace)_x000D_
-7. - 8. Paralelismus nad sdílenou pamětí, OpenMP a jeho využití v Pythonu (Numba, Cython, integrace kódu v jazyce C)_x000D_
-9. - 11. Využití platformy CUDA v Pythonu (Numba Cuda, Python CUDA)_x000D_
-12. - 14. Moderní přístupy k HPC paralelismu (např. paralelismus v jazyce Julia, Intel oneAPI, obsah se bude přizpůsobovat aktuálním trendům)_x000D_
-Exkurze + cvičení_x000D_
-1. - 3. Motivační exkurze, podpora paralelismu v OS Linux, instalace a zprovoznění, profiling kódu, benchmarking_x000D_
-4. - 14. Řešení praktických úloh a implementace základních paralelních algoritmů s využitím nástrojů zavedených v rámci přednášek_x000D_
-_x000D_
-Předmět je vyučován v anglickém jazyce._x000D_
+    <t xml:space="preserve">1. - 2. Paralelní hardware (Flynnova taxonomie, volně a těsně vázané systémy, NUMA, SIMD podpora na plaformě AMD/Intel x86_64, AMD, výpočetní clustery, masivní paralelismus prostřednictvím GPGU)
+3. Omezení paralelismu (Amdahlův a Gustafsonův zákon, organizace paměti, vliv mezipaměti), paralelismus z pohledu softwaru (asynchronní a souběžné programování, výpočetní vlákna, datově a úlohově orientovaný paralelismus, sdílení paměti versus předávání zpráv, synchronizace využitelná pro HPC úlohy)
+4. Modul multiprocessing, paralelní map, explicitní využívání komunikačních front
+5. - 6. MPI v Pythonu (point-to-point communication, kolektivní komunikace)
+7. - 8. Paralelismus nad sdílenou pamětí, OpenMP a jeho využití v Pythonu (Numba, Cython, integrace kódu v jazyce C)
+9. - 11. Využití platformy CUDA v Pythonu (Numba Cuda, Python CUDA)
+12. - 14. Moderní přístupy k HPC paralelismu (např. paralelismus v jazyce Julia, Intel oneAPI, obsah se bude přizpůsobovat aktuálním trendům)
+Exkurze + cvičení
+1. - 3. Motivační exkurze, podpora paralelismu v OS Linux, instalace a zprovoznění, profiling kódu, benchmarking
+4. - 14. Řešení praktických úloh a implementace základních paralelních algoritmů s využitím nástrojů zavedených v rámci přednášek
+Předmět je vyučován v anglickém jazyce.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Stabilita, zdroje zaokrouhlovacích chyb a jejich vliv_x000D_
-2. - 3. Přímé metody pro řešení lineárních rovnic: GEM, LU rozklad, Choleského faktorizace, QR faktorizace a jejich aplikace_x000D_
-4. - 5. Iterační metody pro řešení lineárních rovnic: Jacobiova, Gaussova-Seidelova metoda, SOR, gradientní metoda a metoda sdružených gradientů_x000D_
-6. - 7. Vlastní čísla a jejich výpočet: odhady vlastních čísel, částečný problém vlastních čísel (mocninná metoda), úplný problém vlastních čísel (QR iterace a konstrukce QR rozkladu)_x000D_
-8. SVD rozklad, jeho výpočet a aplikace_x000D_
-9. Iterační metody řešení nelineárních rovnic a jejich soustav: Newtonova metoda a její varianty, metoda prosté iterace, metody pevného bodu a jejich konvergence_x000D_
-10. Hledání kořenů polynomů: odhady kořenů polynomů, Newtonova-Hornerova metoda, Mullerova metoda, Bernoulliova metoda_x000D_
-11. Numerická kvadratura: zopakování základních metod pro jednorozměrné integrály (Newtonovy-Cotesovy vzorce), Gaussova kvadratura, výpočet nevlastních integrálů, adaptivní přístupy, redukce pro vícerozměrné integrály a metoda Monte Carlo_x000D_
-12. Řešení ODR a jejich soustav: jednokrokové a vícekrokové metody, metody prediktor-korektor, metody Rungeho-Kutty, stiff problémy a stabilita metod_x000D_
-13. Aproximace a interpolace funkcí: zopakování základních metod (interpolace polynomem aj.), kubický spline, Čebyševovská aproximace_x000D_
+    <t xml:space="preserve">1. Stabilita, zdroje zaokrouhlovacích chyb a jejich vliv
+2. - 3. Přímé metody pro řešení lineárních rovnic: GEM, LU rozklad, Choleského faktorizace, QR faktorizace a jejich aplikace
+4. - 5. Iterační metody pro řešení lineárních rovnic: Jacobiova, Gaussova-Seidelova metoda, SOR, gradientní metoda a metoda sdružených gradientů
+6. - 7. Vlastní čísla a jejich výpočet: odhady vlastních čísel, částečný problém vlastních čísel (mocninná metoda), úplný problém vlastních čísel (QR iterace a konstrukce QR rozkladu)
+8. SVD rozklad, jeho výpočet a aplikace
+9. Iterační metody řešení nelineárních rovnic a jejich soustav: Newtonova metoda a její varianty, metoda prosté iterace, metody pevného bodu a jejich konvergence
+10. Hledání kořenů polynomů: odhady kořenů polynomů, Newtonova-Hornerova metoda, Mullerova metoda, Bernoulliova metoda
+11. Numerická kvadratura: zopakování základních metod pro jednorozměrné integrály (Newtonovy-Cotesovy vzorce), Gaussova kvadratura, výpočet nevlastních integrálů, adaptivní přístupy, redukce pro vícerozměrné integrály a metoda Monte Carlo
+12. Řešení ODR a jejich soustav: jednokrokové a vícekrokové metody, metody prediktor-korektor, metody Rungeho-Kutty, stiff problémy a stabilita metod
+13. Aproximace a interpolace funkcí: zopakování základních metod (interpolace polynomem aj.), kubický spline, Čebyševovská aproximace
 </t>
   </si>
   <si>
@@ -1810,31 +1802,31 @@
 13.	Automatická paralelizace (např. Parallel Computing Toolbox Matlabu)</t>
   </si>
   <si>
-    <t xml:space="preserve">Obsahové zaměření průběžné pedagogické praxe je na pedagogickou práci s žáky na 2. stupni ZŠ a SŠ včetně seznámení se školním vzdělávacím programem a školskými dokumenty._x000D_
-Praxe je nejprve vykonávána formou náslechů cvičného učitele (mentora), reflexe denních činností, osvojováním si praktických dovedností z oblasti pedagogiky a didaktiky, následně pak vlastními výstupy. Student bude hospitovat a vykonávat vlastní pedagogickou činnost v předmětu odpovídajícímu studijnímu programu (MAIOR I MINOR)._x000D_
-Student vykoná praxi na škole v rámci studentské skupiny. Vždy jeden student realizuje vlastní pedagogické činnosti pod vedením a podle pokynů mentora praxe, ostatní studenti hospitují a provádí hospitačně-reflektivní záznam. Hodiny jsou rozborované._x000D_
-Rámec praxe, tedy počty hodin a výstupy (pedagogický deník/ portfolio z praxe + hodnocení mentorem praxe), je nastaven z CPPV, obsahovou náplň a konkrétní zápočtové požadavky stanovuje oborový didaktik, jemuž výstupy student odevzdává._x000D_
-Student si vybírá školu pro realizaci průběžné praxe sám, příp. po poradě s oborovým didaktikem, pokud možno z nabídky fakultních a spolupracujících škol._x000D_
-Student v průběhu průběžné praxe plní následující úkoly:_x000D_
--	v průběhu praxe se seznámí s organizací výchovně vzdělávací práce v ZŠ či SŠ, pedagogickou dokumentací a metodickým materiálem _x000D_
--	zúčastní se dle pokynů mentora akcí školy a bude plnit další povinnosti_x000D_
--	během prvních týdnů průběžné praxe studenti pouze hospitují a tyto náslechy si zaznamenávají_x000D_
--	v následujících týdnech studenti vykonávají asistentské činnosti dle pokynů mentora, hospitují a realizují vlastní výstupy_x000D_
--	každý student realizuje na základě vlastní přípravy několik výstupů (s ohledem na velikost studentské skupiny). Každou přípravu je nutné několik dní předem konzultovat s mentorem a upravit ji podle připomínek. Je vhodné střídat různé typy aktivit. Ostatní studenti v tuto dobu svého kolegu hospitují a pozorování si zaznamenávají_x000D_
--	po náslechu a každé samostatné činnosti studenta proběhne rozbor mentora se studentem/ty_x000D_
+    <t xml:space="preserve">Obsahové zaměření průběžné pedagogické praxe je na pedagogickou práci s žáky na 2. stupni ZŠ a SŠ včetně seznámení se školním vzdělávacím programem a školskými dokumenty.
+Praxe je nejprve vykonávána formou náslechů cvičného učitele (mentora), reflexe denních činností, osvojováním si praktických dovedností z oblasti pedagogiky a didaktiky, následně pak vlastními výstupy. Student bude hospitovat a vykonávat vlastní pedagogickou činnost v předmětu odpovídajícímu studijnímu programu (MAIOR I MINOR).
+Student vykoná praxi na škole v rámci studentské skupiny. Vždy jeden student realizuje vlastní pedagogické činnosti pod vedením a podle pokynů mentora praxe, ostatní studenti hospitují a provádí hospitačně-reflektivní záznam. Hodiny jsou rozborované.
+Rámec praxe, tedy počty hodin a výstupy (pedagogický deník/ portfolio z praxe + hodnocení mentorem praxe), je nastaven z CPPV, obsahovou náplň a konkrétní zápočtové požadavky stanovuje oborový didaktik, jemuž výstupy student odevzdává.
+Student si vybírá školu pro realizaci průběžné praxe sám, příp. po poradě s oborovým didaktikem, pokud možno z nabídky fakultních a spolupracujících škol.
+Student v průběhu průběžné praxe plní následující úkoly:
+-	v průběhu praxe se seznámí s organizací výchovně vzdělávací práce v ZŠ či SŠ, pedagogickou dokumentací a metodickým materiálem 
+-	zúčastní se dle pokynů mentora akcí školy a bude plnit další povinnosti
+-	během prvních týdnů průběžné praxe studenti pouze hospitují a tyto náslechy si zaznamenávají
+-	v následujících týdnech studenti vykonávají asistentské činnosti dle pokynů mentora, hospitují a realizují vlastní výstupy
+-	každý student realizuje na základě vlastní přípravy několik výstupů (s ohledem na velikost studentské skupiny). Každou přípravu je nutné několik dní předem konzultovat s mentorem a upravit ji podle připomínek. Je vhodné střídat různé typy aktivit. Ostatní studenti v tuto dobu svého kolegu hospitují a pozorování si zaznamenávají
+-	po náslechu a každé samostatné činnosti studenta proběhne rozbor mentora se studentem/ty
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Prohloubení základů syntaxe a základních konstrukcí jazyků Python a R_x000D_
-2. Základy práce s daty a datovými soubory a jejich vizualizace_x000D_
-3. Pokročilé techniky práce s daty a datovými soubory (import, čištění dat aj.)_x000D_
-4. Pokročilé techniky vizualizace dat_x000D_
-5. - 6. Explorační analýza dat, vybrané pokročilé statistické metody (korelační, regresní analýza, faktorová, shluková analýza aj.), inferenční statistika_x000D_
-7. - 8. Základní aplikace metod strojového učení (vybrané klasifikátory či algoritmy pro regresi a shlukování)_x000D_
-9. Základy textové analýzy, analýza sentimentu_x000D_
-10. Analýza sítí_x000D_
-11. - 12. Reporty, dashboardy a interaktivní vizualizace dat_x000D_
-13. Shrnutí, diskuse nad zadáními seminárních prací_x000D_
+    <t xml:space="preserve">1. Prohloubení základů syntaxe a základních konstrukcí jazyků Python a R
+2. Základy práce s daty a datovými soubory a jejich vizualizace
+3. Pokročilé techniky práce s daty a datovými soubory (import, čištění dat aj.)
+4. Pokročilé techniky vizualizace dat
+5. - 6. Explorační analýza dat, vybrané pokročilé statistické metody (korelační, regresní analýza, faktorová, shluková analýza aj.), inferenční statistika
+7. - 8. Základní aplikace metod strojového učení (vybrané klasifikátory či algoritmy pro regresi a shlukování)
+9. Základy textové analýzy, analýza sentimentu
+10. Analýza sítí
+11. - 12. Reporty, dashboardy a interaktivní vizualizace dat
+13. Shrnutí, diskuse nad zadáními seminárních prací
 </t>
   </si>
   <si>
@@ -1853,50 +1845,48 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">V této fázi se předpokládá postupné provádění těchto činností:_x000D_
-- představení řešených/připravovaných projektů,_x000D_
-- začlenění studentů do jednotlivých projektových týmů (na základě jejich odborných znalostí/dovedností/kompetencí a preferencí), stanovení rolí v projektových týmech (na základě týmových kompetencí),_x000D_
-- seznámení se s nástroji týmové spolupráce a jejich konfigurace na straně nových členů týmů,_x000D_
-- návrh realizace nového projektu nebo předávání know-how (u běžících projektů),_x000D_
-- (samo)studium faktických znalostí a získávání technologických dovedností spojených s realizací projektu,_x000D_
-- stanovení prvních dílčích úkolů pro nové členy týmu,_x000D_
-- počáteční řešení dílčích úkolů._x000D_
-_x000D_
-Cílem dílčích úkolů je jednak motivovat studenty k hlubšímu studiu a pochopení dané problematiky, jednak je více zapojit do přípravy aplikačních výstupů._x000D_
+    <t xml:space="preserve">V této fázi se předpokládá postupné provádění těchto činností:
+- představení řešených/připravovaných projektů,
+- začlenění studentů do jednotlivých projektových týmů (na základě jejich odborných znalostí/dovedností/kompetencí a preferencí), stanovení rolí v projektových týmech (na základě týmových kompetencí),
+- seznámení se s nástroji týmové spolupráce a jejich konfigurace na straně nových členů týmů,
+- návrh realizace nového projektu nebo předávání know-how (u běžících projektů),
+- (samo)studium faktických znalostí a získávání technologických dovedností spojených s realizací projektu,
+- stanovení prvních dílčích úkolů pro nové členy týmu,
+- počáteční řešení dílčích úkolů.
+Cílem dílčích úkolů je jednak motivovat studenty k hlubšímu studiu a pochopení dané problematiky, jednak je více zapojit do přípravy aplikačních výstupů.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Předmět tvoří prostřední člen v řadě tří celosemestrálních projektově orientovaných předmětů (Semestrální projekt I až III). _x000D_
-V této fázi se výuka soustřeďuje na následující činnosti:_x000D_
--	samostatné řešení dílčích projektových úkolů,_x000D_
--	průběžné testování a kontrola řešení,_x000D_
--	průběžné vytváření a správa dokumentace,_x000D_
--	využívání komunikačních a VCS systémů pro sdílení informací uvnitř týmu,_x000D_
--	organizace týmových meetingů s prezentací dílčích výstupů a plánů dalšího postupu._x000D_
-_x000D_
-Studenti budou ve všech těchto činnostech podporováni odborníky z praxe a/nebo akademickými pracovníky. Cílem dílčích úkolů je jednak motivovat studenty k hlubšímu studiu a pochopení dané problematiky, jednak je více začlenit do přípravy zejména aplikačních výstupů. Prezentací dílčích výstupů svým kolegům z týmu studenti procvičí komunikační schopnosti a dovednosti, jako je předávání informací v ucelené formě. V rámci seminářů bude rozebírán stav a vývoj projektu (kontrola a revize stanoveného věcného plánu a časového harmonogramu)._x000D_
+    <t xml:space="preserve">Předmět tvoří prostřední člen v řadě tří celosemestrálních projektově orientovaných předmětů (Semestrální projekt I až III). 
+V této fázi se výuka soustřeďuje na následující činnosti:
+-	samostatné řešení dílčích projektových úkolů,
+-	průběžné testování a kontrola řešení,
+-	průběžné vytváření a správa dokumentace,
+-	využívání komunikačních a VCS systémů pro sdílení informací uvnitř týmu,
+-	organizace týmových meetingů s prezentací dílčích výstupů a plánů dalšího postupu.
+Studenti budou ve všech těchto činnostech podporováni odborníky z praxe a/nebo akademickými pracovníky. Cílem dílčích úkolů je jednak motivovat studenty k hlubšímu studiu a pochopení dané problematiky, jednak je více začlenit do přípravy zejména aplikačních výstupů. Prezentací dílčích výstupů svým kolegům z týmu studenti procvičí komunikační schopnosti a dovednosti, jako je předávání informací v ucelené formě. V rámci seminářů bude rozebírán stav a vývoj projektu (kontrola a revize stanoveného věcného plánu a časového harmonogramu).
 </t>
   </si>
   <si>
-    <t>1. Úvod do systémového inženýrství, softwarové procesy_x000D_
-2. Analýza požadavků_x000D_
-3.- 4. Návrh SW architektury (systémové a aplikační modelování)_x000D_
-5.- 9. Nástroje pro kontrolu verzí (historie a typy systémů pro kontrolu verzí a způsoby jejich použití, historie Gitu, Git internals, použití Git pro jednotlivce, tým nebo silně decentralizovanou skupinu, Git jako úložiště ve vlastním programu)_x000D_
-10. Testování (funkční, zátěžové, bezpečnostní), validace a verifikace_x000D_
-11.- 12. Evoluce softwaru a problematika API (jaké vlastnosti má mít správné API, modularizace &amp; knihovna vs. framework, praktické rady pro návrh API, API vs. SPI, evoluce API a význam automatických testů)_x000D_
+    <t>1. Úvod do systémového inženýrství, softwarové procesy
+2. Analýza požadavků
+3.- 4. Návrh SW architektury (systémové a aplikační modelování)
+5.- 9. Nástroje pro kontrolu verzí (historie a typy systémů pro kontrolu verzí a způsoby jejich použití, historie Gitu, Git internals, použití Git pro jednotlivce, tým nebo silně decentralizovanou skupinu, Git jako úložiště ve vlastním programu)
+10. Testování (funkční, zátěžové, bezpečnostní), validace a verifikace
+11.- 12. Evoluce softwaru a problematika API (jaké vlastnosti má mít správné API, modularizace &amp; knihovna vs. framework, praktické rady pro návrh API, API vs. SPI, evoluce API a význam automatických testů)
 13.- 14. Nasazení do provozu a podpora (dostupnost, spolehlivost, monitoring)</t>
   </si>
   <si>
-    <t xml:space="preserve">1.	Úvod do počítačových simulací (typy simulací, cíle simulací, oblasti použití, moderní trendy) s důrazem na stochastické simulace a spojité a částicové modelování dynamických systémů_x000D_
-2.	Diskrétní událostmi řízené simulace v SimPy (principy, základní typy objektů, implementace pomocí korutin), praktický návrh simulace, její implementace a vizualizace_x000D_
-3.	Komerční systémy pro diskrétní simulace a vizualizace (Simio, SIMUL8 aj.) včetně real-time 3D simulačních systémů_x000D_
-4.	Dynamické systémy (jejich popis, vazby, rovnováha a přechodový stav, lineární odezva systému aj.), základní metody pro modelování vývoje dynamických systémů (soustavy obyčejných diferenciálních rovnic)_x000D_
-5.	SimuPy, nástroj pro spojité modelování dynamických systémů založený na jazyku Python (definice objektu, vazby objektů, metody řešení, vizualizace výsledků)_x000D_
-6.	Praktické řešení dynamických systémů pomocí SimuPy: fyzikální nebo biologické modely_x000D_
-7.	Dynamické modelování částicových systémů, popisy systémů (škály), metody a moderní trendy, paralelizace, simulační balíky a analýza trajektorií pomocí jazyka Python (např. LAMMPS, MDAnalysis aj.)_x000D_
-8.	Deterministické a stochastické modelování jednoduchých a komplexních částicových systémů (počítačové modely, metody, vizualizace)_x000D_
-9.	Praktické řešení úloh zaměřených na modelování deterministických a stochastických částicových systémů_x000D_
-Předmět je vyučován v anglickém jazyce._x000D_
+    <t xml:space="preserve">1.	Úvod do počítačových simulací (typy simulací, cíle simulací, oblasti použití, moderní trendy) s důrazem na stochastické simulace a spojité a částicové modelování dynamických systémů
+2.	Diskrétní událostmi řízené simulace v SimPy (principy, základní typy objektů, implementace pomocí korutin), praktický návrh simulace, její implementace a vizualizace
+3.	Komerční systémy pro diskrétní simulace a vizualizace (Simio, SIMUL8 aj.) včetně real-time 3D simulačních systémů
+4.	Dynamické systémy (jejich popis, vazby, rovnováha a přechodový stav, lineární odezva systému aj.), základní metody pro modelování vývoje dynamických systémů (soustavy obyčejných diferenciálních rovnic)
+5.	SimuPy, nástroj pro spojité modelování dynamických systémů založený na jazyku Python (definice objektu, vazby objektů, metody řešení, vizualizace výsledků)
+6.	Praktické řešení dynamických systémů pomocí SimuPy: fyzikální nebo biologické modely
+7.	Dynamické modelování částicových systémů, popisy systémů (škály), metody a moderní trendy, paralelizace, simulační balíky a analýza trajektorií pomocí jazyka Python (např. LAMMPS, MDAnalysis aj.)
+8.	Deterministické a stochastické modelování jednoduchých a komplexních částicových systémů (počítačové modely, metody, vizualizace)
+9.	Praktické řešení úloh zaměřených na modelování deterministických a stochastických částicových systémů
+Předmět je vyučován v anglickém jazyce.
 </t>
   </si>
   <si>
@@ -1929,70 +1919,70 @@
 redukce: NP-těžký problém, NP-úplný problém; výpočetně obtížné problémy teorie grafů</t>
   </si>
   <si>
-    <t>_x000D_
-1. Základy fyziky polovodičů, elektrická vodivost vodičů, nevodičů, polovodičů, intrinzitní, extrinzitní_x000D_
-vodivost, PN přechod)_x000D_
-2. Základní pojmy obvodové elektroniky (I, U, R, C, Q, AC/DC, zdroje napětí a proudu, VA charakteristiky)_x000D_
-3. Řešení elektrických obvodů stejnosměrného proudu (Ohmův zákon, Théveninova věta, Nortonova věta,_x000D_
-řešení obvodů dle Kirchhoffových zákonů, smyčkových proudů, uzlových napětí, lineární superpozice)_x000D_
-4. Řešení obvodů střídavého proudu (induktance, kapacitance, fázové posunutí proudu a napětí na C a L,_x000D_
-fázorový diagram, rezonance)_x000D_
-5. Grafické řešení nelineárních elektronických obvodů_x000D_
-6. Náhradní lineární obvody (jednobran, dvojbran, admitanční a impedanční rovnice)_x000D_
-7. Pasivní součásti elektrických obvodů (RLC)_x000D_
-Digitální část_x000D_
-8. Digitální signál, bit, byte, číselné soustavy, kódy, BCD, ASCII_x000D_
-9. Logické funkce, Booleova algebra, logické výrazy_x000D_
-10. Kombinační logické sítě_x000D_
-11. Minimalizace normálních forem výrazů_x000D_
-12. Syntéza kombinačních obvodů_x000D_
+    <t xml:space="preserve">
+1. Základy fyziky polovodičů, elektrická vodivost vodičů, nevodičů, polovodičů, intrinzitní, extrinzitní
+vodivost, PN přechod)
+2. Základní pojmy obvodové elektroniky (I, U, R, C, Q, AC/DC, zdroje napětí a proudu, VA charakteristiky)
+3. Řešení elektrických obvodů stejnosměrného proudu (Ohmův zákon, Théveninova věta, Nortonova věta,
+řešení obvodů dle Kirchhoffových zákonů, smyčkových proudů, uzlových napětí, lineární superpozice)
+4. Řešení obvodů střídavého proudu (induktance, kapacitance, fázové posunutí proudu a napětí na C a L,
+fázorový diagram, rezonance)
+5. Grafické řešení nelineárních elektronických obvodů
+6. Náhradní lineární obvody (jednobran, dvojbran, admitanční a impedanční rovnice)
+7. Pasivní součásti elektrických obvodů (RLC)
+Digitální část
+8. Digitální signál, bit, byte, číselné soustavy, kódy, BCD, ASCII
+9. Logické funkce, Booleova algebra, logické výrazy
+10. Kombinační logické sítě
+11. Minimalizace normálních forem výrazů
+12. Syntéza kombinačních obvodů
 13. Fyzikální realizace a analýza kombinačních logických členů</t>
   </si>
   <si>
-    <t>1. Základní informace ke studiu předmětu, podmínky, pravidla. Úvod do problematiky předmětu._x000D_
-2. Hardware kompetence: jednotlivé součásti počítače a práce s nimi, práce s periferiemi počítače, bezpečné používání počítače_x000D_
-3. Software kompetence (operační systém): představení aktuálně používané verze operačního systému MS WINDOWS, orientace v systému, práce se složkami správa systému na úrovni uživatele, základní programy, komprimace dat_x000D_
-4. Software kompetence (MS WORD): základní formátování písma a odstavce, aplikace odrážek, číslování v dokumentu, tvorba vlastních stylů_x000D_
-5. Software kompetence (MS WORD): tvorba základních seznamů (obsah, seznam obrázků, vlastní seznam), vkládání obrázků, tabulek a jiných objektů, záhlaví, zápatí, použití oddílů_x000D_
-6. Software kompetence (MS WORD): tvorba uceleného dokumentu typu seminární, bakalářské práce nebo dopisu_x000D_
-7. Software kompetence (MS EXCEL): základní nastavení a úprava dokumentu, formátování dat v buňce, tvorba a formátování jednoduchých tabulek, použití základních funkcí_x000D_
-8. Software kompetence (MS EXCEL): tvorba a formátování grafů, efektivní práce s daty, podmíněné formátování_x000D_
-9. Software kompetence (MS EXCEL): ucelené zpracování dat_x000D_
-10. Software kompetence (MS POWERPOINT): zásady tvorby odborné prezentace, způsoby prezentace, nastavení vzhledu snímků, formátování textu a použití objektů._x000D_
-11. Software kompetence (MS POWERPOINT): tvorba odborné prezentace a nejčastější chyby._x000D_
-12. Ostatní IT kompetence: základní přehled, bezpečné používání veřejné počítačové sítě, netiketa, novinky v oblasti IT (hardware, software, aplikace)_x000D_
+    <t>1. Základní informace ke studiu předmětu, podmínky, pravidla. Úvod do problematiky předmětu.
+2. Hardware kompetence: jednotlivé součásti počítače a práce s nimi, práce s periferiemi počítače, bezpečné používání počítače
+3. Software kompetence (operační systém): představení aktuálně používané verze operačního systému MS WINDOWS, orientace v systému, práce se složkami správa systému na úrovni uživatele, základní programy, komprimace dat
+4. Software kompetence (MS WORD): základní formátování písma a odstavce, aplikace odrážek, číslování v dokumentu, tvorba vlastních stylů
+5. Software kompetence (MS WORD): tvorba základních seznamů (obsah, seznam obrázků, vlastní seznam), vkládání obrázků, tabulek a jiných objektů, záhlaví, zápatí, použití oddílů
+6. Software kompetence (MS WORD): tvorba uceleného dokumentu typu seminární, bakalářské práce nebo dopisu
+7. Software kompetence (MS EXCEL): základní nastavení a úprava dokumentu, formátování dat v buňce, tvorba a formátování jednoduchých tabulek, použití základních funkcí
+8. Software kompetence (MS EXCEL): tvorba a formátování grafů, efektivní práce s daty, podmíněné formátování
+9. Software kompetence (MS EXCEL): ucelené zpracování dat
+10. Software kompetence (MS POWERPOINT): zásady tvorby odborné prezentace, způsoby prezentace, nastavení vzhledu snímků, formátování textu a použití objektů.
+11. Software kompetence (MS POWERPOINT): tvorba odborné prezentace a nejčastější chyby.
+12. Ostatní IT kompetence: základní přehled, bezpečné používání veřejné počítačové sítě, netiketa, novinky v oblasti IT (hardware, software, aplikace)
 13. Zápočtový test</t>
   </si>
   <si>
-    <t>1. Základní pojmy kryptologie, Modulární aritmetika_x000D_
-2. Generátory (pseudo)náhodných čísel, testy prvočíselnosti_x000D_
-3. Klasická kryptologie (substituční a transpoziční šifry)_x000D_
-4. Symetrická kryptografie ? blokové šifry (DES, AES)_x000D_
-5. Symetrická kryptografie ? proudové šifry (A5, Salsa20, Chacha20)_x000D_
-6. Kryptografie veřejného klíče (RSA, DSA, DH)_x000D_
-7. Hashovací funkce (MD5, SHA, digitální podpis ? princip)_x000D_
-8. Digitální měny, HW a SW peněženky, blockchain (principy)_x000D_
-9. Důvěrnost, integrita, dostupnost (princip, klasifikace, prostředky, algoritmy)_x000D_
-10. Řízení bezpečnosti dat (služby, metody, ověření bezpečnosti)_x000D_
-11. Analýza hrozeb a rizik (aktiva, zranitelnost, ohrožení, opatření), soudobé hrozby informačních technologií_x000D_
-(typy, techniky, možnosti)_x000D_
-12. AAA framework (principy, dělení, účel, protokoly, využití)_x000D_
-13. Protokoly a metody bezpečnosti a ochrany dat v prostředí Internetu_x000D_
+    <t>1. Základní pojmy kryptologie, Modulární aritmetika
+2. Generátory (pseudo)náhodných čísel, testy prvočíselnosti
+3. Klasická kryptologie (substituční a transpoziční šifry)
+4. Symetrická kryptografie ? blokové šifry (DES, AES)
+5. Symetrická kryptografie ? proudové šifry (A5, Salsa20, Chacha20)
+6. Kryptografie veřejného klíče (RSA, DSA, DH)
+7. Hashovací funkce (MD5, SHA, digitální podpis ? princip)
+8. Digitální měny, HW a SW peněženky, blockchain (principy)
+9. Důvěrnost, integrita, dostupnost (princip, klasifikace, prostředky, algoritmy)
+10. Řízení bezpečnosti dat (služby, metody, ověření bezpečnosti)
+11. Analýza hrozeb a rizik (aktiva, zranitelnost, ohrožení, opatření), soudobé hrozby informačních technologií
+(typy, techniky, možnosti)
+12. AAA framework (principy, dělení, účel, protokoly, využití)
+13. Protokoly a metody bezpečnosti a ochrany dat v prostředí Internetu
 14. Ochrana dat na úrovni kabelových sítí (principy, dělení, využití)</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Excel: podmíněné formátování, logické funkce a filtrování dat_x000D_
-2. Excel: vytváření souhrnů a skupin, vyhledávací a databázové funkce_x000D_
-3. Excel: kontingenční tabulky a grafy_x000D_
-4. Excel: základní statistické výpočty_x000D_
-5. Excel: vytváření a úprava maker_x000D_
-6. R: instalace, prostředí, ovládání, syntaxe, balíčky, základní datové typy a datové struktury, proměnné, základní operace, příkazy a funkce_x000D_
-7. R: načítání a ukládání dat, psaní vlastních funkcí a skriptů, cykly a podmíněné příkazy_x000D_
-8. R: manipulace s daty a datovými soubory (různé úpravy a transformace, slučování, řazení, filtrování, kontingenční tabulky apod.)_x000D_
-9. R: základní statistické funkce (popisná statistika, funkce nad různými statistickými rozděleními - generování náhodných čísel apod.)_x000D_
-10. R: grafické výstupy (základní a pokročilé typy grafů)_x000D_
-11. R+LaTeX: tvorba reprodukovatelných reportů (lehký úvod do LaTeXu a využití balíčku knitr)_x000D_
-12. - 13. R: praktické motivační ukázky využití pokročilých statistických metod (např. z oblasti statistického testování hypotéz, regresní analýzy, faktorové analýzy, shlukové analýzy, diskriminační analýzy nebo analýzy časových řad)_x000D_
+    <t xml:space="preserve">1. Excel: podmíněné formátování, logické funkce a filtrování dat
+2. Excel: vytváření souhrnů a skupin, vyhledávací a databázové funkce
+3. Excel: kontingenční tabulky a grafy
+4. Excel: základní statistické výpočty
+5. Excel: vytváření a úprava maker
+6. R: instalace, prostředí, ovládání, syntaxe, balíčky, základní datové typy a datové struktury, proměnné, základní operace, příkazy a funkce
+7. R: načítání a ukládání dat, psaní vlastních funkcí a skriptů, cykly a podmíněné příkazy
+8. R: manipulace s daty a datovými soubory (různé úpravy a transformace, slučování, řazení, filtrování, kontingenční tabulky apod.)
+9. R: základní statistické funkce (popisná statistika, funkce nad různými statistickými rozděleními - generování náhodných čísel apod.)
+10. R: grafické výstupy (základní a pokročilé typy grafů)
+11. R+LaTeX: tvorba reprodukovatelných reportů (lehký úvod do LaTeXu a využití balíčku knitr)
+12. - 13. R: praktické motivační ukázky využití pokročilých statistických metod (např. z oblasti statistického testování hypotéz, regresní analýzy, faktorové analýzy, shlukové analýzy, diskriminační analýzy nebo analýzy časových řad)
 </t>
   </si>
   <si>
@@ -2025,16 +2015,16 @@
 12.	Gradientní metody.</t>
   </si>
   <si>
-    <t xml:space="preserve">1.	Klasifikace optimalizačních úloh._x000D_
-2.	Úlohy derivační a nederivační. _x000D_
-3.	Úlohy jednorozměrné optimalizace._x000D_
-4.	Úlohy vícerozměrné optimalizace._x000D_
-5.	Úlohy lineární optimalizace._x000D_
-6.	Simplexová metoda._x000D_
-7.	Dopravní problém._x000D_
-8.	Metoda nejmenších čtverců._x000D_
-9.	Úlohy nelineární optimalizace s omezeními._x000D_
-10.	Úlohy nelineární optimalizace bez omezení._x000D_
+    <t xml:space="preserve">1.	Klasifikace optimalizačních úloh.
+2.	Úlohy derivační a nederivační. 
+3.	Úlohy jednorozměrné optimalizace.
+4.	Úlohy vícerozměrné optimalizace.
+5.	Úlohy lineární optimalizace.
+6.	Simplexová metoda.
+7.	Dopravní problém.
+8.	Metoda nejmenších čtverců.
+9.	Úlohy nelineární optimalizace s omezeními.
+10.	Úlohy nelineární optimalizace bez omezení.
 </t>
   </si>
   <si>
@@ -2052,46 +2042,42 @@
 12.	Aktuátory (typy, ovládání)</t>
   </si>
   <si>
-    <t>1. Spojité lineární řízení- Laplaceova transformace, statické a dynamické vlastnosti regulačních členů, přechodové funkce a charakteristiky_x000D_
-2. Kritéria stability- Hurwitzovo kritérium, Routh-Schurovo kritérium, Nyquistovo kritérium_x000D_
-3. Diskrétní řízení- diskrétní regulační obvod, Z-transformace, diskretizace spojitých systémů_x000D_
-4. Číslicový regulátor- algoritmus číslicových regulátorů_x000D_
-5. Matematický popis diskrétních členů_x000D_
-6. Stabilita diskrétních obvodů_x000D_
-7. FUZZY řízení ? pravidla a báze pravidel_x000D_
-8. FUZZY regulátory_x000D_
+    <t>1. Spojité lineární řízení- Laplaceova transformace, statické a dynamické vlastnosti regulačních členů, přechodové funkce a charakteristiky
+2. Kritéria stability- Hurwitzovo kritérium, Routh-Schurovo kritérium, Nyquistovo kritérium
+3. Diskrétní řízení- diskrétní regulační obvod, Z-transformace, diskretizace spojitých systémů
+4. Číslicový regulátor- algoritmus číslicových regulátorů
+5. Matematický popis diskrétních členů
+6. Stabilita diskrétních obvodů
+7. FUZZY řízení ? pravidla a báze pravidel
+8. FUZZY regulátory
 9. Systémy a jeho popis ve stavovém prostoru</t>
   </si>
   <si>
     <t>Kurz je určen pro studenty, kteří mají zápočet z předmětu AI nebo BI. Kurz není určen pro začátečníky</t>
   </si>
   <si>
-    <t xml:space="preserve">Předpokladem je konání praxí primárně na fakultních a spolupracujících zařízeních PřF UJEP. Organizačně, metodicky i kontrolně zajišťuje tuto praxi CPPV PřF UJEP._x000D_
-_x000D_
-Cíle předmětu předpokládají úzkou spolupráci zkušeného učitele a studenta učitelství._x000D_
--	Student se orientuje v základní terminologii z oblasti výchovy a vzdělávání, charakterizuje kvality a specifika dítěte školního věku a studenta SŠ, pracuje s kurikulárními dokumenty pro vzdělávání, teoreticky a zčásti prakticky zvládá plánování činností v ZŠ a SŠ po stránce obsahové (věcné) i metodické, má přehled o vedení třídní dokumentace. Orientuje se v základních koncepcích výchovy a alternativních edukačních programech. Charakterizuje základní požadavky na výkon učitelské profese, popíše pracovní činnosti a povinnosti učitele ZŠ a SŠ, význam sebereflexe pro profesní a osobní růst._x000D_
+    <t xml:space="preserve">Předpokladem je konání praxí primárně na fakultních a spolupracujících zařízeních PřF UJEP. Organizačně, metodicky i kontrolně zajišťuje tuto praxi CPPV PřF UJEP.
+Cíle předmětu předpokládají úzkou spolupráci zkušeného učitele a studenta učitelství.
+-	Student se orientuje v základní terminologii z oblasti výchovy a vzdělávání, charakterizuje kvality a specifika dítěte školního věku a studenta SŠ, pracuje s kurikulárními dokumenty pro vzdělávání, teoreticky a zčásti prakticky zvládá plánování činností v ZŠ a SŠ po stránce obsahové (věcné) i metodické, má přehled o vedení třídní dokumentace. Orientuje se v základních koncepcích výchovy a alternativních edukačních programech. Charakterizuje základní požadavky na výkon učitelské profese, popíše pracovní činnosti a povinnosti učitele ZŠ a SŠ, význam sebereflexe pro profesní a osobní růst.
 </t>
   </si>
   <si>
     <t>Výuka v angličtině je určena pro erasmové a zahraniční studenty. Výuka v případě malého počtu studentů probíhá formou individuálních konzultací.</t>
   </si>
   <si>
-    <t>Základní znalosti z oblasti numerické matematiky_x000D_
+    <t>Základní znalosti z oblasti numerické matematiky
 Výuka v angličtině je určena pro erasmové a zahraniční studenty. Výuka v případě malého počtu studentů probíhá formou individuálních konzultací.</t>
   </si>
   <si>
     <t xml:space="preserve">Studenti se seznámí s odbornými texty v oboru  informatiky, výpočetní techniky, naučí se správně  používat odborné výrazy. Mluvený projev: Odborná komunikace na základě textu, diskuse. Psaný projev: Inzerát, resumé, popis, odborný popis. </t>
   </si>
   <si>
-    <t>Znalosti_x000D_
-_x000D_
-Student umí popsat součásti a základní princip práce osobního počítače._x000D_
-Student umí definovat základní pravidla bezpečné práce s PC._x000D_
-_x000D_
-Dovednosti_x000D_
-_x000D_
-Student umí vytvořit komplexní dokument v textovém editoru._x000D_
-Student umí realizovat výpočty a grafy v tabulkovém procesoru._x000D_
+    <t>Znalosti
+Student umí popsat součásti a základní princip práce osobního počítače.
+Student umí definovat základní pravidla bezpečné práce s PC.
+Dovednosti
+Student umí vytvořit komplexní dokument v textovém editoru.
+Student umí realizovat výpočty a grafy v tabulkovém procesoru.
 Student umí vytvořit a přednést odbornou prezentaci.</t>
   </si>
   <si>
